--- a/flag/AQB_classification/species_list_10071623_NJMc.xlsx
+++ b/flag/AQB_classification/species_list_10071623_NJMc.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/HD/GitHub/bioinfRhints/flag/AQB_classification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/bioinfRhints/flag/AQB_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E4704A-E67C-164C-B0BE-D93B29DFB3E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC887E5-D9BF-8946-BE99-069C44FDD0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="4140" windowWidth="34040" windowHeight="20820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="500" windowWidth="34040" windowHeight="20820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species_list" sheetId="1" r:id="rId1"/>
     <sheet name="Archaea" sheetId="4" r:id="rId2"/>
     <sheet name="download_script" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4589" uniqueCount="2512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="2596">
   <si>
     <t>Download script?</t>
   </si>
@@ -7896,9 +7909,6 @@
     <t>MR-1</t>
   </si>
   <si>
-    <t>end</t>
-  </si>
-  <si>
     <t>kaustophilus</t>
   </si>
   <si>
@@ -8737,6 +8747,261 @@
   </si>
   <si>
     <t>SS9</t>
+  </si>
+  <si>
+    <t>Photorhabdus</t>
+  </si>
+  <si>
+    <t>luminescens</t>
+  </si>
+  <si>
+    <t>NBAII HiPL101</t>
+  </si>
+  <si>
+    <t>Morganellaceae</t>
+  </si>
+  <si>
+    <t>GCA_000798635.2</t>
+  </si>
+  <si>
+    <t>GCF_000798635.1</t>
+  </si>
+  <si>
+    <t>ASM79863v2</t>
+  </si>
+  <si>
+    <t>Planctomycetota</t>
+  </si>
+  <si>
+    <t>ASM2518v1</t>
+  </si>
+  <si>
+    <t>Plesiomonas</t>
+  </si>
+  <si>
+    <t>shigelloides</t>
+  </si>
+  <si>
+    <t>MS-17-188</t>
+  </si>
+  <si>
+    <t>ASM301985v1</t>
+  </si>
+  <si>
+    <t>GCA_003019855.1</t>
+  </si>
+  <si>
+    <t>GCF_003019855.1</t>
+  </si>
+  <si>
+    <t>Pseudoalteromonas</t>
+  </si>
+  <si>
+    <t>haloplanktis</t>
+  </si>
+  <si>
+    <t>ATCC 14393</t>
+  </si>
+  <si>
+    <t>GCA_000238355.2</t>
+  </si>
+  <si>
+    <t>GCF_000238355.1</t>
+  </si>
+  <si>
+    <t>Phal_1.0</t>
+  </si>
+  <si>
+    <t>GCA_000333235.1</t>
+  </si>
+  <si>
+    <t>GCF_000333235.1</t>
+  </si>
+  <si>
+    <t>luteoviolacea</t>
+  </si>
+  <si>
+    <t>B = ATCC 29581</t>
+  </si>
+  <si>
+    <t>ASM15324v1</t>
+  </si>
+  <si>
+    <t>ASM33323v1</t>
+  </si>
+  <si>
+    <t>GCF_000153245.1</t>
+  </si>
+  <si>
+    <t>GCA_000153245.1</t>
+  </si>
+  <si>
+    <t>tunicata</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>ASM237481v1</t>
+  </si>
+  <si>
+    <t>GCA_002374815.1</t>
+  </si>
+  <si>
+    <t>GCF_002374815.1</t>
+  </si>
+  <si>
+    <t>atlantica</t>
+  </si>
+  <si>
+    <t>ECSMB14104</t>
+  </si>
+  <si>
+    <t>ASM172950v1</t>
+  </si>
+  <si>
+    <t>GCA_001729505.1</t>
+  </si>
+  <si>
+    <t>GCF_001729505.1</t>
+  </si>
+  <si>
+    <t>ATCC 15692</t>
+  </si>
+  <si>
+    <t>GCA_000012245.1</t>
+  </si>
+  <si>
+    <t>GCF_000012245.1</t>
+  </si>
+  <si>
+    <t>ASM1224v1</t>
+  </si>
+  <si>
+    <t>syringae</t>
+  </si>
+  <si>
+    <t>B728a</t>
+  </si>
+  <si>
+    <t>ASM19611v1</t>
+  </si>
+  <si>
+    <t>Salinibacter</t>
+  </si>
+  <si>
+    <t>DSM 13855 = M31</t>
+  </si>
+  <si>
+    <t>GCA_000013045.1</t>
+  </si>
+  <si>
+    <t>GCF_000013045.1</t>
+  </si>
+  <si>
+    <t>ASM1304v1</t>
+  </si>
+  <si>
+    <t>Rhodothermia</t>
+  </si>
+  <si>
+    <t>Rhodothermales</t>
+  </si>
+  <si>
+    <t>Salinibacteraceae</t>
+  </si>
+  <si>
+    <t>ASM694v2</t>
+  </si>
+  <si>
+    <t>enterica serovar Typhimurium str. LT2</t>
+  </si>
+  <si>
+    <t>enterica</t>
+  </si>
+  <si>
+    <t>GCA_000006945.2</t>
+  </si>
+  <si>
+    <t>GCF_000006945.2</t>
+  </si>
+  <si>
+    <t>ASM38100v1</t>
+  </si>
+  <si>
+    <t>GCA_000381005.1</t>
+  </si>
+  <si>
+    <t>GCF_000381005.1</t>
+  </si>
+  <si>
+    <t>Selenomonadales</t>
+  </si>
+  <si>
+    <t>Selenomonadaceae</t>
+  </si>
+  <si>
+    <t>Selenomonas</t>
+  </si>
+  <si>
+    <t>bovis</t>
+  </si>
+  <si>
+    <t>DSM 23594</t>
+  </si>
+  <si>
+    <t>marcescens</t>
+  </si>
+  <si>
+    <t>ASM26427v1</t>
+  </si>
+  <si>
+    <t>GCA_000264275.1</t>
+  </si>
+  <si>
+    <t>GCF_000264275.1</t>
+  </si>
+  <si>
+    <t>LCT-SM213</t>
+  </si>
+  <si>
+    <t>NJM_2023-07-20</t>
+  </si>
+  <si>
+    <t>NJM_2023-07-16</t>
+  </si>
+  <si>
+    <t>NJM_2023-07-17</t>
+  </si>
+  <si>
+    <t>NJM_2023-07-19</t>
+  </si>
+  <si>
+    <t>NJM_2023-07-18_backwards</t>
+  </si>
+  <si>
+    <t>putrefaciens</t>
+  </si>
+  <si>
+    <t>4H</t>
+  </si>
+  <si>
+    <t>Shewanella putrefaciens CN-32 is suppressed (Florian Rossmann et al. (2015). The role of FlhF and HubP as polar landmark proteins inShewanella putrefaciens CN-32. Molecular Microbiology(2015)98(4), 727–742. http://dx.doi.org/10.1111/mmi.13152) ; 4H is the reference strain</t>
+  </si>
+  <si>
+    <t>ASM2540287v1</t>
+  </si>
+  <si>
+    <t>NJM_2023-07-20_end</t>
+  </si>
+  <si>
+    <t>GCA_025402875.1</t>
+  </si>
+  <si>
+    <t>GCF_025402875.1</t>
+  </si>
+  <si>
+    <t>NJM_2023-07-18_end</t>
   </si>
 </sst>
 </file>
@@ -9041,7 +9306,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -9205,9 +9470,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -9278,9 +9540,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -9297,17 +9556,35 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -10488,9 +10765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q386"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B331" sqref="B331"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10520,7 +10797,7 @@
       <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="87" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="24" t="s">
@@ -10570,10 +10847,10 @@
       <c r="C2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="64" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -10603,7 +10880,7 @@
       <c r="N2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="56"/>
+      <c r="O2" s="55"/>
       <c r="P2" s="23"/>
     </row>
     <row r="3" spans="1:16" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10614,7 +10891,7 @@
       <c r="C3" s="29" t="s">
         <v>1008</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="89" t="s">
         <v>1009</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -10656,7 +10933,7 @@
       <c r="C4" s="29" t="s">
         <v>1449</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="89" t="s">
         <v>1450</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -10698,7 +10975,7 @@
       <c r="C5" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="89" t="s">
         <v>1028</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -10740,7 +11017,7 @@
       <c r="C6" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="89" t="s">
         <v>1262</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -10780,7 +11057,7 @@
       <c r="C7" s="29" t="s">
         <v>1151</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="89" t="s">
         <v>1152</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -10820,7 +11097,7 @@
       <c r="C8" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="89" t="s">
         <v>79</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -10856,7 +11133,7 @@
       <c r="O8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="P8" s="60" t="s">
+      <c r="P8" s="59" t="s">
         <v>1744</v>
       </c>
     </row>
@@ -10868,7 +11145,7 @@
       <c r="C9" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="89" t="s">
         <v>79</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -10914,7 +11191,7 @@
       <c r="C10" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="89" t="s">
         <v>261</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -10958,7 +11235,7 @@
       <c r="C11" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="89" t="s">
         <v>115</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -11000,7 +11277,7 @@
       <c r="C12" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="89" t="s">
         <v>168</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -11042,10 +11319,10 @@
       <c r="C13" s="29" t="s">
         <v>1531</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="89" t="s">
         <v>1532</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="65" t="s">
         <v>1533</v>
       </c>
       <c r="F13" s="6"/>
@@ -11056,7 +11333,7 @@
       <c r="I13" s="20" t="s">
         <v>1830</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="68" t="s">
         <v>1534</v>
       </c>
       <c r="K13" s="42" t="s">
@@ -11084,7 +11361,7 @@
       <c r="C14" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="89" t="s">
         <v>176</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -11096,7 +11373,7 @@
         <v>178</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="70" t="s">
+      <c r="J14" s="69" t="s">
         <v>179</v>
       </c>
       <c r="K14" s="17" t="s">
@@ -11122,7 +11399,7 @@
       <c r="C15" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="89" t="s">
         <v>176</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -11160,7 +11437,7 @@
       <c r="C16" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="89" t="s">
         <v>188</v>
       </c>
       <c r="E16" s="12" t="s">
@@ -11198,7 +11475,7 @@
       <c r="C17" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="89" t="s">
         <v>193</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -11244,7 +11521,7 @@
       <c r="C18" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="89" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -11290,7 +11567,7 @@
       <c r="C19" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="89" t="s">
         <v>141</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -11332,7 +11609,7 @@
       <c r="C20" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="89" t="s">
         <v>384</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -11372,7 +11649,7 @@
       <c r="C21" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="89" t="s">
         <v>922</v>
       </c>
       <c r="E21" s="12" t="s">
@@ -11412,7 +11689,7 @@
       <c r="C22" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="89" t="s">
         <v>929</v>
       </c>
       <c r="E22" s="12" t="s">
@@ -11452,7 +11729,7 @@
       <c r="C23" s="29" t="s">
         <v>667</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="89" t="s">
         <v>668</v>
       </c>
       <c r="E23" s="12" t="s">
@@ -11496,7 +11773,7 @@
       <c r="C24" s="29" t="s">
         <v>682</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="89" t="s">
         <v>683</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -11540,7 +11817,7 @@
       <c r="C25" s="29" t="s">
         <v>682</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="89" t="s">
         <v>686</v>
       </c>
       <c r="E25" s="12" t="s">
@@ -11584,7 +11861,7 @@
       <c r="C26" s="29" t="s">
         <v>682</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="89" t="s">
         <v>689</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -11628,7 +11905,7 @@
       <c r="C27" s="26" t="s">
         <v>1374</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="89" t="s">
         <v>1375</v>
       </c>
       <c r="E27" s="12" t="s">
@@ -11668,7 +11945,7 @@
       <c r="C28" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="89" t="s">
         <v>240</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -11714,7 +11991,7 @@
       <c r="C29" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="89" t="s">
         <v>250</v>
       </c>
       <c r="E29" s="12" t="s">
@@ -11756,7 +12033,7 @@
       <c r="C30" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="89" t="s">
         <v>286</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -11800,7 +12077,7 @@
       <c r="C31" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="89" t="s">
         <v>1513</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -11836,7 +12113,7 @@
       <c r="C32" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="89" t="s">
         <v>300</v>
       </c>
       <c r="E32" s="21" t="s">
@@ -11876,7 +12153,7 @@
       <c r="C33" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="89" t="s">
         <v>306</v>
       </c>
       <c r="E33" s="21" t="s">
@@ -11914,7 +12191,7 @@
         <v>1506</v>
       </c>
       <c r="C34" s="9"/>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="89" t="s">
         <v>1507</v>
       </c>
       <c r="E34" s="21" t="s">
@@ -11950,7 +12227,7 @@
       <c r="C35" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="89" t="s">
         <v>311</v>
       </c>
       <c r="E35" s="21" t="s">
@@ -11990,7 +12267,7 @@
       <c r="C36" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="89" t="s">
         <v>316</v>
       </c>
       <c r="E36" s="10" t="s">
@@ -12028,7 +12305,7 @@
       <c r="C37" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="89" t="s">
         <v>316</v>
       </c>
       <c r="E37" s="21" t="s">
@@ -12068,7 +12345,7 @@
       <c r="C38" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="89" t="s">
         <v>897</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -12108,7 +12385,7 @@
       <c r="C39" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="89" t="s">
         <v>324</v>
       </c>
       <c r="E39" s="21" t="s">
@@ -12148,7 +12425,7 @@
       <c r="C40" s="3" t="s">
         <v>1486</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="89" t="s">
         <v>1487</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -12184,7 +12461,7 @@
       <c r="C41" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="89" t="s">
         <v>1254</v>
       </c>
       <c r="E41" s="12" t="s">
@@ -12224,7 +12501,7 @@
       <c r="C42" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="89" t="s">
         <v>329</v>
       </c>
       <c r="E42" s="10" t="s">
@@ -12262,7 +12539,7 @@
       <c r="C43" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="89" t="s">
         <v>329</v>
       </c>
       <c r="E43" s="21" t="s">
@@ -12302,7 +12579,7 @@
       <c r="C44" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="89" t="s">
         <v>335</v>
       </c>
       <c r="E44" s="21" t="s">
@@ -12342,7 +12619,7 @@
       <c r="C45" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="89" t="s">
         <v>340</v>
       </c>
       <c r="E45" s="21" t="s">
@@ -12382,7 +12659,7 @@
       <c r="C46" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="89" t="s">
         <v>345</v>
       </c>
       <c r="E46" s="10" t="s">
@@ -12420,7 +12697,7 @@
       <c r="C47" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="89" t="s">
         <v>887</v>
       </c>
       <c r="E47" s="12" t="s">
@@ -12460,7 +12737,7 @@
       <c r="C48" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="89" t="s">
         <v>887</v>
       </c>
       <c r="E48" s="12" t="s">
@@ -12500,7 +12777,7 @@
       <c r="C49" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="89" t="s">
         <v>349</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -12538,7 +12815,7 @@
       <c r="C50" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="89" t="s">
         <v>349</v>
       </c>
       <c r="E50" s="21" t="s">
@@ -12578,7 +12855,7 @@
       <c r="C51" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="89" t="s">
         <v>356</v>
       </c>
       <c r="E51" s="21" t="s">
@@ -12616,7 +12893,7 @@
         <v>1499</v>
       </c>
       <c r="C52" s="9"/>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="89" t="s">
         <v>1500</v>
       </c>
       <c r="E52" s="21" t="s">
@@ -12650,7 +12927,7 @@
       <c r="C53" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="D53" s="33" t="s">
+      <c r="D53" s="89" t="s">
         <v>361</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -12688,7 +12965,7 @@
       <c r="C54" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="89" t="s">
         <v>361</v>
       </c>
       <c r="E54" s="21" t="s">
@@ -12728,7 +13005,7 @@
       <c r="C55" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="89" t="s">
         <v>368</v>
       </c>
       <c r="E55" s="21" t="s">
@@ -12768,7 +13045,7 @@
       <c r="C56" s="3" t="s">
         <v>1493</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="89" t="s">
         <v>1494</v>
       </c>
       <c r="E56" s="12" t="s">
@@ -12802,7 +13079,7 @@
       <c r="C57" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="89" t="s">
         <v>374</v>
       </c>
       <c r="E57" s="12" t="s">
@@ -12844,7 +13121,7 @@
       <c r="C58" s="26" t="s">
         <v>641</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="89" t="s">
         <v>642</v>
       </c>
       <c r="E58" s="12" t="s">
@@ -12876,7 +13153,7 @@
         <v>649</v>
       </c>
       <c r="O58" s="6"/>
-      <c r="P58" s="60" t="s">
+      <c r="P58" s="59" t="s">
         <v>650</v>
       </c>
     </row>
@@ -12888,7 +13165,7 @@
       <c r="C59" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="89" t="s">
         <v>401</v>
       </c>
       <c r="E59" s="4" t="s">
@@ -12932,7 +13209,7 @@
       <c r="C60" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="89" t="s">
         <v>411</v>
       </c>
       <c r="E60" s="4" t="s">
@@ -12976,7 +13253,7 @@
       <c r="C61" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="D61" s="89" t="s">
         <v>424</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -13020,7 +13297,7 @@
       <c r="C62" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="D62" s="90" t="s">
         <v>430</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -13064,7 +13341,7 @@
       <c r="C63" s="26" t="s">
         <v>1788</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="89" t="s">
         <v>1784</v>
       </c>
       <c r="E63" s="4"/>
@@ -13102,7 +13379,7 @@
       <c r="C64" s="26" t="s">
         <v>1789</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="89" t="s">
         <v>1783</v>
       </c>
       <c r="E64" s="4"/>
@@ -13140,7 +13417,7 @@
       <c r="C65" s="26" t="s">
         <v>1790</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="89" t="s">
         <v>1782</v>
       </c>
       <c r="E65" s="4"/>
@@ -13180,7 +13457,7 @@
       <c r="C66" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="89" t="s">
         <v>51</v>
       </c>
       <c r="E66" s="4" t="s">
@@ -13224,7 +13501,7 @@
       <c r="C67" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="89" t="s">
         <v>454</v>
       </c>
       <c r="E67" s="4" t="s">
@@ -13270,7 +13547,7 @@
       <c r="C68" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="89" t="s">
         <v>436</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -13316,7 +13593,7 @@
       <c r="C69" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="89" t="s">
         <v>448</v>
       </c>
       <c r="E69" s="4" t="s">
@@ -13362,7 +13639,7 @@
       <c r="C70" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="89" t="s">
         <v>475</v>
       </c>
       <c r="E70" s="4" t="s">
@@ -13408,7 +13685,7 @@
       <c r="C71" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="89" t="s">
         <v>461</v>
       </c>
       <c r="E71" s="4" t="s">
@@ -13454,7 +13731,7 @@
       <c r="C72" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="91" t="s">
         <v>486</v>
       </c>
       <c r="E72" s="4" t="s">
@@ -13502,7 +13779,7 @@
       <c r="C73" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="89" t="s">
         <v>761</v>
       </c>
       <c r="E73" s="4" t="s">
@@ -13544,7 +13821,7 @@
       <c r="C74" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="89" t="s">
         <v>157</v>
       </c>
       <c r="E74" s="4" t="s">
@@ -13588,7 +13865,7 @@
       <c r="C75" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="D75" s="89" t="s">
         <v>1050</v>
       </c>
       <c r="E75" s="4" t="s">
@@ -13630,7 +13907,7 @@
       <c r="C76" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="91" t="s">
         <v>499</v>
       </c>
       <c r="E76" s="4" t="s">
@@ -13674,7 +13951,7 @@
       <c r="C77" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="89" t="s">
         <v>518</v>
       </c>
       <c r="E77" s="4" t="s">
@@ -13718,7 +13995,7 @@
       <c r="C78" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="D78" s="89" t="s">
         <v>571</v>
       </c>
       <c r="E78" s="4" t="s">
@@ -13762,7 +14039,7 @@
       <c r="C79" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="89" t="s">
         <v>582</v>
       </c>
       <c r="E79" s="4" t="s">
@@ -13806,7 +14083,7 @@
       <c r="C80" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="89" t="s">
         <v>588</v>
       </c>
       <c r="E80" s="4" t="s">
@@ -13854,7 +14131,7 @@
       <c r="C81" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D81" s="89" t="s">
         <v>536</v>
       </c>
       <c r="E81" s="4" t="s">
@@ -13896,7 +14173,7 @@
       <c r="C82" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D82" s="89" t="s">
         <v>753</v>
       </c>
       <c r="E82" s="4" t="s">
@@ -13938,7 +14215,7 @@
       <c r="C83" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="89" t="s">
         <v>614</v>
       </c>
       <c r="E83" s="4" t="s">
@@ -13980,7 +14257,7 @@
       <c r="C84" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="D84" s="30" t="s">
+      <c r="D84" s="89" t="s">
         <v>596</v>
       </c>
       <c r="E84" s="4"/>
@@ -14003,14 +14280,14 @@
       <c r="L84" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="M84" s="72" t="s">
+      <c r="M84" s="71" t="s">
         <v>600</v>
       </c>
       <c r="N84" s="11" t="s">
         <v>601</v>
       </c>
       <c r="O84" s="4"/>
-      <c r="P84" s="58" t="s">
+      <c r="P84" s="57" t="s">
         <v>602</v>
       </c>
     </row>
@@ -14022,7 +14299,7 @@
       <c r="C85" s="28" t="s">
         <v>1399</v>
       </c>
-      <c r="D85" s="33" t="s">
+      <c r="D85" s="89" t="s">
         <v>1400</v>
       </c>
       <c r="E85" s="10" t="s">
@@ -14062,7 +14339,7 @@
       <c r="C86" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="D86" s="89" t="s">
         <v>1061</v>
       </c>
       <c r="E86" s="12" t="s">
@@ -14102,7 +14379,7 @@
       <c r="C87" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="D87" s="89" t="s">
         <v>1527</v>
       </c>
       <c r="E87" s="12" t="s">
@@ -14136,7 +14413,7 @@
       <c r="C88" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="D88" s="30" t="s">
+      <c r="D88" s="89" t="s">
         <v>622</v>
       </c>
       <c r="E88" s="4" t="s">
@@ -14176,7 +14453,7 @@
       <c r="C89" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="D89" s="30" t="s">
+      <c r="D89" s="89" t="s">
         <v>632</v>
       </c>
       <c r="E89" s="4" t="s">
@@ -14216,7 +14493,7 @@
       <c r="C90" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="D90" s="30" t="s">
+      <c r="D90" s="89" t="s">
         <v>954</v>
       </c>
       <c r="E90" s="4" t="s">
@@ -14258,7 +14535,7 @@
       <c r="C91" s="29" t="s">
         <v>1110</v>
       </c>
-      <c r="D91" s="33" t="s">
+      <c r="D91" s="89" t="s">
         <v>1111</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -14302,7 +14579,7 @@
       <c r="C92" s="29" t="s">
         <v>652</v>
       </c>
-      <c r="D92" s="33" t="s">
+      <c r="D92" s="89" t="s">
         <v>653</v>
       </c>
       <c r="E92" s="10" t="s">
@@ -14348,7 +14625,7 @@
       <c r="C93" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="D93" s="30" t="s">
+      <c r="D93" s="89" t="s">
         <v>776</v>
       </c>
       <c r="E93" s="4" t="s">
@@ -14386,7 +14663,7 @@
       <c r="C94" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="D94" s="30" t="s">
+      <c r="D94" s="89" t="s">
         <v>785</v>
       </c>
       <c r="E94" s="4" t="s">
@@ -14424,7 +14701,7 @@
       <c r="C95" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="D95" s="30" t="s">
+      <c r="D95" s="89" t="s">
         <v>785</v>
       </c>
       <c r="E95" s="12" t="s">
@@ -14458,7 +14735,7 @@
       <c r="C96" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="D96" s="30" t="s">
+      <c r="D96" s="89" t="s">
         <v>791</v>
       </c>
       <c r="E96" s="4" t="s">
@@ -14506,7 +14783,7 @@
       <c r="C97" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D97" s="30" t="s">
+      <c r="D97" s="89" t="s">
         <v>546</v>
       </c>
       <c r="E97" s="4" t="s">
@@ -14548,7 +14825,7 @@
       <c r="C98" s="26" t="s">
         <v>819</v>
       </c>
-      <c r="D98" s="30" t="s">
+      <c r="D98" s="89" t="s">
         <v>820</v>
       </c>
       <c r="E98" s="4" t="s">
@@ -14588,7 +14865,7 @@
       <c r="C99" s="27" t="s">
         <v>834</v>
       </c>
-      <c r="D99" s="32" t="s">
+      <c r="D99" s="92" t="s">
         <v>835</v>
       </c>
       <c r="E99" s="4" t="s">
@@ -14628,7 +14905,7 @@
       <c r="C100" s="28" t="s">
         <v>852</v>
       </c>
-      <c r="D100" s="33" t="s">
+      <c r="D100" s="89" t="s">
         <v>853</v>
       </c>
       <c r="E100" s="10" t="s">
@@ -14666,7 +14943,7 @@
       <c r="C101" s="29" t="s">
         <v>862</v>
       </c>
-      <c r="D101" s="33" t="s">
+      <c r="D101" s="89" t="s">
         <v>863</v>
       </c>
       <c r="E101" s="10" t="s">
@@ -14704,7 +14981,7 @@
       <c r="C102" s="28" t="s">
         <v>868</v>
       </c>
-      <c r="D102" s="33" t="s">
+      <c r="D102" s="89" t="s">
         <v>869</v>
       </c>
       <c r="E102" s="10" t="s">
@@ -14742,7 +15019,7 @@
       <c r="C103" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D103" s="30" t="s">
+      <c r="D103" s="89" t="s">
         <v>605</v>
       </c>
       <c r="E103" s="4" t="s">
@@ -14788,7 +15065,7 @@
       <c r="C104" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D104" s="30" t="s">
+      <c r="D104" s="89" t="s">
         <v>564</v>
       </c>
       <c r="E104" s="4" t="s">
@@ -14830,7 +15107,7 @@
       <c r="C105" s="26" t="s">
         <v>874</v>
       </c>
-      <c r="D105" s="30" t="s">
+      <c r="D105" s="89" t="s">
         <v>875</v>
       </c>
       <c r="E105" s="4" t="s">
@@ -14876,7 +15153,7 @@
       <c r="C106" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D106" s="30" t="s">
+      <c r="D106" s="89" t="s">
         <v>101</v>
       </c>
       <c r="E106" s="4" t="s">
@@ -14920,7 +15197,7 @@
         <v>932</v>
       </c>
       <c r="C107" s="9"/>
-      <c r="D107" s="33" t="s">
+      <c r="D107" s="89" t="s">
         <v>933</v>
       </c>
       <c r="E107" s="21" t="s">
@@ -14958,7 +15235,7 @@
         <v>932</v>
       </c>
       <c r="C108" s="9"/>
-      <c r="D108" s="33" t="s">
+      <c r="D108" s="89" t="s">
         <v>933</v>
       </c>
       <c r="E108" s="21" t="s">
@@ -14996,7 +15273,7 @@
         <v>942</v>
       </c>
       <c r="C109" s="9"/>
-      <c r="D109" s="33" t="s">
+      <c r="D109" s="89" t="s">
         <v>943</v>
       </c>
       <c r="E109" s="21" t="s">
@@ -15036,7 +15313,7 @@
       <c r="C110" s="29" t="s">
         <v>726</v>
       </c>
-      <c r="D110" s="33" t="s">
+      <c r="D110" s="89" t="s">
         <v>727</v>
       </c>
       <c r="E110" s="12" t="s">
@@ -15076,7 +15353,7 @@
       <c r="C111" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="D111" s="30" t="s">
+      <c r="D111" s="89" t="s">
         <v>971</v>
       </c>
       <c r="E111" s="12" t="s">
@@ -15114,7 +15391,7 @@
       <c r="C112" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="D112" s="30" t="s">
+      <c r="D112" s="89" t="s">
         <v>971</v>
       </c>
       <c r="E112" s="12" t="s">
@@ -15152,7 +15429,7 @@
       <c r="C113" s="28" t="s">
         <v>1069</v>
       </c>
-      <c r="D113" s="33" t="s">
+      <c r="D113" s="89" t="s">
         <v>1070</v>
       </c>
       <c r="E113" s="10" t="s">
@@ -15190,7 +15467,7 @@
       <c r="C114" s="26" t="s">
         <v>1176</v>
       </c>
-      <c r="D114" s="30" t="s">
+      <c r="D114" s="89" t="s">
         <v>1177</v>
       </c>
       <c r="E114" s="4" t="s">
@@ -15234,7 +15511,7 @@
       <c r="C115" s="26" t="s">
         <v>802</v>
       </c>
-      <c r="D115" s="30" t="s">
+      <c r="D115" s="89" t="s">
         <v>803</v>
       </c>
       <c r="E115" s="4" t="s">
@@ -15274,7 +15551,7 @@
       <c r="C116" s="29" t="s">
         <v>1158</v>
       </c>
-      <c r="D116" s="33" t="s">
+      <c r="D116" s="89" t="s">
         <v>1159</v>
       </c>
       <c r="E116" s="10" t="s">
@@ -15314,7 +15591,7 @@
       <c r="C117" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="D117" s="30" t="s">
+      <c r="D117" s="89" t="s">
         <v>982</v>
       </c>
       <c r="E117" s="12" t="s">
@@ -15354,7 +15631,7 @@
       <c r="C118" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="D118" s="30" t="s">
+      <c r="D118" s="89" t="s">
         <v>982</v>
       </c>
       <c r="E118" s="4" t="s">
@@ -15396,7 +15673,7 @@
       <c r="C119" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="30" t="s">
+      <c r="D119" s="89" t="s">
         <v>149</v>
       </c>
       <c r="E119" s="4" t="s">
@@ -15438,7 +15715,7 @@
       <c r="C120" s="29" t="s">
         <v>1440</v>
       </c>
-      <c r="D120" s="33" t="s">
+      <c r="D120" s="89" t="s">
         <v>1441</v>
       </c>
       <c r="E120" s="4" t="s">
@@ -15482,7 +15759,7 @@
       <c r="C121" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="D121" s="30" t="s">
+      <c r="D121" s="89" t="s">
         <v>1223</v>
       </c>
       <c r="E121" s="12" t="s">
@@ -15522,7 +15799,7 @@
       <c r="C122" s="3" t="s">
         <v>1356</v>
       </c>
-      <c r="D122" s="30" t="s">
+      <c r="D122" s="89" t="s">
         <v>1357</v>
       </c>
       <c r="E122" s="4" t="s">
@@ -15566,7 +15843,7 @@
       <c r="C123" s="29" t="s">
         <v>992</v>
       </c>
-      <c r="D123" s="33" t="s">
+      <c r="D123" s="89" t="s">
         <v>993</v>
       </c>
       <c r="E123" s="12" t="s">
@@ -15606,7 +15883,7 @@
       <c r="C124" s="29" t="s">
         <v>1002</v>
       </c>
-      <c r="D124" s="33" t="s">
+      <c r="D124" s="89" t="s">
         <v>1003</v>
       </c>
       <c r="E124" s="12" t="s">
@@ -15646,7 +15923,7 @@
       <c r="C125" s="29" t="s">
         <v>1521</v>
       </c>
-      <c r="D125" s="33" t="s">
+      <c r="D125" s="89" t="s">
         <v>1522</v>
       </c>
       <c r="E125" s="12" t="s">
@@ -15678,7 +15955,7 @@
       <c r="C126" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="D126" s="30" t="s">
+      <c r="D126" s="89" t="s">
         <v>914</v>
       </c>
       <c r="E126" s="12" t="s">
@@ -15718,7 +15995,7 @@
       <c r="C127" s="26" t="s">
         <v>1127</v>
       </c>
-      <c r="D127" s="30" t="s">
+      <c r="D127" s="89" t="s">
         <v>1128</v>
       </c>
       <c r="E127" s="4" t="s">
@@ -15764,7 +16041,7 @@
       <c r="C128" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="D128" s="30" t="s">
+      <c r="D128" s="89" t="s">
         <v>769</v>
       </c>
       <c r="E128" s="4" t="s">
@@ -15806,7 +16083,7 @@
       <c r="C129" s="26" t="s">
         <v>1382</v>
       </c>
-      <c r="D129" s="30" t="s">
+      <c r="D129" s="89" t="s">
         <v>1383</v>
       </c>
       <c r="E129" s="4" t="s">
@@ -15848,7 +16125,7 @@
       <c r="C130" s="26" t="s">
         <v>553</v>
       </c>
-      <c r="D130" s="30" t="s">
+      <c r="D130" s="89" t="s">
         <v>554</v>
       </c>
       <c r="E130" s="4" t="s">
@@ -15894,7 +16171,7 @@
       <c r="C131" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="91" t="s">
         <v>510</v>
       </c>
       <c r="E131" s="4" t="s">
@@ -15938,7 +16215,7 @@
       <c r="C132" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="D132" s="30" t="s">
+      <c r="D132" s="89" t="s">
         <v>1018</v>
       </c>
       <c r="E132" s="12" t="s">
@@ -15980,7 +16257,7 @@
       <c r="C133" s="26" t="s">
         <v>1056</v>
       </c>
-      <c r="D133" s="30" t="s">
+      <c r="D133" s="89" t="s">
         <v>1057</v>
       </c>
       <c r="E133" s="4"/>
@@ -16020,7 +16297,7 @@
       <c r="C134" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="D134" s="30" t="s">
+      <c r="D134" s="89" t="s">
         <v>1246</v>
       </c>
       <c r="E134" s="12" t="s">
@@ -16060,7 +16337,7 @@
       <c r="C135" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="D135" s="30" t="s">
+      <c r="D135" s="89" t="s">
         <v>391</v>
       </c>
       <c r="E135" s="4" t="s">
@@ -16104,7 +16381,7 @@
       <c r="C136" s="29" t="s">
         <v>1103</v>
       </c>
-      <c r="D136" s="33" t="s">
+      <c r="D136" s="89" t="s">
         <v>1104</v>
       </c>
       <c r="E136" s="10" t="s">
@@ -16148,7 +16425,7 @@
       <c r="C137" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="D137" s="30" t="s">
+      <c r="D137" s="89" t="s">
         <v>905</v>
       </c>
       <c r="E137" s="12" t="s">
@@ -16188,7 +16465,7 @@
       <c r="C138" s="29" t="s">
         <v>1079</v>
       </c>
-      <c r="D138" s="33" t="s">
+      <c r="D138" s="89" t="s">
         <v>1080</v>
       </c>
       <c r="E138" s="10" t="s">
@@ -16226,7 +16503,7 @@
       <c r="C139" s="28" t="s">
         <v>1086</v>
       </c>
-      <c r="D139" s="33" t="s">
+      <c r="D139" s="89" t="s">
         <v>1087</v>
       </c>
       <c r="E139" s="10" t="s">
@@ -16264,7 +16541,7 @@
       <c r="C140" s="29" t="s">
         <v>1092</v>
       </c>
-      <c r="D140" s="33" t="s">
+      <c r="D140" s="89" t="s">
         <v>1093</v>
       </c>
       <c r="E140" s="4" t="s">
@@ -16308,7 +16585,7 @@
       <c r="C141" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="D141" s="30" t="s">
+      <c r="D141" s="89" t="s">
         <v>1239</v>
       </c>
       <c r="E141" s="12" t="s">
@@ -16348,7 +16625,7 @@
       <c r="C142" s="26" t="s">
         <v>1117</v>
       </c>
-      <c r="D142" s="30" t="s">
+      <c r="D142" s="89" t="s">
         <v>1118</v>
       </c>
       <c r="E142" s="4" t="s">
@@ -16396,7 +16673,7 @@
       <c r="C143" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="91" t="s">
         <v>205</v>
       </c>
       <c r="E143" s="4" t="s">
@@ -16442,7 +16719,7 @@
       <c r="C144" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="91" t="s">
         <v>205</v>
       </c>
       <c r="E144" s="4" t="s">
@@ -16486,7 +16763,7 @@
       <c r="C145" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="D145" s="30" t="s">
+      <c r="D145" s="89" t="s">
         <v>417</v>
       </c>
       <c r="E145" s="4" t="s">
@@ -16530,7 +16807,7 @@
       <c r="C146" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D146" s="30" t="s">
+      <c r="D146" s="89" t="s">
         <v>468</v>
       </c>
       <c r="E146" s="4" t="s">
@@ -16576,7 +16853,7 @@
       <c r="C147" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D147" s="30" t="s">
+      <c r="D147" s="89" t="s">
         <v>59</v>
       </c>
       <c r="E147" s="4" t="s">
@@ -16624,7 +16901,7 @@
       <c r="C148" s="29" t="s">
         <v>1134</v>
       </c>
-      <c r="D148" s="33" t="s">
+      <c r="D148" s="89" t="s">
         <v>1135</v>
       </c>
       <c r="E148" s="10" t="s">
@@ -16664,7 +16941,7 @@
       <c r="C149" s="26" t="s">
         <v>527</v>
       </c>
-      <c r="D149" s="30" t="s">
+      <c r="D149" s="89" t="s">
         <v>528</v>
       </c>
       <c r="E149" s="4" t="s">
@@ -16708,7 +16985,7 @@
       <c r="C150" s="26" t="s">
         <v>1324</v>
       </c>
-      <c r="D150" s="30" t="s">
+      <c r="D150" s="89" t="s">
         <v>1325</v>
       </c>
       <c r="E150" s="4" t="s">
@@ -16752,7 +17029,7 @@
       <c r="C151" s="26" t="s">
         <v>827</v>
       </c>
-      <c r="D151" s="30" t="s">
+      <c r="D151" s="89" t="s">
         <v>828</v>
       </c>
       <c r="E151" s="4" t="s">
@@ -16792,7 +17069,7 @@
       <c r="C152" s="29" t="s">
         <v>1185</v>
       </c>
-      <c r="D152" s="33" t="s">
+      <c r="D152" s="89" t="s">
         <v>1186</v>
       </c>
       <c r="E152" s="12" t="s">
@@ -16836,7 +17113,7 @@
       <c r="C153" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D153" s="30" t="s">
+      <c r="D153" s="89" t="s">
         <v>226</v>
       </c>
       <c r="E153" s="12" t="s">
@@ -16874,7 +17151,7 @@
       <c r="C154" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="D154" s="30" t="s">
+      <c r="D154" s="89" t="s">
         <v>1204</v>
       </c>
       <c r="E154" s="12" t="s">
@@ -16914,7 +17191,7 @@
       <c r="C155" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="D155" s="30" t="s">
+      <c r="D155" s="89" t="s">
         <v>1204</v>
       </c>
       <c r="E155" s="12" t="s">
@@ -16954,7 +17231,7 @@
       <c r="C156" s="3" t="s">
         <v>1796</v>
       </c>
-      <c r="D156" s="30" t="s">
+      <c r="D156" s="89" t="s">
         <v>1799</v>
       </c>
       <c r="E156" s="12"/>
@@ -16982,7 +17259,7 @@
         <v>1797</v>
       </c>
       <c r="O156" s="4"/>
-      <c r="P156" s="58" t="s">
+      <c r="P156" s="57" t="s">
         <v>1798</v>
       </c>
     </row>
@@ -16994,7 +17271,7 @@
       <c r="C157" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D157" s="30" t="s">
+      <c r="D157" s="89" t="s">
         <v>216</v>
       </c>
       <c r="E157" s="12" t="s">
@@ -17034,7 +17311,7 @@
       <c r="C158" s="29" t="s">
         <v>1143</v>
       </c>
-      <c r="D158" s="33" t="s">
+      <c r="D158" s="89" t="s">
         <v>1144</v>
       </c>
       <c r="E158" s="10" t="s">
@@ -17072,7 +17349,7 @@
         <v>1142</v>
       </c>
       <c r="C159" s="9"/>
-      <c r="D159" s="33" t="s">
+      <c r="D159" s="89" t="s">
         <v>1144</v>
       </c>
       <c r="E159" s="21" t="s">
@@ -17112,7 +17389,7 @@
       <c r="C160" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="D160" s="30" t="s">
+      <c r="D160" s="89" t="s">
         <v>1214</v>
       </c>
       <c r="E160" s="12" t="s">
@@ -17152,7 +17429,7 @@
       <c r="C161" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="D161" s="30" t="s">
+      <c r="D161" s="89" t="s">
         <v>1230</v>
       </c>
       <c r="E161" s="12" t="s">
@@ -17192,7 +17469,7 @@
       <c r="C162" s="29" t="s">
         <v>1165</v>
       </c>
-      <c r="D162" s="33" t="s">
+      <c r="D162" s="89" t="s">
         <v>1166</v>
       </c>
       <c r="E162" s="10" t="s">
@@ -17234,7 +17511,7 @@
       <c r="C163" s="29" t="s">
         <v>1173</v>
       </c>
-      <c r="D163" s="33" t="s">
+      <c r="D163" s="89" t="s">
         <v>1166</v>
       </c>
       <c r="E163" s="21" t="s">
@@ -17274,7 +17551,7 @@
       <c r="C164" s="29" t="s">
         <v>1541</v>
       </c>
-      <c r="D164" s="33" t="s">
+      <c r="D164" s="89" t="s">
         <v>1542</v>
       </c>
       <c r="E164" s="6"/>
@@ -17312,10 +17589,10 @@
       <c r="C165" s="29" t="s">
         <v>1547</v>
       </c>
-      <c r="D165" s="33" t="s">
+      <c r="D165" s="89" t="s">
         <v>1548</v>
       </c>
-      <c r="E165" s="66" t="s">
+      <c r="E165" s="65" t="s">
         <v>1549</v>
       </c>
       <c r="F165" s="6"/>
@@ -17354,7 +17631,7 @@
       <c r="C166" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="91" t="s">
         <v>1195</v>
       </c>
       <c r="E166" s="4" t="s">
@@ -17398,7 +17675,7 @@
       <c r="C167" s="29" t="s">
         <v>675</v>
       </c>
-      <c r="D167" s="33" t="s">
+      <c r="D167" s="89" t="s">
         <v>676</v>
       </c>
       <c r="E167" s="12" t="s">
@@ -17438,7 +17715,7 @@
       <c r="C168" s="29" t="s">
         <v>1275</v>
       </c>
-      <c r="D168" s="33" t="s">
+      <c r="D168" s="89" t="s">
         <v>1276</v>
       </c>
       <c r="E168" s="10" t="s">
@@ -17476,7 +17753,7 @@
         <v>1274</v>
       </c>
       <c r="C169" s="9"/>
-      <c r="D169" s="33" t="s">
+      <c r="D169" s="89" t="s">
         <v>1276</v>
       </c>
       <c r="E169" s="21" t="s">
@@ -17487,13 +17764,13 @@
       <c r="H169" s="42" t="s">
         <v>843</v>
       </c>
-      <c r="I169" s="68" t="s">
+      <c r="I169" s="67" t="s">
         <v>1278</v>
       </c>
       <c r="J169" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="K169" s="71" t="s">
+      <c r="K169" s="70" t="s">
         <v>1280</v>
       </c>
       <c r="L169" s="20" t="s">
@@ -17516,7 +17793,7 @@
       <c r="C170" s="29" t="s">
         <v>661</v>
       </c>
-      <c r="D170" s="33" t="s">
+      <c r="D170" s="89" t="s">
         <v>662</v>
       </c>
       <c r="E170" s="10"/>
@@ -17554,7 +17831,7 @@
       <c r="C171" s="29" t="s">
         <v>719</v>
       </c>
-      <c r="D171" s="33" t="s">
+      <c r="D171" s="89" t="s">
         <v>720</v>
       </c>
       <c r="E171" s="12" t="s">
@@ -17594,7 +17871,7 @@
       <c r="C172" s="27" t="s">
         <v>812</v>
       </c>
-      <c r="D172" s="32" t="s">
+      <c r="D172" s="92" t="s">
         <v>813</v>
       </c>
       <c r="E172" s="4" t="s">
@@ -17634,7 +17911,7 @@
       <c r="C173" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="D173" s="30" t="s">
+      <c r="D173" s="89" t="s">
         <v>1043</v>
       </c>
       <c r="E173" s="12"/>
@@ -17674,7 +17951,7 @@
       <c r="C174" s="3" t="s">
         <v>1287</v>
       </c>
-      <c r="D174" s="30" t="s">
+      <c r="D174" s="89" t="s">
         <v>1288</v>
       </c>
       <c r="E174" s="12" t="s">
@@ -17714,7 +17991,7 @@
       <c r="C175" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D175" s="30" t="s">
+      <c r="D175" s="89" t="s">
         <v>126</v>
       </c>
       <c r="E175" s="4" t="s">
@@ -17756,7 +18033,7 @@
       <c r="C176" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="D176" s="30" t="s">
+      <c r="D176" s="89" t="s">
         <v>1036</v>
       </c>
       <c r="E176" s="12" t="s">
@@ -17798,7 +18075,7 @@
       <c r="C177" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="D177" s="30" t="s">
+      <c r="D177" s="89" t="s">
         <v>963</v>
       </c>
       <c r="E177" s="4" t="s">
@@ -17840,7 +18117,7 @@
       <c r="C178" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="D178" s="30" t="s">
+      <c r="D178" s="89" t="s">
         <v>1312</v>
       </c>
       <c r="E178" s="4" t="s">
@@ -17884,7 +18161,7 @@
       <c r="C179" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="D179" s="30" t="s">
+      <c r="D179" s="89" t="s">
         <v>1312</v>
       </c>
       <c r="E179" s="4" t="s">
@@ -17930,7 +18207,7 @@
       <c r="C180" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D180" s="30" t="s">
+      <c r="D180" s="89" t="s">
         <v>19</v>
       </c>
       <c r="E180" s="4" t="s">
@@ -17974,7 +18251,7 @@
       <c r="C181" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="D181" s="30" t="s">
+      <c r="D181" s="89" t="s">
         <v>270</v>
       </c>
       <c r="E181" s="4" t="s">
@@ -18016,7 +18293,7 @@
       <c r="C182" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="D182" s="30" t="s">
+      <c r="D182" s="89" t="s">
         <v>292</v>
       </c>
       <c r="E182" s="4" t="s">
@@ -18058,7 +18335,7 @@
       <c r="C183" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="D183" s="30" t="s">
+      <c r="D183" s="89" t="s">
         <v>278</v>
       </c>
       <c r="E183" s="4" t="s">
@@ -18102,7 +18379,7 @@
       <c r="C184" s="26" t="s">
         <v>743</v>
       </c>
-      <c r="D184" s="30" t="s">
+      <c r="D184" s="89" t="s">
         <v>744</v>
       </c>
       <c r="E184" s="4" t="s">
@@ -18144,7 +18421,7 @@
       <c r="C185" s="3" t="s">
         <v>1333</v>
       </c>
-      <c r="D185" s="30" t="s">
+      <c r="D185" s="89" t="s">
         <v>1334</v>
       </c>
       <c r="E185" s="4" t="s">
@@ -18192,7 +18469,7 @@
       <c r="C186" s="29" t="s">
         <v>840</v>
       </c>
-      <c r="D186" s="33" t="s">
+      <c r="D186" s="89" t="s">
         <v>841</v>
       </c>
       <c r="E186" s="10" t="s">
@@ -18230,7 +18507,7 @@
         <v>839</v>
       </c>
       <c r="C187" s="9"/>
-      <c r="D187" s="33" t="s">
+      <c r="D187" s="89" t="s">
         <v>841</v>
       </c>
       <c r="E187" s="21" t="s">
@@ -18270,7 +18547,7 @@
       <c r="C188" s="26" t="s">
         <v>1344</v>
       </c>
-      <c r="D188" s="30" t="s">
+      <c r="D188" s="89" t="s">
         <v>1345</v>
       </c>
       <c r="E188" s="4" t="s">
@@ -18318,7 +18595,7 @@
       <c r="C189" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D189" s="30" t="s">
+      <c r="D189" s="89" t="s">
         <v>233</v>
       </c>
       <c r="E189" s="12" t="s">
@@ -18358,7 +18635,7 @@
       <c r="C190" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D190" s="26" t="s">
+      <c r="D190" s="90" t="s">
         <v>44</v>
       </c>
       <c r="E190" s="4" t="s">
@@ -18402,7 +18679,7 @@
       <c r="C191" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="D191" s="30" t="s">
+      <c r="D191" s="89" t="s">
         <v>1366</v>
       </c>
       <c r="E191" s="4" t="s">
@@ -18444,7 +18721,7 @@
       <c r="C192" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D192" s="30" t="s">
+      <c r="D192" s="89" t="s">
         <v>94</v>
       </c>
       <c r="E192" s="4" t="s">
@@ -18488,7 +18765,7 @@
       <c r="C193" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D193" s="30" t="s">
+      <c r="D193" s="89" t="s">
         <v>109</v>
       </c>
       <c r="E193" s="4" t="s">
@@ -18532,7 +18809,7 @@
       <c r="C194" s="28" t="s">
         <v>1389</v>
       </c>
-      <c r="D194" s="33" t="s">
+      <c r="D194" s="89" t="s">
         <v>1390</v>
       </c>
       <c r="E194" s="10" t="s">
@@ -18570,7 +18847,7 @@
         <v>1406</v>
       </c>
       <c r="C195" s="9"/>
-      <c r="D195" s="33" t="s">
+      <c r="D195" s="89" t="s">
         <v>1407</v>
       </c>
       <c r="E195" s="21" t="s">
@@ -18610,7 +18887,7 @@
       <c r="C196" s="3" t="s">
         <v>1416</v>
       </c>
-      <c r="D196" s="30" t="s">
+      <c r="D196" s="89" t="s">
         <v>1417</v>
       </c>
       <c r="E196" s="12" t="s">
@@ -18648,7 +18925,7 @@
       <c r="C197" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="D197" s="30" t="s">
+      <c r="D197" s="89" t="s">
         <v>1297</v>
       </c>
       <c r="E197" s="12" t="s">
@@ -18686,10 +18963,10 @@
       <c r="C198" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="D198" s="30" t="s">
+      <c r="D198" s="89" t="s">
         <v>1306</v>
       </c>
-      <c r="E198" s="67" t="s">
+      <c r="E198" s="66" t="s">
         <v>1307</v>
       </c>
       <c r="F198" s="4"/>
@@ -18724,7 +19001,7 @@
       <c r="C199" s="3" t="s">
         <v>1425</v>
       </c>
-      <c r="D199" s="30" t="s">
+      <c r="D199" s="89" t="s">
         <v>1426</v>
       </c>
       <c r="E199" s="4" t="s">
@@ -18768,7 +19045,7 @@
       <c r="C200" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="D200" s="30" t="s">
+      <c r="D200" s="89" t="s">
         <v>734</v>
       </c>
       <c r="E200" s="12" t="s">
@@ -18808,7 +19085,7 @@
       <c r="C201" s="29" t="s">
         <v>1776</v>
       </c>
-      <c r="D201" s="33" t="s">
+      <c r="D201" s="89" t="s">
         <v>1765</v>
       </c>
       <c r="E201" s="47" t="s">
@@ -18838,7 +19115,7 @@
         <v>1770</v>
       </c>
       <c r="O201" s="6"/>
-      <c r="P201" s="60" t="s">
+      <c r="P201" s="59" t="s">
         <v>1769</v>
       </c>
     </row>
@@ -18850,7 +19127,7 @@
       <c r="C202" s="29" t="s">
         <v>1776</v>
       </c>
-      <c r="D202" s="33" t="s">
+      <c r="D202" s="89" t="s">
         <v>1773</v>
       </c>
       <c r="E202" s="11" t="s">
@@ -18880,7 +19157,7 @@
         <v>1768</v>
       </c>
       <c r="O202" s="6"/>
-      <c r="P202" s="60" t="s">
+      <c r="P202" s="59" t="s">
         <v>1769</v>
       </c>
     </row>
@@ -18892,7 +19169,7 @@
       <c r="C203" s="3" t="s">
         <v>1434</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D203" s="91" t="s">
         <v>1435</v>
       </c>
       <c r="E203" s="4" t="s">
@@ -18932,7 +19209,7 @@
       <c r="C204" s="29" t="s">
         <v>1457</v>
       </c>
-      <c r="D204" s="33" t="s">
+      <c r="D204" s="89" t="s">
         <v>1458</v>
       </c>
       <c r="E204" s="12" t="s">
@@ -18978,7 +19255,7 @@
       <c r="C205" s="29" t="s">
         <v>1457</v>
       </c>
-      <c r="D205" s="33" t="s">
+      <c r="D205" s="89" t="s">
         <v>1458</v>
       </c>
       <c r="E205" s="12" t="s">
@@ -19024,7 +19301,7 @@
       <c r="C206" s="29" t="s">
         <v>1468</v>
       </c>
-      <c r="D206" s="33" t="s">
+      <c r="D206" s="89" t="s">
         <v>1469</v>
       </c>
       <c r="E206" s="12" t="s">
@@ -19070,7 +19347,7 @@
       <c r="C207" s="29" t="s">
         <v>1468</v>
       </c>
-      <c r="D207" s="33" t="s">
+      <c r="D207" s="89" t="s">
         <v>1469</v>
       </c>
       <c r="E207" s="12" t="s">
@@ -19116,7 +19393,7 @@
       <c r="C208" s="29" t="s">
         <v>1468</v>
       </c>
-      <c r="D208" s="33" t="s">
+      <c r="D208" s="89" t="s">
         <v>1469</v>
       </c>
       <c r="E208" s="12" t="s">
@@ -19162,7 +19439,7 @@
         <v>1478</v>
       </c>
       <c r="C209" s="34"/>
-      <c r="D209" s="36" t="s">
+      <c r="D209" s="93" t="s">
         <v>1479</v>
       </c>
       <c r="E209" s="36" t="s">
@@ -19202,7 +19479,7 @@
       <c r="C210" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D210" s="30" t="s">
+      <c r="D210" s="89" t="s">
         <v>134</v>
       </c>
       <c r="E210" s="4" t="s">
@@ -19244,7 +19521,7 @@
       <c r="C211" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="D211" s="30" t="s">
+      <c r="D211" s="89" t="s">
         <v>1269</v>
       </c>
       <c r="E211" s="12" t="s">
@@ -19284,7 +19561,7 @@
       <c r="C212" s="29" t="s">
         <v>693</v>
       </c>
-      <c r="D212" s="33" t="s">
+      <c r="D212" s="89" t="s">
         <v>694</v>
       </c>
       <c r="E212" s="12" t="s">
@@ -19328,7 +19605,7 @@
       <c r="C213" s="29" t="s">
         <v>693</v>
       </c>
-      <c r="D213" s="33" t="s">
+      <c r="D213" s="89" t="s">
         <v>700</v>
       </c>
       <c r="E213" s="12" t="s">
@@ -19372,7 +19649,7 @@
       <c r="C214" s="29" t="s">
         <v>693</v>
       </c>
-      <c r="D214" s="33" t="s">
+      <c r="D214" s="89" t="s">
         <v>703</v>
       </c>
       <c r="E214" s="12" t="s">
@@ -19416,10 +19693,10 @@
       <c r="C215" s="29" t="s">
         <v>707</v>
       </c>
-      <c r="D215" s="33" t="s">
+      <c r="D215" s="89" t="s">
         <v>708</v>
       </c>
-      <c r="E215" s="67" t="s">
+      <c r="E215" s="66" t="s">
         <v>709</v>
       </c>
       <c r="F215" s="11"/>
@@ -19456,7 +19733,7 @@
       <c r="C216" s="29" t="s">
         <v>707</v>
       </c>
-      <c r="D216" s="33" t="s">
+      <c r="D216" s="89" t="s">
         <v>712</v>
       </c>
       <c r="E216" s="12" t="s">
@@ -19496,10 +19773,10 @@
       <c r="C217" s="29" t="s">
         <v>707</v>
       </c>
-      <c r="D217" s="33" t="s">
+      <c r="D217" s="89" t="s">
         <v>715</v>
       </c>
-      <c r="E217" s="67" t="s">
+      <c r="E217" s="66" t="s">
         <v>716</v>
       </c>
       <c r="F217" s="11"/>
@@ -19528,102 +19805,102 @@
       <c r="O217" s="4"/>
       <c r="P217" s="2"/>
     </row>
-    <row r="218" spans="1:16" s="78" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A218" s="75"/>
-      <c r="B218" s="75" t="s">
+    <row r="218" spans="1:16" s="77" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A218" s="74"/>
+      <c r="B218" s="74" t="s">
         <v>1745</v>
       </c>
-      <c r="C218" s="75" t="s">
+      <c r="C218" s="74" t="s">
         <v>1748</v>
       </c>
-      <c r="D218" s="76" t="s">
+      <c r="D218" s="94" t="s">
         <v>1746</v>
       </c>
-      <c r="E218" s="77" t="s">
+      <c r="E218" s="76" t="s">
         <v>1754</v>
       </c>
-      <c r="H218" s="75" t="s">
+      <c r="H218" s="74" t="s">
         <v>1749</v>
       </c>
-      <c r="I218" s="75" t="s">
+      <c r="I218" s="74" t="s">
         <v>1750</v>
       </c>
-      <c r="L218" s="75" t="s">
+      <c r="L218" s="74" t="s">
         <v>1751</v>
       </c>
-      <c r="M218" s="75" t="s">
+      <c r="M218" s="74" t="s">
         <v>1752</v>
       </c>
-      <c r="N218" s="75" t="s">
+      <c r="N218" s="74" t="s">
         <v>1753</v>
       </c>
-      <c r="P218" s="75" t="s">
+      <c r="P218" s="74" t="s">
         <v>1755</v>
       </c>
     </row>
-    <row r="219" spans="1:16" s="78" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A219" s="75"/>
-      <c r="B219" s="78" t="s">
+    <row r="219" spans="1:16" s="77" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A219" s="74"/>
+      <c r="B219" s="77" t="s">
         <v>1761</v>
       </c>
-      <c r="C219" s="75" t="s">
+      <c r="C219" s="74" t="s">
         <v>1760</v>
       </c>
-      <c r="D219" s="76" t="s">
+      <c r="D219" s="94" t="s">
         <v>1800</v>
       </c>
-      <c r="E219" s="75" t="s">
+      <c r="E219" s="74" t="s">
         <v>1764</v>
       </c>
-      <c r="H219" s="75" t="s">
+      <c r="H219" s="74" t="s">
         <v>1749</v>
       </c>
-      <c r="I219" s="75" t="s">
+      <c r="I219" s="74" t="s">
         <v>1757</v>
       </c>
-      <c r="L219" s="75" t="s">
+      <c r="L219" s="74" t="s">
         <v>1758</v>
       </c>
-      <c r="M219" s="75" t="s">
+      <c r="M219" s="74" t="s">
         <v>1759</v>
       </c>
-      <c r="N219" s="75" t="s">
+      <c r="N219" s="74" t="s">
         <v>1762</v>
       </c>
-      <c r="P219" s="75" t="s">
+      <c r="P219" s="74" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="220" spans="1:16" s="78" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A220" s="75"/>
-      <c r="B220" s="75" t="s">
+    <row r="220" spans="1:16" s="77" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A220" s="74"/>
+      <c r="B220" s="74" t="s">
         <v>1802</v>
       </c>
-      <c r="C220" s="75" t="s">
+      <c r="C220" s="74" t="s">
         <v>1803</v>
       </c>
-      <c r="D220" s="76" t="s">
+      <c r="D220" s="94" t="s">
         <v>1801</v>
       </c>
-      <c r="E220" s="76" t="s">
+      <c r="E220" s="75" t="s">
         <v>1804</v>
       </c>
-      <c r="H220" s="75" t="s">
+      <c r="H220" s="74" t="s">
         <v>1749</v>
       </c>
-      <c r="I220" s="75" t="s">
+      <c r="I220" s="74" t="s">
         <v>1805</v>
       </c>
-      <c r="J220" s="75" t="s">
+      <c r="J220" s="74" t="s">
         <v>1806</v>
       </c>
-      <c r="L220" s="75" t="s">
+      <c r="L220" s="74" t="s">
         <v>1807</v>
       </c>
-      <c r="M220" s="75" t="s">
+      <c r="M220" s="74" t="s">
         <v>1808</v>
       </c>
-      <c r="N220" s="75" t="s">
+      <c r="N220" s="74" t="s">
         <v>1809</v>
       </c>
     </row>
@@ -19635,8 +19912,8 @@
       <c r="C221" s="53" t="s">
         <v>1846</v>
       </c>
-      <c r="D221" s="55"/>
-      <c r="E221" s="73" t="s">
+      <c r="D221" s="88"/>
+      <c r="E221" s="72" t="s">
         <v>1820</v>
       </c>
       <c r="F221" s="8"/>
@@ -19665,7 +19942,7 @@
         <v>1819</v>
       </c>
       <c r="O221" s="8"/>
-      <c r="P221" s="74"/>
+      <c r="P221" s="73"/>
     </row>
     <row r="222" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="3"/>
@@ -19675,7 +19952,7 @@
       <c r="C222" s="26" t="s">
         <v>1847</v>
       </c>
-      <c r="D222" s="30"/>
+      <c r="D222" s="89"/>
       <c r="E222" s="12" t="s">
         <v>1821</v>
       </c>
@@ -19686,7 +19963,7 @@
       <c r="H222" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="I222" s="79" t="s">
+      <c r="I222" s="78" t="s">
         <v>1827</v>
       </c>
       <c r="J222" s="11" t="s">
@@ -19715,7 +19992,7 @@
       <c r="C223" s="29" t="s">
         <v>1848</v>
       </c>
-      <c r="D223" s="33"/>
+      <c r="D223" s="89"/>
       <c r="E223" s="21" t="s">
         <v>1828</v>
       </c>
@@ -19755,8 +20032,8 @@
       <c r="C224" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="D224" s="33"/>
-      <c r="E224" s="57" t="s">
+      <c r="D224" s="89"/>
+      <c r="E224" s="56" t="s">
         <v>1835</v>
       </c>
       <c r="F224" s="6"/>
@@ -19766,7 +20043,7 @@
       <c r="H224" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="I224" s="60" t="s">
+      <c r="I224" s="59" t="s">
         <v>196</v>
       </c>
       <c r="J224" s="20" t="s">
@@ -19795,7 +20072,7 @@
       <c r="C225" s="26" t="s">
         <v>1849</v>
       </c>
-      <c r="D225" s="30"/>
+      <c r="D225" s="89"/>
       <c r="E225" s="12" t="s">
         <v>1837</v>
       </c>
@@ -19803,7 +20080,7 @@
       <c r="G225" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H225" s="58" t="s">
+      <c r="H225" s="57" t="s">
         <v>1838</v>
       </c>
       <c r="I225" s="11" t="s">
@@ -19835,7 +20112,7 @@
       <c r="C226" s="26" t="s">
         <v>1850</v>
       </c>
-      <c r="D226" s="30"/>
+      <c r="D226" s="89"/>
       <c r="E226" s="12" t="s">
         <v>1844</v>
       </c>
@@ -19875,7 +20152,7 @@
       <c r="C227" s="29" t="s">
         <v>1851</v>
       </c>
-      <c r="D227" s="33" t="s">
+      <c r="D227" s="89" t="s">
         <v>1765</v>
       </c>
       <c r="E227" s="12" t="s">
@@ -19907,7 +20184,7 @@
         <v>1770</v>
       </c>
       <c r="O227" s="6"/>
-      <c r="P227" s="60" t="s">
+      <c r="P227" s="59" t="s">
         <v>1769</v>
       </c>
     </row>
@@ -19919,7 +20196,7 @@
       <c r="C228" s="29" t="s">
         <v>1852</v>
       </c>
-      <c r="D228" s="33" t="s">
+      <c r="D228" s="89" t="s">
         <v>1773</v>
       </c>
       <c r="E228" s="12" t="s">
@@ -19951,20 +20228,22 @@
         <v>1768</v>
       </c>
       <c r="O228" s="6"/>
-      <c r="P228" s="60" t="s">
+      <c r="P228" s="59" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="229" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="9"/>
+      <c r="A229" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B229" s="29" t="s">
         <v>1855</v>
       </c>
       <c r="C229" s="29" t="s">
         <v>1856</v>
       </c>
-      <c r="D229" s="33"/>
-      <c r="E229" s="57" t="s">
+      <c r="D229" s="89"/>
+      <c r="E229" s="56" t="s">
         <v>1857</v>
       </c>
       <c r="F229" s="6"/>
@@ -19992,25 +20271,27 @@
       <c r="N229" s="20" t="s">
         <v>1861</v>
       </c>
-      <c r="O229" s="80" t="s">
+      <c r="O229" s="59" t="s">
         <v>1866</v>
       </c>
-      <c r="P229" s="60" t="s">
+      <c r="P229" s="59" t="s">
         <v>1858</v>
       </c>
-      <c r="Q229" s="82" t="s">
+      <c r="Q229" s="80" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="230" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="9"/>
+      <c r="A230" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B230" s="29" t="s">
         <v>1873</v>
       </c>
       <c r="C230" s="29" t="s">
         <v>1874</v>
       </c>
-      <c r="D230" s="33"/>
+      <c r="D230" s="89"/>
       <c r="E230" s="20" t="s">
         <v>1871</v>
       </c>
@@ -20043,15 +20324,17 @@
       <c r="P230" s="2"/>
     </row>
     <row r="231" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="9"/>
+      <c r="A231" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B231" s="29" t="s">
         <v>1878</v>
       </c>
       <c r="C231" s="29" t="s">
         <v>1879</v>
       </c>
-      <c r="D231" s="33"/>
-      <c r="E231" s="57" t="s">
+      <c r="D231" s="89"/>
+      <c r="E231" s="56" t="s">
         <v>1880</v>
       </c>
       <c r="F231" s="6"/>
@@ -20083,15 +20366,17 @@
       <c r="P231" s="2"/>
     </row>
     <row r="232" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="9"/>
+      <c r="A232" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B232" s="29" t="s">
         <v>1883</v>
       </c>
       <c r="C232" s="29" t="s">
         <v>1884</v>
       </c>
-      <c r="D232" s="33"/>
-      <c r="E232" s="57" t="s">
+      <c r="D232" s="89"/>
+      <c r="E232" s="56" t="s">
         <v>1885</v>
       </c>
       <c r="F232" s="6"/>
@@ -20123,15 +20408,17 @@
       <c r="P232" s="2"/>
     </row>
     <row r="233" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="9"/>
+      <c r="A233" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B233" s="29" t="s">
         <v>1889</v>
       </c>
       <c r="C233" s="29" t="s">
         <v>1890</v>
       </c>
-      <c r="D233" s="33"/>
-      <c r="E233" s="57" t="s">
+      <c r="D233" s="89"/>
+      <c r="E233" s="56" t="s">
         <v>1888</v>
       </c>
       <c r="F233" s="6"/>
@@ -20163,15 +20450,17 @@
       <c r="P233" s="2"/>
     </row>
     <row r="234" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="9"/>
+      <c r="A234" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B234" s="29" t="s">
         <v>1897</v>
       </c>
       <c r="C234" s="29" t="s">
         <v>1898</v>
       </c>
-      <c r="D234" s="33"/>
-      <c r="E234" s="57" t="s">
+      <c r="D234" s="89"/>
+      <c r="E234" s="56" t="s">
         <v>1896</v>
       </c>
       <c r="F234" s="6"/>
@@ -20198,20 +20487,22 @@
       </c>
       <c r="N234" s="11"/>
       <c r="O234" s="6"/>
-      <c r="P234" s="83" t="s">
+      <c r="P234" s="81" t="s">
         <v>1895</v>
       </c>
     </row>
     <row r="235" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="9"/>
+      <c r="A235" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B235" s="29" t="s">
         <v>1904</v>
       </c>
       <c r="C235" s="29" t="s">
         <v>1905</v>
       </c>
-      <c r="D235" s="33"/>
-      <c r="E235" s="57" t="s">
+      <c r="D235" s="89"/>
+      <c r="E235" s="56" t="s">
         <v>1903</v>
       </c>
       <c r="F235" s="6"/>
@@ -20237,23 +20528,25 @@
         <v>1901</v>
       </c>
       <c r="N235" s="11"/>
-      <c r="O235" s="80" t="s">
+      <c r="O235" s="59" t="s">
         <v>1900</v>
       </c>
-      <c r="P235" s="60" t="s">
+      <c r="P235" s="59" t="s">
         <v>1902</v>
       </c>
     </row>
     <row r="236" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="9"/>
+      <c r="A236" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B236" s="29" t="s">
         <v>1910</v>
       </c>
       <c r="C236" s="29" t="s">
         <v>1911</v>
       </c>
-      <c r="D236" s="33"/>
-      <c r="E236" s="57" t="s">
+      <c r="D236" s="89"/>
+      <c r="E236" s="56" t="s">
         <v>1912</v>
       </c>
       <c r="F236" s="6"/>
@@ -20272,10 +20565,10 @@
       <c r="K236" s="20" t="s">
         <v>1909</v>
       </c>
-      <c r="L236" s="84" t="s">
+      <c r="L236" s="82" t="s">
         <v>1906</v>
       </c>
-      <c r="M236" s="84" t="s">
+      <c r="M236" s="82" t="s">
         <v>1907</v>
       </c>
       <c r="N236" s="11" t="s">
@@ -20285,15 +20578,17 @@
       <c r="P236" s="2"/>
     </row>
     <row r="237" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="9"/>
+      <c r="A237" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B237" s="29" t="s">
         <v>1917</v>
       </c>
       <c r="C237" s="29" t="s">
         <v>1918</v>
       </c>
-      <c r="D237" s="33"/>
-      <c r="E237" s="57" t="s">
+      <c r="D237" s="89"/>
+      <c r="E237" s="56" t="s">
         <v>1913</v>
       </c>
       <c r="F237" s="6"/>
@@ -20325,15 +20620,17 @@
       <c r="P237" s="2"/>
     </row>
     <row r="238" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="9"/>
+      <c r="A238" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B238" s="29" t="s">
         <v>1923</v>
       </c>
       <c r="C238" s="29" t="s">
         <v>1924</v>
       </c>
-      <c r="D238" s="33"/>
-      <c r="E238" s="57" t="s">
+      <c r="D238" s="89"/>
+      <c r="E238" s="56" t="s">
         <v>1922</v>
       </c>
       <c r="F238" s="6"/>
@@ -20365,15 +20662,17 @@
       <c r="P238" s="2"/>
     </row>
     <row r="239" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="9"/>
+      <c r="A239" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B239" s="29" t="s">
         <v>1926</v>
       </c>
       <c r="C239" s="29" t="s">
         <v>1927</v>
       </c>
-      <c r="D239" s="33"/>
-      <c r="E239" s="57" t="s">
+      <c r="D239" s="89"/>
+      <c r="E239" s="56" t="s">
         <v>1925</v>
       </c>
       <c r="F239" s="6"/>
@@ -20405,15 +20704,17 @@
       <c r="P239" s="2"/>
     </row>
     <row r="240" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="9"/>
+      <c r="A240" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B240" s="29" t="s">
         <v>1933</v>
       </c>
       <c r="C240" s="29" t="s">
         <v>1934</v>
       </c>
-      <c r="D240" s="33"/>
-      <c r="E240" s="57" t="s">
+      <c r="D240" s="89"/>
+      <c r="E240" s="56" t="s">
         <v>1935</v>
       </c>
       <c r="F240" s="6"/>
@@ -20445,15 +20746,17 @@
       <c r="P240" s="2"/>
     </row>
     <row r="241" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="9"/>
+      <c r="A241" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B241" s="29" t="s">
         <v>1946</v>
       </c>
       <c r="C241" s="29" t="s">
         <v>1947</v>
       </c>
-      <c r="D241" s="33"/>
-      <c r="E241" s="57" t="s">
+      <c r="D241" s="89"/>
+      <c r="E241" s="56" t="s">
         <v>1945</v>
       </c>
       <c r="F241" s="6"/>
@@ -20485,15 +20788,17 @@
       <c r="P241" s="2"/>
     </row>
     <row r="242" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="9"/>
+      <c r="A242" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B242" s="29" t="s">
         <v>1948</v>
       </c>
       <c r="C242" s="29" t="s">
         <v>1949</v>
       </c>
-      <c r="D242" s="33"/>
-      <c r="E242" s="57" t="s">
+      <c r="D242" s="89"/>
+      <c r="E242" s="56" t="s">
         <v>1944</v>
       </c>
       <c r="F242" s="6"/>
@@ -20522,20 +20827,22 @@
         <v>1943</v>
       </c>
       <c r="O242" s="6"/>
-      <c r="P242" s="60" t="s">
+      <c r="P242" s="59" t="s">
         <v>1950</v>
       </c>
     </row>
     <row r="243" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="9"/>
+      <c r="A243" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B243" s="29" t="s">
         <v>1955</v>
       </c>
       <c r="C243" s="29" t="s">
         <v>1956</v>
       </c>
-      <c r="D243" s="33"/>
-      <c r="E243" s="57" t="s">
+      <c r="D243" s="89"/>
+      <c r="E243" s="56" t="s">
         <v>1957</v>
       </c>
       <c r="F243" s="6"/>
@@ -20564,20 +20871,22 @@
         <v>1954</v>
       </c>
       <c r="O243" s="6"/>
-      <c r="P243" s="60" t="s">
+      <c r="P243" s="59" t="s">
         <v>1952</v>
       </c>
     </row>
     <row r="244" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="9"/>
+      <c r="A244" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B244" s="29" t="s">
         <v>1969</v>
       </c>
       <c r="C244" s="29" t="s">
         <v>1970</v>
       </c>
-      <c r="D244" s="33"/>
-      <c r="E244" s="57" t="s">
+      <c r="D244" s="89"/>
+      <c r="E244" s="56" t="s">
         <v>1961</v>
       </c>
       <c r="F244" s="6"/>
@@ -20596,7 +20905,7 @@
       <c r="K244" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="L244" s="83" t="s">
+      <c r="L244" s="81" t="s">
         <v>121</v>
       </c>
       <c r="M244" s="20" t="s">
@@ -20606,20 +20915,22 @@
         <v>1960</v>
       </c>
       <c r="O244" s="6"/>
-      <c r="P244" s="60" t="s">
+      <c r="P244" s="59" t="s">
         <v>1958</v>
       </c>
     </row>
     <row r="245" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="9"/>
+      <c r="A245" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B245" s="29" t="s">
         <v>1967</v>
       </c>
       <c r="C245" s="29" t="s">
         <v>1968</v>
       </c>
-      <c r="D245" s="33"/>
-      <c r="E245" s="57" t="s">
+      <c r="D245" s="89"/>
+      <c r="E245" s="56" t="s">
         <v>1966</v>
       </c>
       <c r="F245" s="6"/>
@@ -20648,20 +20959,22 @@
         <v>1964</v>
       </c>
       <c r="O245" s="6"/>
-      <c r="P245" s="60" t="s">
+      <c r="P245" s="59" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="246" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="9"/>
+      <c r="A246" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B246" s="29" t="s">
         <v>1973</v>
       </c>
       <c r="C246" s="29" t="s">
         <v>1974</v>
       </c>
-      <c r="D246" s="33"/>
-      <c r="E246" s="57" t="s">
+      <c r="D246" s="89"/>
+      <c r="E246" s="56" t="s">
         <v>1975</v>
       </c>
       <c r="F246" s="6"/>
@@ -20693,15 +21006,17 @@
       <c r="P246" s="2"/>
     </row>
     <row r="247" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="9"/>
+      <c r="A247" s="9" t="s">
+        <v>2584</v>
+      </c>
       <c r="B247" s="29" t="s">
         <v>1977</v>
       </c>
       <c r="C247" s="29" t="s">
         <v>1978</v>
       </c>
-      <c r="D247" s="33"/>
-      <c r="E247" s="85" t="s">
+      <c r="D247" s="89"/>
+      <c r="E247" s="83" t="s">
         <v>1976</v>
       </c>
       <c r="F247" s="6"/>
@@ -20733,15 +21048,17 @@
       <c r="P247" s="2"/>
     </row>
     <row r="248" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="9"/>
+      <c r="A248" s="9" t="s">
+        <v>2585</v>
+      </c>
       <c r="B248" s="29" t="s">
         <v>1981</v>
       </c>
       <c r="C248" s="29" t="s">
         <v>1982</v>
       </c>
-      <c r="D248" s="33"/>
-      <c r="E248" s="57" t="s">
+      <c r="D248" s="89"/>
+      <c r="E248" s="56" t="s">
         <v>1980</v>
       </c>
       <c r="F248" s="6"/>
@@ -20773,15 +21090,17 @@
       <c r="P248" s="2"/>
     </row>
     <row r="249" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="9"/>
+      <c r="A249" s="9" t="s">
+        <v>2585</v>
+      </c>
       <c r="B249" s="29" t="s">
         <v>1991</v>
       </c>
       <c r="C249" s="29" t="s">
         <v>1990</v>
       </c>
-      <c r="D249" s="33"/>
-      <c r="E249" s="57" t="s">
+      <c r="D249" s="89"/>
+      <c r="E249" s="56" t="s">
         <v>1989</v>
       </c>
       <c r="F249" s="6"/>
@@ -20813,15 +21132,17 @@
       <c r="P249" s="2"/>
     </row>
     <row r="250" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="9"/>
+      <c r="A250" s="9" t="s">
+        <v>2585</v>
+      </c>
       <c r="B250" s="29" t="s">
         <v>2000</v>
       </c>
       <c r="C250" s="29" t="s">
         <v>2001</v>
       </c>
-      <c r="D250" s="33"/>
-      <c r="E250" s="57" t="s">
+      <c r="D250" s="89"/>
+      <c r="E250" s="56" t="s">
         <v>1992</v>
       </c>
       <c r="F250" s="6"/>
@@ -20853,15 +21174,17 @@
       <c r="P250" s="2"/>
     </row>
     <row r="251" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="9"/>
+      <c r="A251" s="9" t="s">
+        <v>2585</v>
+      </c>
       <c r="B251" s="29" t="s">
         <v>2003</v>
       </c>
       <c r="C251" s="29" t="s">
         <v>2004</v>
       </c>
-      <c r="D251" s="33"/>
-      <c r="E251" s="57" t="s">
+      <c r="D251" s="89"/>
+      <c r="E251" s="56" t="s">
         <v>2002</v>
       </c>
       <c r="F251" s="6"/>
@@ -20893,15 +21216,17 @@
       <c r="P251" s="2"/>
     </row>
     <row r="252" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="9"/>
+      <c r="A252" s="9" t="s">
+        <v>2585</v>
+      </c>
       <c r="B252" s="29" t="s">
         <v>2009</v>
       </c>
       <c r="C252" s="29" t="s">
         <v>2010</v>
       </c>
-      <c r="D252" s="33"/>
-      <c r="E252" s="57" t="s">
+      <c r="D252" s="89"/>
+      <c r="E252" s="56" t="s">
         <v>2008</v>
       </c>
       <c r="F252" s="6"/>
@@ -20920,10 +21245,10 @@
       <c r="K252" s="20" t="s">
         <v>1986</v>
       </c>
-      <c r="L252" s="84" t="s">
+      <c r="L252" s="82" t="s">
         <v>2013</v>
       </c>
-      <c r="M252" s="84" t="s">
+      <c r="M252" s="82" t="s">
         <v>2014</v>
       </c>
       <c r="N252" s="11" t="s">
@@ -20933,15 +21258,17 @@
       <c r="P252" s="2"/>
     </row>
     <row r="253" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="9"/>
+      <c r="A253" s="9" t="s">
+        <v>2585</v>
+      </c>
       <c r="B253" s="29" t="s">
         <v>2016</v>
       </c>
       <c r="C253" s="29" t="s">
         <v>2017</v>
       </c>
-      <c r="D253" s="33"/>
-      <c r="E253" s="57" t="s">
+      <c r="D253" s="89"/>
+      <c r="E253" s="56" t="s">
         <v>2015</v>
       </c>
       <c r="F253" s="6"/>
@@ -20973,15 +21300,17 @@
       <c r="P253" s="2"/>
     </row>
     <row r="254" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="9"/>
+      <c r="A254" s="9" t="s">
+        <v>2585</v>
+      </c>
       <c r="B254" s="29" t="s">
         <v>2082</v>
       </c>
       <c r="C254" s="29" t="s">
         <v>2083</v>
       </c>
-      <c r="D254" s="33"/>
-      <c r="E254" s="57" t="s">
+      <c r="D254" s="89"/>
+      <c r="E254" s="56" t="s">
         <v>2081</v>
       </c>
       <c r="F254" s="6"/>
@@ -21009,21 +21338,23 @@
       <c r="N254" s="11" t="s">
         <v>2080</v>
       </c>
-      <c r="O254" s="80" t="s">
+      <c r="O254" s="59" t="s">
         <v>2077</v>
       </c>
       <c r="P254" s="2"/>
     </row>
     <row r="255" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="9"/>
+      <c r="A255" s="9" t="s">
+        <v>2585</v>
+      </c>
       <c r="B255" s="29" t="s">
         <v>2019</v>
       </c>
       <c r="C255" s="29" t="s">
         <v>2020</v>
       </c>
-      <c r="D255" s="33"/>
-      <c r="E255" s="57" t="s">
+      <c r="D255" s="89"/>
+      <c r="E255" s="56" t="s">
         <v>2018</v>
       </c>
       <c r="F255" s="6"/>
@@ -21057,15 +21388,17 @@
       <c r="P255" s="2"/>
     </row>
     <row r="256" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="9"/>
+      <c r="A256" s="9" t="s">
+        <v>2585</v>
+      </c>
       <c r="B256" s="29" t="s">
         <v>2039</v>
       </c>
       <c r="C256" s="29" t="s">
         <v>2040</v>
       </c>
-      <c r="D256" s="33"/>
-      <c r="E256" s="57" t="s">
+      <c r="D256" s="89"/>
+      <c r="E256" s="56" t="s">
         <v>2027</v>
       </c>
       <c r="F256" s="6"/>
@@ -21099,15 +21432,17 @@
       <c r="P256" s="2"/>
     </row>
     <row r="257" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="9"/>
+      <c r="A257" s="9" t="s">
+        <v>2585</v>
+      </c>
       <c r="B257" s="29" t="s">
         <v>2034</v>
       </c>
       <c r="C257" s="29" t="s">
         <v>2035</v>
       </c>
-      <c r="D257" s="33"/>
-      <c r="E257" s="57" t="s">
+      <c r="D257" s="89"/>
+      <c r="E257" s="56" t="s">
         <v>2033</v>
       </c>
       <c r="F257" s="6"/>
@@ -21139,15 +21474,17 @@
       <c r="P257" s="2"/>
     </row>
     <row r="258" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="9"/>
+      <c r="A258" s="9" t="s">
+        <v>2585</v>
+      </c>
       <c r="B258" s="29" t="s">
         <v>2046</v>
       </c>
       <c r="C258" s="29" t="s">
         <v>2047</v>
       </c>
-      <c r="D258" s="33"/>
-      <c r="E258" s="57" t="s">
+      <c r="D258" s="89"/>
+      <c r="E258" s="56" t="s">
         <v>2045</v>
       </c>
       <c r="F258" s="6"/>
@@ -21179,15 +21516,17 @@
       <c r="P258" s="2"/>
     </row>
     <row r="259" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="9"/>
+      <c r="A259" s="9" t="s">
+        <v>2585</v>
+      </c>
       <c r="B259" s="29" t="s">
         <v>2049</v>
       </c>
       <c r="C259" s="29" t="s">
         <v>2050</v>
       </c>
-      <c r="D259" s="33"/>
-      <c r="E259" s="57" t="s">
+      <c r="D259" s="89"/>
+      <c r="E259" s="56" t="s">
         <v>2048</v>
       </c>
       <c r="F259" s="6"/>
@@ -21219,15 +21558,17 @@
       <c r="P259" s="2"/>
     </row>
     <row r="260" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="9"/>
+      <c r="A260" s="9" t="s">
+        <v>2585</v>
+      </c>
       <c r="B260" s="29" t="s">
         <v>2055</v>
       </c>
       <c r="C260" s="29" t="s">
         <v>2056</v>
       </c>
-      <c r="D260" s="33"/>
-      <c r="E260" s="57" t="s">
+      <c r="D260" s="89"/>
+      <c r="E260" s="56" t="s">
         <v>2057</v>
       </c>
       <c r="F260" s="6"/>
@@ -21259,15 +21600,17 @@
       <c r="P260" s="2"/>
     </row>
     <row r="261" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="9"/>
+      <c r="A261" s="9" t="s">
+        <v>2585</v>
+      </c>
       <c r="B261" s="29" t="s">
         <v>2061</v>
       </c>
       <c r="C261" s="29" t="s">
         <v>2062</v>
       </c>
-      <c r="D261" s="33"/>
-      <c r="E261" s="57" t="s">
+      <c r="D261" s="89"/>
+      <c r="E261" s="56" t="s">
         <v>2063</v>
       </c>
       <c r="F261" s="6"/>
@@ -21299,15 +21642,17 @@
       <c r="P261" s="2"/>
     </row>
     <row r="262" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="9"/>
+      <c r="A262" s="9" t="s">
+        <v>2585</v>
+      </c>
       <c r="B262" s="29" t="s">
         <v>2067</v>
       </c>
       <c r="C262" s="29" t="s">
         <v>2068</v>
       </c>
-      <c r="D262" s="33"/>
-      <c r="E262" s="57" t="s">
+      <c r="D262" s="89"/>
+      <c r="E262" s="56" t="s">
         <v>2069</v>
       </c>
       <c r="F262" s="6"/>
@@ -21339,15 +21684,17 @@
       <c r="P262" s="2"/>
     </row>
     <row r="263" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="9"/>
+      <c r="A263" s="9" t="s">
+        <v>2585</v>
+      </c>
       <c r="B263" s="29" t="s">
         <v>2074</v>
       </c>
       <c r="C263" s="29" t="s">
         <v>2075</v>
       </c>
-      <c r="D263" s="33"/>
-      <c r="E263" s="57" t="s">
+      <c r="D263" s="89"/>
+      <c r="E263" s="56" t="s">
         <v>2073</v>
       </c>
       <c r="F263" s="6"/>
@@ -21375,15 +21722,17 @@
       <c r="P263" s="2"/>
     </row>
     <row r="264" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="9"/>
+      <c r="A264" s="9" t="s">
+        <v>2585</v>
+      </c>
       <c r="B264" s="29" t="s">
         <v>651</v>
       </c>
       <c r="C264" s="29" t="s">
         <v>652</v>
       </c>
-      <c r="D264" s="33"/>
-      <c r="E264" s="57" t="s">
+      <c r="D264" s="89"/>
+      <c r="E264" s="56" t="s">
         <v>2079</v>
       </c>
       <c r="F264" s="6"/>
@@ -21408,17 +21757,17 @@
       <c r="M264" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="N264" s="84"/>
+      <c r="N264" s="82"/>
       <c r="O264" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="P264" s="60" t="s">
-        <v>2233</v>
+      <c r="P264" s="59" t="s">
+        <v>2232</v>
       </c>
     </row>
     <row r="265" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="9" t="s">
-        <v>2231</v>
+        <v>2595</v>
       </c>
       <c r="B265" s="29" t="s">
         <v>2084</v>
@@ -21426,8 +21775,8 @@
       <c r="C265" s="29" t="s">
         <v>2085</v>
       </c>
-      <c r="D265" s="33"/>
-      <c r="E265" s="57" t="s">
+      <c r="D265" s="89"/>
+      <c r="E265" s="56" t="s">
         <v>2086</v>
       </c>
       <c r="F265" s="6"/>
@@ -21460,7 +21809,7 @@
     </row>
     <row r="266" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="9" t="s">
-        <v>2231</v>
+        <v>2595</v>
       </c>
       <c r="B266" s="29" t="s">
         <v>2089</v>
@@ -21468,7 +21817,7 @@
       <c r="C266" s="29" t="s">
         <v>2090</v>
       </c>
-      <c r="D266" s="33"/>
+      <c r="D266" s="89"/>
       <c r="E266" s="20" t="s">
         <v>2091</v>
       </c>
@@ -21502,7 +21851,7 @@
     </row>
     <row r="267" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="9" t="s">
-        <v>2231</v>
+        <v>2587</v>
       </c>
       <c r="B267" s="29" t="s">
         <v>2095</v>
@@ -21510,8 +21859,8 @@
       <c r="C267" s="29" t="s">
         <v>2096</v>
       </c>
-      <c r="D267" s="33"/>
-      <c r="E267" s="57" t="s">
+      <c r="D267" s="89"/>
+      <c r="E267" s="56" t="s">
         <v>2097</v>
       </c>
       <c r="F267" s="6"/>
@@ -21544,21 +21893,21 @@
     </row>
     <row r="268" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B268" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B268" s="78" t="s">
         <v>2101</v>
       </c>
       <c r="C268" s="19" t="s">
         <v>2102</v>
       </c>
-      <c r="E268" s="57" t="s">
+      <c r="E268" s="56" t="s">
         <v>2103</v>
       </c>
       <c r="G268" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H268" s="79" t="s">
+      <c r="H268" s="78" t="s">
         <v>195</v>
       </c>
       <c r="I268" s="19" t="s">
@@ -21567,74 +21916,74 @@
       <c r="J268" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="K268" s="79" t="s">
+      <c r="K268" s="78" t="s">
         <v>656</v>
       </c>
-      <c r="L268" s="79" t="s">
+      <c r="L268" s="78" t="s">
         <v>697</v>
       </c>
       <c r="M268" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="N268" s="79" t="s">
+      <c r="N268" s="78" t="s">
         <v>2104</v>
       </c>
     </row>
     <row r="269" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B269" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B269" s="78" t="s">
         <v>2105</v>
       </c>
       <c r="C269" s="19" t="s">
         <v>2106</v>
       </c>
-      <c r="E269" s="79" t="s">
+      <c r="E269" s="78" t="s">
         <v>2107</v>
       </c>
       <c r="G269" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H269" s="79" t="s">
+      <c r="H269" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="I269" s="79" t="s">
+      <c r="I269" s="78" t="s">
         <v>644</v>
       </c>
-      <c r="J269" s="79" t="s">
+      <c r="J269" s="78" t="s">
         <v>2108</v>
       </c>
       <c r="K269" s="19" t="s">
         <v>2109</v>
       </c>
-      <c r="L269" s="79" t="s">
+      <c r="L269" s="78" t="s">
         <v>2110</v>
       </c>
       <c r="M269" s="19" t="s">
         <v>2111</v>
       </c>
-      <c r="N269" s="79" t="s">
+      <c r="N269" s="78" t="s">
         <v>2112</v>
       </c>
     </row>
     <row r="270" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B270" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B270" s="78" t="s">
         <v>2113</v>
       </c>
-      <c r="C270" s="79" t="s">
+      <c r="C270" s="78" t="s">
         <v>2114</v>
       </c>
-      <c r="E270" s="79" t="s">
+      <c r="E270" s="78" t="s">
         <v>2115</v>
       </c>
       <c r="G270" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H270" s="79" t="s">
+      <c r="H270" s="78" t="s">
         <v>263</v>
       </c>
       <c r="I270" s="19" t="s">
@@ -21646,33 +21995,33 @@
       <c r="K270" s="19" t="s">
         <v>2117</v>
       </c>
-      <c r="L270" s="79" t="s">
+      <c r="L270" s="78" t="s">
         <v>2118</v>
       </c>
-      <c r="M270" s="79" t="s">
+      <c r="M270" s="78" t="s">
         <v>2119</v>
       </c>
-      <c r="N270" s="79" t="s">
+      <c r="N270" s="78" t="s">
         <v>2120</v>
       </c>
     </row>
     <row r="271" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B271" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B271" s="78" t="s">
         <v>2121</v>
       </c>
       <c r="C271" s="19" t="s">
         <v>2122</v>
       </c>
-      <c r="E271" s="79" t="s">
+      <c r="E271" s="78" t="s">
         <v>2123</v>
       </c>
       <c r="G271" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H271" s="79" t="s">
+      <c r="H271" s="78" t="s">
         <v>195</v>
       </c>
       <c r="I271" s="19" t="s">
@@ -21684,10 +22033,10 @@
       <c r="K271" s="19" t="s">
         <v>1461</v>
       </c>
-      <c r="L271" s="79" t="s">
+      <c r="L271" s="78" t="s">
         <v>1462</v>
       </c>
-      <c r="M271" s="79" t="s">
+      <c r="M271" s="78" t="s">
         <v>2124</v>
       </c>
       <c r="N271" s="19" t="s">
@@ -21696,21 +22045,21 @@
     </row>
     <row r="272" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B272" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B272" s="78" t="s">
         <v>2126</v>
       </c>
       <c r="C272" s="19" t="s">
         <v>2127</v>
       </c>
-      <c r="E272" s="79" t="s">
+      <c r="E272" s="78" t="s">
         <v>2128</v>
       </c>
       <c r="G272" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H272" s="79" t="s">
+      <c r="H272" s="78" t="s">
         <v>195</v>
       </c>
       <c r="I272" s="19" t="s">
@@ -21722,10 +22071,10 @@
       <c r="K272" s="19" t="s">
         <v>1461</v>
       </c>
-      <c r="L272" s="79" t="s">
+      <c r="L272" s="78" t="s">
         <v>1462</v>
       </c>
-      <c r="M272" s="79" t="s">
+      <c r="M272" s="78" t="s">
         <v>2129</v>
       </c>
       <c r="N272" s="19" t="s">
@@ -21734,21 +22083,21 @@
     </row>
     <row r="273" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B273" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B273" s="78" t="s">
         <v>1917</v>
       </c>
       <c r="C273" s="19" t="s">
         <v>1918</v>
       </c>
-      <c r="E273" s="79" t="s">
+      <c r="E273" s="78" t="s">
         <v>1913</v>
       </c>
       <c r="G273" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H273" s="79" t="s">
+      <c r="H273" s="78" t="s">
         <v>195</v>
       </c>
       <c r="I273" s="19" t="s">
@@ -21760,36 +22109,36 @@
       <c r="K273" s="19" t="s">
         <v>1461</v>
       </c>
-      <c r="L273" s="79" t="s">
+      <c r="L273" s="78" t="s">
         <v>1914</v>
       </c>
-      <c r="M273" s="79" t="s">
+      <c r="M273" s="78" t="s">
         <v>1915</v>
       </c>
       <c r="N273" s="19" t="s">
         <v>1916</v>
       </c>
-      <c r="P273" s="87" t="s">
+      <c r="P273" s="19" t="s">
         <v>2131</v>
       </c>
     </row>
     <row r="274" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B274" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B274" s="78" t="s">
         <v>2132</v>
       </c>
       <c r="C274" s="19" t="s">
         <v>2133</v>
       </c>
-      <c r="E274" s="79" t="s">
+      <c r="E274" s="78" t="s">
         <v>2134</v>
       </c>
       <c r="G274" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H274" s="79" t="s">
+      <c r="H274" s="78" t="s">
         <v>195</v>
       </c>
       <c r="I274" s="19" t="s">
@@ -21801,33 +22150,33 @@
       <c r="K274" s="19" t="s">
         <v>1461</v>
       </c>
-      <c r="L274" s="79" t="s">
+      <c r="L274" s="78" t="s">
         <v>1462</v>
       </c>
-      <c r="M274" s="79" t="s">
+      <c r="M274" s="78" t="s">
         <v>1471</v>
       </c>
-      <c r="N274" s="79" t="s">
+      <c r="N274" s="78" t="s">
         <v>2135</v>
       </c>
     </row>
     <row r="275" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B275" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B275" s="78" t="s">
         <v>2136</v>
       </c>
       <c r="C275" s="19" t="s">
         <v>2137</v>
       </c>
-      <c r="E275" s="79" t="s">
+      <c r="E275" s="78" t="s">
         <v>2138</v>
       </c>
       <c r="G275" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H275" s="79" t="s">
+      <c r="H275" s="78" t="s">
         <v>195</v>
       </c>
       <c r="I275" s="19" t="s">
@@ -21839,10 +22188,10 @@
       <c r="K275" s="19" t="s">
         <v>1461</v>
       </c>
-      <c r="L275" s="79" t="s">
+      <c r="L275" s="78" t="s">
         <v>1462</v>
       </c>
-      <c r="M275" s="79" t="s">
+      <c r="M275" s="78" t="s">
         <v>2139</v>
       </c>
       <c r="N275" s="19" t="s">
@@ -21851,21 +22200,21 @@
     </row>
     <row r="276" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B276" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B276" s="78" t="s">
         <v>2141</v>
       </c>
       <c r="C276" s="19" t="s">
         <v>2142</v>
       </c>
-      <c r="E276" s="79" t="s">
+      <c r="E276" s="78" t="s">
         <v>2143</v>
       </c>
       <c r="G276" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H276" s="79" t="s">
+      <c r="H276" s="78" t="s">
         <v>1993</v>
       </c>
       <c r="I276" s="19" t="s">
@@ -21877,33 +22226,33 @@
       <c r="K276" s="19" t="s">
         <v>1300</v>
       </c>
-      <c r="L276" s="79" t="s">
+      <c r="L276" s="78" t="s">
         <v>1301</v>
       </c>
-      <c r="M276" s="79" t="s">
+      <c r="M276" s="78" t="s">
         <v>2145</v>
       </c>
-      <c r="N276" s="79" t="s">
+      <c r="N276" s="78" t="s">
         <v>2146</v>
       </c>
     </row>
     <row r="277" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B277" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B277" s="78" t="s">
         <v>2147</v>
       </c>
       <c r="C277" s="19" t="s">
         <v>2148</v>
       </c>
-      <c r="E277" s="79" t="s">
+      <c r="E277" s="78" t="s">
         <v>2149</v>
       </c>
       <c r="G277" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H277" s="79" t="s">
+      <c r="H277" s="78" t="s">
         <v>1838</v>
       </c>
       <c r="I277" s="19" t="s">
@@ -21915,36 +22264,36 @@
       <c r="K277" s="19" t="s">
         <v>2151</v>
       </c>
-      <c r="L277" s="79" t="s">
+      <c r="L277" s="78" t="s">
         <v>2152</v>
       </c>
-      <c r="M277" s="79" t="s">
+      <c r="M277" s="78" t="s">
         <v>2153</v>
       </c>
-      <c r="N277" s="79" t="s">
+      <c r="N277" s="78" t="s">
         <v>2154</v>
       </c>
-      <c r="P277" s="81" t="s">
+      <c r="P277" s="79" t="s">
         <v>2155</v>
       </c>
     </row>
     <row r="278" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B278" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B278" s="78" t="s">
         <v>2156</v>
       </c>
       <c r="C278" s="19" t="s">
         <v>2157</v>
       </c>
-      <c r="E278" s="79" t="s">
+      <c r="E278" s="78" t="s">
         <v>2158</v>
       </c>
       <c r="G278" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H278" s="79" t="s">
+      <c r="H278" s="78" t="s">
         <v>195</v>
       </c>
       <c r="I278" s="19" t="s">
@@ -21956,33 +22305,33 @@
       <c r="K278" s="19" t="s">
         <v>2159</v>
       </c>
-      <c r="L278" s="79" t="s">
+      <c r="L278" s="78" t="s">
         <v>2160</v>
       </c>
       <c r="M278" s="19" t="s">
         <v>2161</v>
       </c>
-      <c r="N278" s="79" t="s">
+      <c r="N278" s="78" t="s">
         <v>2162</v>
       </c>
     </row>
     <row r="279" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B279" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B279" s="78" t="s">
         <v>2163</v>
       </c>
       <c r="C279" s="19" t="s">
         <v>2164</v>
       </c>
-      <c r="E279" s="79" t="s">
+      <c r="E279" s="78" t="s">
         <v>2165</v>
       </c>
       <c r="G279" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H279" s="79" t="s">
+      <c r="H279" s="78" t="s">
         <v>195</v>
       </c>
       <c r="I279" s="19" t="s">
@@ -21994,33 +22343,33 @@
       <c r="K279" s="19" t="s">
         <v>2167</v>
       </c>
-      <c r="L279" s="79" t="s">
+      <c r="L279" s="78" t="s">
         <v>2168</v>
       </c>
-      <c r="M279" s="79" t="s">
+      <c r="M279" s="78" t="s">
         <v>2169</v>
       </c>
-      <c r="N279" s="79" t="s">
+      <c r="N279" s="78" t="s">
         <v>2170</v>
       </c>
     </row>
     <row r="280" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B280" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B280" s="78" t="s">
         <v>2171</v>
       </c>
       <c r="C280" s="19" t="s">
         <v>2172</v>
       </c>
-      <c r="E280" s="79" t="s">
+      <c r="E280" s="78" t="s">
         <v>2173</v>
       </c>
       <c r="G280" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H280" s="79" t="s">
+      <c r="H280" s="78" t="s">
         <v>2174</v>
       </c>
       <c r="I280" s="19" t="s">
@@ -22032,33 +22381,33 @@
       <c r="K280" s="19" t="s">
         <v>2177</v>
       </c>
-      <c r="L280" s="79" t="s">
+      <c r="L280" s="78" t="s">
         <v>2178</v>
       </c>
-      <c r="M280" s="79" t="s">
+      <c r="M280" s="78" t="s">
         <v>2179</v>
       </c>
-      <c r="N280" s="79" t="s">
+      <c r="N280" s="78" t="s">
         <v>2180</v>
       </c>
     </row>
     <row r="281" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B281" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B281" s="78" t="s">
         <v>2181</v>
       </c>
-      <c r="C281" s="79" t="s">
+      <c r="C281" s="78" t="s">
         <v>2182</v>
       </c>
-      <c r="E281" s="88" t="s">
+      <c r="E281" s="85" t="s">
         <v>2183</v>
       </c>
       <c r="G281" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H281" s="79" t="s">
+      <c r="H281" s="78" t="s">
         <v>2174</v>
       </c>
       <c r="I281" s="19" t="s">
@@ -22070,33 +22419,33 @@
       <c r="K281" s="19" t="s">
         <v>2177</v>
       </c>
-      <c r="L281" s="79" t="s">
+      <c r="L281" s="78" t="s">
         <v>2178</v>
       </c>
-      <c r="M281" s="79" t="s">
+      <c r="M281" s="78" t="s">
         <v>2184</v>
       </c>
-      <c r="N281" s="79" t="s">
+      <c r="N281" s="78" t="s">
         <v>2185</v>
       </c>
     </row>
     <row r="282" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B282" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B282" s="78" t="s">
         <v>1388</v>
       </c>
       <c r="C282" s="19" t="s">
         <v>1389</v>
       </c>
-      <c r="E282" s="79" t="s">
+      <c r="E282" s="78" t="s">
         <v>2186</v>
       </c>
       <c r="G282" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H282" s="79" t="s">
+      <c r="H282" s="78" t="s">
         <v>2187</v>
       </c>
       <c r="I282" s="19" t="s">
@@ -22108,33 +22457,33 @@
       <c r="K282" s="19" t="s">
         <v>1394</v>
       </c>
-      <c r="L282" s="79" t="s">
+      <c r="L282" s="78" t="s">
         <v>1395</v>
       </c>
-      <c r="M282" s="79" t="s">
+      <c r="M282" s="78" t="s">
         <v>1396</v>
       </c>
-      <c r="N282" s="79" t="s">
+      <c r="N282" s="78" t="s">
         <v>1397</v>
       </c>
     </row>
     <row r="283" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B283" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B283" s="78" t="s">
         <v>2188</v>
       </c>
       <c r="C283" s="19" t="s">
         <v>2189</v>
       </c>
-      <c r="E283" s="79" t="s">
+      <c r="E283" s="78" t="s">
         <v>2190</v>
       </c>
       <c r="G283" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H283" s="79" t="s">
+      <c r="H283" s="78" t="s">
         <v>2191</v>
       </c>
       <c r="I283" s="19" t="s">
@@ -22146,33 +22495,33 @@
       <c r="K283" s="19" t="s">
         <v>2194</v>
       </c>
-      <c r="L283" s="79" t="s">
+      <c r="L283" s="78" t="s">
         <v>2195</v>
       </c>
-      <c r="M283" s="79" t="s">
+      <c r="M283" s="78" t="s">
         <v>2196</v>
       </c>
-      <c r="N283" s="79" t="s">
+      <c r="N283" s="78" t="s">
         <v>2197</v>
       </c>
     </row>
     <row r="284" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B284" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B284" s="78" t="s">
         <v>2198</v>
       </c>
       <c r="C284" s="19" t="s">
         <v>2199</v>
       </c>
-      <c r="E284" s="79" t="s">
+      <c r="E284" s="78" t="s">
         <v>2200</v>
       </c>
       <c r="G284" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H284" s="79" t="s">
+      <c r="H284" s="78" t="s">
         <v>117</v>
       </c>
       <c r="I284" s="19" t="s">
@@ -22184,10 +22533,10 @@
       <c r="K284" s="19" t="s">
         <v>2201</v>
       </c>
-      <c r="L284" s="79" t="s">
+      <c r="L284" s="78" t="s">
         <v>966</v>
       </c>
-      <c r="M284" s="79" t="s">
+      <c r="M284" s="78" t="s">
         <v>407</v>
       </c>
       <c r="N284" s="19" t="s">
@@ -22196,21 +22545,21 @@
     </row>
     <row r="285" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B285" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B285" s="78" t="s">
         <v>2203</v>
       </c>
       <c r="C285" s="19" t="s">
         <v>2204</v>
       </c>
-      <c r="E285" s="79" t="s">
+      <c r="E285" s="78" t="s">
         <v>2205</v>
       </c>
       <c r="G285" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H285" s="79" t="s">
+      <c r="H285" s="78" t="s">
         <v>195</v>
       </c>
       <c r="I285" s="19" t="s">
@@ -22222,33 +22571,33 @@
       <c r="K285" s="19" t="s">
         <v>1892</v>
       </c>
-      <c r="L285" s="79" t="s">
+      <c r="L285" s="78" t="s">
         <v>2206</v>
       </c>
-      <c r="M285" s="79" t="s">
+      <c r="M285" s="78" t="s">
         <v>2207</v>
       </c>
-      <c r="N285" s="89">
+      <c r="N285" s="86">
         <v>1021</v>
       </c>
     </row>
     <row r="286" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B286" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B286" s="78" t="s">
         <v>2208</v>
       </c>
       <c r="C286" s="19" t="s">
         <v>2209</v>
       </c>
-      <c r="E286" s="79" t="s">
+      <c r="E286" s="78" t="s">
         <v>2210</v>
       </c>
       <c r="G286" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H286" s="79" t="s">
+      <c r="H286" s="78" t="s">
         <v>195</v>
       </c>
       <c r="I286" s="19" t="s">
@@ -22260,10 +22609,10 @@
       <c r="K286" s="19" t="s">
         <v>2211</v>
       </c>
-      <c r="L286" s="79" t="s">
+      <c r="L286" s="78" t="s">
         <v>2212</v>
       </c>
-      <c r="M286" s="79" t="s">
+      <c r="M286" s="78" t="s">
         <v>2213</v>
       </c>
       <c r="N286" s="19" t="s">
@@ -22272,21 +22621,21 @@
     </row>
     <row r="287" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B287" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B287" s="78" t="s">
         <v>2215</v>
       </c>
       <c r="C287" s="19" t="s">
         <v>2216</v>
       </c>
-      <c r="E287" s="57" t="s">
+      <c r="E287" s="56" t="s">
         <v>2217</v>
       </c>
       <c r="G287" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H287" s="79" t="s">
+      <c r="H287" s="78" t="s">
         <v>195</v>
       </c>
       <c r="I287" s="19" t="s">
@@ -22298,33 +22647,33 @@
       <c r="K287" s="19" t="s">
         <v>656</v>
       </c>
-      <c r="L287" s="79" t="s">
+      <c r="L287" s="78" t="s">
         <v>722</v>
       </c>
-      <c r="M287" s="79" t="s">
+      <c r="M287" s="78" t="s">
         <v>2218</v>
       </c>
-      <c r="N287" s="79" t="s">
+      <c r="N287" s="78" t="s">
         <v>2219</v>
       </c>
     </row>
     <row r="288" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B288" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B288" s="78" t="s">
         <v>2220</v>
       </c>
       <c r="C288" s="19" t="s">
         <v>2221</v>
       </c>
-      <c r="E288" s="79" t="s">
+      <c r="E288" s="78" t="s">
         <v>2222</v>
       </c>
       <c r="G288" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H288" s="79" t="s">
+      <c r="H288" s="78" t="s">
         <v>195</v>
       </c>
       <c r="I288" s="19" t="s">
@@ -22336,10 +22685,10 @@
       <c r="K288" s="19" t="s">
         <v>2223</v>
       </c>
-      <c r="L288" s="79" t="s">
+      <c r="L288" s="78" t="s">
         <v>2224</v>
       </c>
-      <c r="M288" s="79" t="s">
+      <c r="M288" s="78" t="s">
         <v>200</v>
       </c>
       <c r="N288" s="19" t="s">
@@ -22348,21 +22697,21 @@
     </row>
     <row r="289" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="9" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B289" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B289" s="78" t="s">
         <v>2226</v>
       </c>
       <c r="C289" s="19" t="s">
         <v>2227</v>
       </c>
-      <c r="E289" s="79" t="s">
+      <c r="E289" s="78" t="s">
         <v>2228</v>
       </c>
       <c r="G289" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H289" s="79" t="s">
+      <c r="H289" s="78" t="s">
         <v>195</v>
       </c>
       <c r="I289" s="19" t="s">
@@ -22374,10 +22723,10 @@
       <c r="K289" s="19" t="s">
         <v>2223</v>
       </c>
-      <c r="L289" s="90" t="s">
+      <c r="L289" s="79" t="s">
         <v>2224</v>
       </c>
-      <c r="M289" s="79" t="s">
+      <c r="M289" s="78" t="s">
         <v>2229</v>
       </c>
       <c r="N289" s="19" t="s">
@@ -22385,16 +22734,18 @@
       </c>
     </row>
     <row r="290" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="9"/>
+      <c r="A290" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B290" s="29" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C290" s="29" t="s">
         <v>2237</v>
       </c>
-      <c r="C290" s="29" t="s">
-        <v>2238</v>
-      </c>
-      <c r="D290" s="33"/>
-      <c r="E290" s="57" t="s">
-        <v>2236</v>
+      <c r="D290" s="89"/>
+      <c r="E290" s="56" t="s">
+        <v>2235</v>
       </c>
       <c r="F290" s="6"/>
       <c r="G290" s="11" t="s">
@@ -22413,70 +22764,74 @@
         <v>120</v>
       </c>
       <c r="L290" s="20" t="s">
+        <v>2233</v>
+      </c>
+      <c r="M290" s="20" t="s">
+        <v>2231</v>
+      </c>
+      <c r="N290" s="11" t="s">
         <v>2234</v>
-      </c>
-      <c r="M290" s="20" t="s">
-        <v>2232</v>
-      </c>
-      <c r="N290" s="11" t="s">
-        <v>2235</v>
       </c>
       <c r="O290" s="6"/>
       <c r="P290" s="2"/>
     </row>
     <row r="291" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A291" s="9"/>
+      <c r="A291" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B291" s="29" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C291" s="29" t="s">
         <v>2240</v>
       </c>
-      <c r="C291" s="29" t="s">
+      <c r="D291" s="89"/>
+      <c r="E291" s="56" t="s">
         <v>2241</v>
-      </c>
-      <c r="D291" s="33"/>
-      <c r="E291" s="57" t="s">
-        <v>2242</v>
       </c>
       <c r="F291" s="6"/>
       <c r="G291" s="11" t="s">
         <v>35</v>
       </c>
       <c r="H291" s="20" t="s">
+        <v>2245</v>
+      </c>
+      <c r="I291" s="20" t="s">
         <v>2246</v>
       </c>
-      <c r="I291" s="20" t="s">
+      <c r="J291" s="20" t="s">
         <v>2247</v>
-      </c>
-      <c r="J291" s="20" t="s">
-        <v>2248</v>
       </c>
       <c r="K291" s="20" t="s">
         <v>607</v>
       </c>
       <c r="L291" s="20" t="s">
+        <v>2242</v>
+      </c>
+      <c r="M291" s="20" t="s">
         <v>2243</v>
       </c>
-      <c r="M291" s="20" t="s">
+      <c r="N291" s="11" t="s">
         <v>2244</v>
       </c>
-      <c r="N291" s="11" t="s">
-        <v>2245</v>
-      </c>
       <c r="O291" s="6"/>
-      <c r="P291" s="60" t="s">
-        <v>2239</v>
+      <c r="P291" s="59" t="s">
+        <v>2238</v>
       </c>
     </row>
     <row r="292" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A292" s="9"/>
+      <c r="A292" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B292" s="29" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C292" s="29" t="s">
-        <v>2251</v>
-      </c>
-      <c r="D292" s="33"/>
-      <c r="E292" s="57" t="s">
         <v>2250</v>
+      </c>
+      <c r="D292" s="89"/>
+      <c r="E292" s="56" t="s">
+        <v>2249</v>
       </c>
       <c r="F292" s="6"/>
       <c r="G292" s="11" t="s">
@@ -22495,30 +22850,32 @@
         <v>1909</v>
       </c>
       <c r="L292" s="20" t="s">
+        <v>2252</v>
+      </c>
+      <c r="M292" s="20" t="s">
         <v>2253</v>
       </c>
-      <c r="M292" s="20" t="s">
+      <c r="N292" s="11" t="s">
         <v>2254</v>
       </c>
-      <c r="N292" s="11" t="s">
-        <v>2255</v>
-      </c>
       <c r="O292" s="6"/>
-      <c r="P292" s="60" t="s">
-        <v>2249</v>
+      <c r="P292" s="59" t="s">
+        <v>2248</v>
       </c>
     </row>
     <row r="293" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="9"/>
+      <c r="A293" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B293" s="29" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C293" s="29" t="s">
         <v>2260</v>
       </c>
-      <c r="C293" s="29" t="s">
-        <v>2261</v>
-      </c>
-      <c r="D293" s="33"/>
-      <c r="E293" s="57" t="s">
-        <v>2259</v>
+      <c r="D293" s="89"/>
+      <c r="E293" s="56" t="s">
+        <v>2258</v>
       </c>
       <c r="F293" s="6"/>
       <c r="G293" s="11" t="s">
@@ -22537,28 +22894,30 @@
         <v>1909</v>
       </c>
       <c r="L293" s="20" t="s">
+        <v>2255</v>
+      </c>
+      <c r="M293" s="20" t="s">
         <v>2256</v>
       </c>
-      <c r="M293" s="20" t="s">
+      <c r="N293" s="11" t="s">
         <v>2257</v>
-      </c>
-      <c r="N293" s="11" t="s">
-        <v>2258</v>
       </c>
       <c r="O293" s="6"/>
       <c r="P293" s="2"/>
     </row>
     <row r="294" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="9"/>
+      <c r="A294" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B294" s="29" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="C294" s="29" t="s">
-        <v>2265</v>
-      </c>
-      <c r="D294" s="33"/>
-      <c r="E294" s="57" t="s">
-        <v>2263</v>
+        <v>2264</v>
+      </c>
+      <c r="D294" s="89"/>
+      <c r="E294" s="56" t="s">
+        <v>2262</v>
       </c>
       <c r="F294" s="6"/>
       <c r="G294" s="11" t="s">
@@ -22577,30 +22936,32 @@
         <v>1909</v>
       </c>
       <c r="L294" s="20" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="M294" s="20" t="s">
         <v>600</v>
       </c>
       <c r="N294" s="11" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="O294" s="6"/>
-      <c r="P294" s="60" t="s">
-        <v>2264</v>
+      <c r="P294" s="59" t="s">
+        <v>2263</v>
       </c>
     </row>
     <row r="295" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A295" s="9"/>
+      <c r="A295" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B295" s="29" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C295" s="29" t="s">
         <v>2269</v>
       </c>
-      <c r="C295" s="29" t="s">
+      <c r="D295" s="89"/>
+      <c r="E295" s="56" t="s">
         <v>2270</v>
-      </c>
-      <c r="D295" s="33"/>
-      <c r="E295" s="57" t="s">
-        <v>2271</v>
       </c>
       <c r="F295" s="6"/>
       <c r="G295" s="11" t="s">
@@ -22619,28 +22980,30 @@
         <v>1909</v>
       </c>
       <c r="L295" s="20" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="M295" s="20" t="s">
+        <v>2266</v>
+      </c>
+      <c r="N295" s="11" t="s">
         <v>2267</v>
-      </c>
-      <c r="N295" s="11" t="s">
-        <v>2268</v>
       </c>
       <c r="O295" s="6"/>
       <c r="P295" s="2"/>
     </row>
     <row r="296" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A296" s="9"/>
+      <c r="A296" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B296" s="29" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C296" s="29" t="s">
         <v>2273</v>
       </c>
-      <c r="C296" s="29" t="s">
-        <v>2274</v>
-      </c>
-      <c r="D296" s="33"/>
-      <c r="E296" s="57" t="s">
-        <v>2272</v>
+      <c r="D296" s="89"/>
+      <c r="E296" s="56" t="s">
+        <v>2271</v>
       </c>
       <c r="F296" s="6"/>
       <c r="G296" s="11" t="s">
@@ -22653,34 +23016,36 @@
         <v>376</v>
       </c>
       <c r="J296" s="20" t="s">
+        <v>2277</v>
+      </c>
+      <c r="K296" s="20" t="s">
         <v>2278</v>
       </c>
-      <c r="K296" s="20" t="s">
-        <v>2279</v>
-      </c>
       <c r="L296" s="20" t="s">
+        <v>2274</v>
+      </c>
+      <c r="M296" s="20" t="s">
         <v>2275</v>
       </c>
-      <c r="M296" s="20" t="s">
+      <c r="N296" s="11" t="s">
         <v>2276</v>
-      </c>
-      <c r="N296" s="11" t="s">
-        <v>2277</v>
       </c>
       <c r="O296" s="6"/>
       <c r="P296" s="2"/>
     </row>
     <row r="297" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A297" s="9"/>
+      <c r="A297" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B297" s="29" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C297" s="29" t="s">
         <v>2286</v>
       </c>
-      <c r="C297" s="29" t="s">
+      <c r="D297" s="89"/>
+      <c r="E297" s="56" t="s">
         <v>2287</v>
-      </c>
-      <c r="D297" s="33"/>
-      <c r="E297" s="57" t="s">
-        <v>2288</v>
       </c>
       <c r="F297" s="6"/>
       <c r="G297" s="11" t="s">
@@ -22690,37 +23055,39 @@
         <v>117</v>
       </c>
       <c r="I297" s="20" t="s">
+        <v>2283</v>
+      </c>
+      <c r="J297" s="20" t="s">
         <v>2284</v>
       </c>
-      <c r="J297" s="20" t="s">
-        <v>2285</v>
-      </c>
       <c r="K297" s="20" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="L297" s="20" t="s">
+        <v>2279</v>
+      </c>
+      <c r="M297" s="20" t="s">
         <v>2280</v>
       </c>
-      <c r="M297" s="20" t="s">
+      <c r="N297" s="11" t="s">
         <v>2281</v>
-      </c>
-      <c r="N297" s="11" t="s">
-        <v>2282</v>
       </c>
       <c r="O297" s="6"/>
       <c r="P297" s="2"/>
     </row>
     <row r="298" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A298" s="9"/>
+      <c r="A298" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B298" s="29" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C298" s="29" t="s">
         <v>2293</v>
       </c>
-      <c r="C298" s="29" t="s">
-        <v>2294</v>
-      </c>
-      <c r="D298" s="33"/>
-      <c r="E298" s="57" t="s">
-        <v>2289</v>
+      <c r="D298" s="89"/>
+      <c r="E298" s="56" t="s">
+        <v>2288</v>
       </c>
       <c r="F298" s="6"/>
       <c r="G298" s="11" t="s">
@@ -22739,28 +23106,30 @@
         <v>2117</v>
       </c>
       <c r="L298" s="20" t="s">
+        <v>2289</v>
+      </c>
+      <c r="M298" s="20" t="s">
         <v>2290</v>
       </c>
-      <c r="M298" s="20" t="s">
+      <c r="N298" s="11" t="s">
         <v>2291</v>
-      </c>
-      <c r="N298" s="11" t="s">
-        <v>2292</v>
       </c>
       <c r="O298" s="6"/>
       <c r="P298" s="2"/>
     </row>
     <row r="299" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A299" s="9"/>
+      <c r="A299" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B299" s="29" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C299" s="29" t="s">
         <v>2297</v>
       </c>
-      <c r="C299" s="29" t="s">
+      <c r="D299" s="89"/>
+      <c r="E299" s="56" t="s">
         <v>2298</v>
-      </c>
-      <c r="D299" s="33"/>
-      <c r="E299" s="57" t="s">
-        <v>2299</v>
       </c>
       <c r="F299" s="6"/>
       <c r="G299" s="11" t="s">
@@ -22779,188 +23148,198 @@
         <v>2117</v>
       </c>
       <c r="L299" s="20" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="M299" s="20" t="s">
+        <v>2294</v>
+      </c>
+      <c r="N299" s="11" t="s">
         <v>2295</v>
-      </c>
-      <c r="N299" s="11" t="s">
-        <v>2296</v>
       </c>
       <c r="O299" s="6"/>
       <c r="P299" s="2"/>
     </row>
     <row r="300" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A300" s="9"/>
+      <c r="A300" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B300" s="29" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C300" s="29" t="s">
         <v>2303</v>
       </c>
-      <c r="C300" s="29" t="s">
-        <v>2304</v>
-      </c>
-      <c r="D300" s="33"/>
-      <c r="E300" s="57" t="s">
-        <v>2300</v>
+      <c r="D300" s="89"/>
+      <c r="E300" s="56" t="s">
+        <v>2299</v>
       </c>
       <c r="F300" s="6"/>
       <c r="G300" s="11" t="s">
         <v>35</v>
       </c>
       <c r="H300" s="20" t="s">
+        <v>2305</v>
+      </c>
+      <c r="I300" s="20" t="s">
         <v>2306</v>
       </c>
-      <c r="I300" s="20" t="s">
+      <c r="J300" s="20" t="s">
         <v>2307</v>
-      </c>
-      <c r="J300" s="20" t="s">
-        <v>2308</v>
       </c>
       <c r="K300" s="20" t="s">
         <v>1986</v>
       </c>
       <c r="L300" s="20" t="s">
+        <v>2300</v>
+      </c>
+      <c r="M300" s="20" t="s">
         <v>2301</v>
       </c>
-      <c r="M300" s="20" t="s">
-        <v>2302</v>
-      </c>
       <c r="N300" s="11" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="O300" s="6"/>
       <c r="P300" s="2"/>
     </row>
     <row r="301" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A301" s="9"/>
+      <c r="A301" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B301" s="29" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C301" s="29" t="s">
         <v>2309</v>
       </c>
-      <c r="C301" s="29" t="s">
+      <c r="D301" s="89"/>
+      <c r="E301" s="56" t="s">
         <v>2310</v>
-      </c>
-      <c r="D301" s="33"/>
-      <c r="E301" s="57" t="s">
-        <v>2311</v>
       </c>
       <c r="F301" s="6"/>
       <c r="G301" s="11" t="s">
         <v>35</v>
       </c>
       <c r="H301" s="20" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="I301" s="20" t="s">
+        <v>2314</v>
+      </c>
+      <c r="J301" s="20" t="s">
         <v>2315</v>
       </c>
-      <c r="J301" s="20" t="s">
+      <c r="K301" s="20" t="s">
         <v>2316</v>
       </c>
-      <c r="K301" s="20" t="s">
-        <v>2317</v>
-      </c>
       <c r="L301" s="20" t="s">
+        <v>2311</v>
+      </c>
+      <c r="M301" s="20" t="s">
         <v>2312</v>
       </c>
-      <c r="M301" s="20" t="s">
+      <c r="N301" s="11" t="s">
         <v>2313</v>
-      </c>
-      <c r="N301" s="11" t="s">
-        <v>2314</v>
       </c>
       <c r="O301" s="6"/>
       <c r="P301" s="2"/>
     </row>
     <row r="302" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A302" s="9"/>
+      <c r="A302" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B302" s="29" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C302" s="29" t="s">
         <v>2319</v>
       </c>
-      <c r="C302" s="29" t="s">
-        <v>2320</v>
-      </c>
-      <c r="D302" s="33"/>
-      <c r="E302" s="57" t="s">
-        <v>2318</v>
+      <c r="D302" s="89"/>
+      <c r="E302" s="56" t="s">
+        <v>2317</v>
       </c>
       <c r="F302" s="6"/>
       <c r="G302" s="11" t="s">
         <v>35</v>
       </c>
       <c r="H302" s="20" t="s">
+        <v>2305</v>
+      </c>
+      <c r="I302" s="20" t="s">
         <v>2306</v>
       </c>
-      <c r="I302" s="20" t="s">
-        <v>2307</v>
-      </c>
       <c r="J302" s="20" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="K302" s="20" t="s">
         <v>1909</v>
       </c>
       <c r="L302" s="20" t="s">
+        <v>2320</v>
+      </c>
+      <c r="M302" s="20" t="s">
         <v>2321</v>
       </c>
-      <c r="M302" s="20" t="s">
+      <c r="N302" s="11" t="s">
         <v>2322</v>
-      </c>
-      <c r="N302" s="11" t="s">
-        <v>2323</v>
       </c>
       <c r="O302" s="6"/>
       <c r="P302" s="2"/>
     </row>
     <row r="303" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A303" s="9"/>
+      <c r="A303" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B303" s="29" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C303" s="29" t="s">
         <v>2326</v>
       </c>
-      <c r="C303" s="29" t="s">
-        <v>2327</v>
-      </c>
-      <c r="D303" s="33"/>
-      <c r="E303" s="57" t="s">
-        <v>2325</v>
+      <c r="D303" s="89"/>
+      <c r="E303" s="56" t="s">
+        <v>2324</v>
       </c>
       <c r="F303" s="6"/>
       <c r="G303" s="11" t="s">
         <v>35</v>
       </c>
       <c r="H303" s="20" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="I303" s="20" t="s">
+        <v>2330</v>
+      </c>
+      <c r="J303" s="20" t="s">
         <v>2331</v>
       </c>
-      <c r="J303" s="20" t="s">
+      <c r="K303" s="20" t="s">
         <v>2332</v>
       </c>
-      <c r="K303" s="20" t="s">
-        <v>2333</v>
-      </c>
       <c r="L303" s="20" t="s">
+        <v>2327</v>
+      </c>
+      <c r="M303" s="20" t="s">
         <v>2328</v>
       </c>
-      <c r="M303" s="20" t="s">
+      <c r="N303" s="11" t="s">
         <v>2329</v>
-      </c>
-      <c r="N303" s="11" t="s">
-        <v>2330</v>
       </c>
       <c r="O303" s="6"/>
       <c r="P303" s="2"/>
     </row>
     <row r="304" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A304" s="9"/>
+      <c r="A304" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B304" s="29" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C304" s="29" t="s">
         <v>2337</v>
       </c>
-      <c r="C304" s="29" t="s">
+      <c r="D304" s="89"/>
+      <c r="E304" s="56" t="s">
         <v>2338</v>
-      </c>
-      <c r="D304" s="33"/>
-      <c r="E304" s="57" t="s">
-        <v>2339</v>
       </c>
       <c r="F304" s="6"/>
       <c r="G304" s="11" t="s">
@@ -22973,34 +23352,36 @@
         <v>644</v>
       </c>
       <c r="J304" s="20" t="s">
+        <v>2339</v>
+      </c>
+      <c r="K304" s="20" t="s">
         <v>2340</v>
       </c>
-      <c r="K304" s="20" t="s">
-        <v>2341</v>
-      </c>
       <c r="L304" s="20" t="s">
+        <v>2333</v>
+      </c>
+      <c r="M304" s="20" t="s">
         <v>2334</v>
       </c>
-      <c r="M304" s="20" t="s">
+      <c r="N304" s="11" t="s">
         <v>2335</v>
-      </c>
-      <c r="N304" s="11" t="s">
-        <v>2336</v>
       </c>
       <c r="O304" s="6"/>
       <c r="P304" s="2"/>
     </row>
     <row r="305" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A305" s="9"/>
+      <c r="A305" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B305" s="29" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C305" s="29" t="s">
         <v>2344</v>
       </c>
-      <c r="C305" s="29" t="s">
+      <c r="D305" s="89"/>
+      <c r="E305" s="56" t="s">
         <v>2345</v>
-      </c>
-      <c r="D305" s="33"/>
-      <c r="E305" s="57" t="s">
-        <v>2346</v>
       </c>
       <c r="F305" s="6"/>
       <c r="G305" s="11" t="s">
@@ -23010,7 +23391,7 @@
         <v>1993</v>
       </c>
       <c r="I305" s="20" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="J305" s="20" t="s">
         <v>973</v>
@@ -23022,25 +23403,27 @@
         <v>975</v>
       </c>
       <c r="M305" s="20" t="s">
+        <v>2341</v>
+      </c>
+      <c r="N305" s="11" t="s">
         <v>2342</v>
-      </c>
-      <c r="N305" s="11" t="s">
-        <v>2343</v>
       </c>
       <c r="O305" s="6"/>
       <c r="P305" s="2"/>
     </row>
     <row r="306" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A306" s="9"/>
+      <c r="A306" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B306" s="29" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C306" s="29" t="s">
         <v>2349</v>
       </c>
-      <c r="C306" s="29" t="s">
-        <v>2350</v>
-      </c>
-      <c r="D306" s="33"/>
-      <c r="E306" s="57" t="s">
-        <v>2348</v>
+      <c r="D306" s="89"/>
+      <c r="E306" s="56" t="s">
+        <v>2347</v>
       </c>
       <c r="F306" s="6"/>
       <c r="G306" s="11" t="s">
@@ -23050,7 +23433,7 @@
         <v>1993</v>
       </c>
       <c r="I306" s="20" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="J306" s="20" t="s">
         <v>973</v>
@@ -23062,25 +23445,27 @@
         <v>975</v>
       </c>
       <c r="M306" s="20" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="N306" s="11" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="O306" s="6"/>
       <c r="P306" s="2"/>
     </row>
     <row r="307" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A307" s="9"/>
+      <c r="A307" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B307" s="29" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C307" s="29" t="s">
         <v>2356</v>
       </c>
-      <c r="C307" s="29" t="s">
+      <c r="D307" s="89"/>
+      <c r="E307" s="56" t="s">
         <v>2357</v>
-      </c>
-      <c r="D307" s="33"/>
-      <c r="E307" s="57" t="s">
-        <v>2358</v>
       </c>
       <c r="F307" s="6"/>
       <c r="G307" s="11" t="s">
@@ -23090,37 +23475,39 @@
         <v>195</v>
       </c>
       <c r="I307" s="20" t="s">
+        <v>2358</v>
+      </c>
+      <c r="J307" s="20" t="s">
         <v>2359</v>
       </c>
-      <c r="J307" s="20" t="s">
+      <c r="K307" s="20" t="s">
         <v>2360</v>
       </c>
-      <c r="K307" s="20" t="s">
-        <v>2361</v>
-      </c>
       <c r="L307" s="20" t="s">
+        <v>2352</v>
+      </c>
+      <c r="M307" s="20" t="s">
         <v>2353</v>
       </c>
-      <c r="M307" s="20" t="s">
+      <c r="N307" s="11" t="s">
         <v>2354</v>
-      </c>
-      <c r="N307" s="11" t="s">
-        <v>2355</v>
       </c>
       <c r="O307" s="6"/>
       <c r="P307" s="2"/>
     </row>
     <row r="308" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A308" s="9"/>
+      <c r="A308" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B308" s="29" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C308" s="29" t="s">
         <v>2368</v>
       </c>
-      <c r="C308" s="29" t="s">
-        <v>2369</v>
-      </c>
-      <c r="D308" s="33"/>
-      <c r="E308" s="57" t="s">
-        <v>2366</v>
+      <c r="D308" s="89"/>
+      <c r="E308" s="56" t="s">
+        <v>2365</v>
       </c>
       <c r="F308" s="6"/>
       <c r="G308" s="11" t="s">
@@ -23136,31 +23523,33 @@
         <v>1188</v>
       </c>
       <c r="K308" s="20" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="L308" s="20" t="s">
+        <v>2362</v>
+      </c>
+      <c r="M308" s="20" t="s">
         <v>2363</v>
       </c>
-      <c r="M308" s="20" t="s">
-        <v>2364</v>
-      </c>
-      <c r="N308" s="86" t="s">
-        <v>2367</v>
+      <c r="N308" s="84" t="s">
+        <v>2366</v>
       </c>
       <c r="O308" s="6"/>
       <c r="P308" s="2"/>
     </row>
     <row r="309" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A309" s="9"/>
+      <c r="A309" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B309" s="29" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C309" s="29" t="s">
         <v>2373</v>
       </c>
-      <c r="C309" s="29" t="s">
+      <c r="D309" s="89"/>
+      <c r="E309" s="56" t="s">
         <v>2374</v>
-      </c>
-      <c r="D309" s="33"/>
-      <c r="E309" s="57" t="s">
-        <v>2375</v>
       </c>
       <c r="F309" s="6"/>
       <c r="G309" s="11" t="s">
@@ -23176,31 +23565,33 @@
         <v>1188</v>
       </c>
       <c r="K309" s="20" t="s">
+        <v>2369</v>
+      </c>
+      <c r="L309" s="20" t="s">
+        <v>2362</v>
+      </c>
+      <c r="M309" s="20" t="s">
         <v>2370</v>
       </c>
-      <c r="L309" s="20" t="s">
-        <v>2363</v>
-      </c>
-      <c r="M309" s="20" t="s">
+      <c r="N309" s="11" t="s">
         <v>2371</v>
-      </c>
-      <c r="N309" s="11" t="s">
-        <v>2372</v>
       </c>
       <c r="O309" s="6"/>
       <c r="P309" s="2"/>
     </row>
     <row r="310" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A310" s="9"/>
+      <c r="A310" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B310" s="29" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C310" s="29" t="s">
         <v>2378</v>
       </c>
-      <c r="C310" s="29" t="s">
+      <c r="D310" s="89"/>
+      <c r="E310" s="56" t="s">
         <v>2379</v>
-      </c>
-      <c r="D310" s="33"/>
-      <c r="E310" s="57" t="s">
-        <v>2380</v>
       </c>
       <c r="F310" s="6"/>
       <c r="G310" s="11" t="s">
@@ -23216,31 +23607,33 @@
         <v>1188</v>
       </c>
       <c r="K310" s="20" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="L310" s="20" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="M310" s="20" t="s">
+        <v>2375</v>
+      </c>
+      <c r="N310" s="11" t="s">
         <v>2376</v>
-      </c>
-      <c r="N310" s="11" t="s">
-        <v>2377</v>
       </c>
       <c r="O310" s="6"/>
       <c r="P310" s="2"/>
     </row>
     <row r="311" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A311" s="9"/>
+      <c r="A311" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B311" s="29" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C311" s="29" t="s">
         <v>2382</v>
       </c>
-      <c r="C311" s="29" t="s">
-        <v>2383</v>
-      </c>
-      <c r="D311" s="33"/>
-      <c r="E311" s="57" t="s">
-        <v>2362</v>
+      <c r="D311" s="89"/>
+      <c r="E311" s="56" t="s">
+        <v>2361</v>
       </c>
       <c r="F311" s="6"/>
       <c r="G311" s="11" t="s">
@@ -23256,31 +23649,33 @@
         <v>1188</v>
       </c>
       <c r="K311" s="20" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="L311" s="20" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="M311" s="20" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="N311" s="11" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="O311" s="6"/>
       <c r="P311" s="2"/>
     </row>
     <row r="312" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A312" s="9"/>
+      <c r="A312" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B312" s="29" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C312" s="29" t="s">
         <v>2387</v>
       </c>
-      <c r="C312" s="29" t="s">
+      <c r="D312" s="89"/>
+      <c r="E312" s="56" t="s">
         <v>2388</v>
-      </c>
-      <c r="D312" s="33"/>
-      <c r="E312" s="57" t="s">
-        <v>2389</v>
       </c>
       <c r="F312" s="6"/>
       <c r="G312" s="11" t="s">
@@ -23296,31 +23691,33 @@
         <v>1188</v>
       </c>
       <c r="K312" s="20" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="L312" s="20" t="s">
+        <v>2383</v>
+      </c>
+      <c r="M312" s="20" t="s">
         <v>2384</v>
       </c>
-      <c r="M312" s="20" t="s">
+      <c r="N312" s="11" t="s">
         <v>2385</v>
-      </c>
-      <c r="N312" s="11" t="s">
-        <v>2386</v>
       </c>
       <c r="O312" s="6"/>
       <c r="P312" s="2"/>
     </row>
     <row r="313" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A313" s="9"/>
+      <c r="A313" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B313" s="29" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C313" s="29" t="s">
         <v>2395</v>
       </c>
-      <c r="C313" s="29" t="s">
+      <c r="D313" s="89"/>
+      <c r="E313" s="56" t="s">
         <v>2396</v>
-      </c>
-      <c r="D313" s="33"/>
-      <c r="E313" s="57" t="s">
-        <v>2397</v>
       </c>
       <c r="F313" s="6"/>
       <c r="G313" s="11" t="s">
@@ -23339,30 +23736,32 @@
         <v>1892</v>
       </c>
       <c r="L313" s="20" t="s">
+        <v>2390</v>
+      </c>
+      <c r="M313" s="20" t="s">
         <v>2391</v>
       </c>
-      <c r="M313" s="20" t="s">
+      <c r="N313" s="11" t="s">
         <v>2392</v>
       </c>
-      <c r="N313" s="11" t="s">
+      <c r="O313" s="6"/>
+      <c r="P313" s="59" t="s">
         <v>2393</v>
       </c>
-      <c r="O313" s="6"/>
-      <c r="P313" s="60" t="s">
-        <v>2394</v>
-      </c>
     </row>
     <row r="314" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A314" s="9"/>
+      <c r="A314" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B314" s="29" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C314" s="29" t="s">
         <v>2399</v>
       </c>
-      <c r="C314" s="29" t="s">
-        <v>2400</v>
-      </c>
-      <c r="D314" s="33"/>
-      <c r="E314" s="57" t="s">
-        <v>2398</v>
+      <c r="D314" s="89"/>
+      <c r="E314" s="56" t="s">
+        <v>2397</v>
       </c>
       <c r="F314" s="6"/>
       <c r="G314" s="11" t="s">
@@ -23378,31 +23777,33 @@
         <v>219</v>
       </c>
       <c r="K314" s="20" t="s">
+        <v>2400</v>
+      </c>
+      <c r="L314" s="20" t="s">
         <v>2401</v>
       </c>
-      <c r="L314" s="20" t="s">
+      <c r="M314" s="20" t="s">
         <v>2402</v>
       </c>
-      <c r="M314" s="20" t="s">
+      <c r="N314" s="11" t="s">
         <v>2403</v>
-      </c>
-      <c r="N314" s="11" t="s">
-        <v>2404</v>
       </c>
       <c r="O314" s="6"/>
       <c r="P314" s="2"/>
     </row>
     <row r="315" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A315" s="9"/>
+      <c r="A315" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B315" s="29" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C315" s="29" t="s">
         <v>2406</v>
       </c>
-      <c r="C315" s="29" t="s">
-        <v>2407</v>
-      </c>
-      <c r="D315" s="33"/>
-      <c r="E315" s="57" t="s">
-        <v>2405</v>
+      <c r="D315" s="89"/>
+      <c r="E315" s="56" t="s">
+        <v>2404</v>
       </c>
       <c r="F315" s="6"/>
       <c r="G315" s="11" t="s">
@@ -23415,34 +23816,36 @@
         <v>644</v>
       </c>
       <c r="J315" s="20" t="s">
+        <v>2410</v>
+      </c>
+      <c r="K315" s="20" t="s">
         <v>2411</v>
       </c>
-      <c r="K315" s="20" t="s">
-        <v>2412</v>
-      </c>
       <c r="L315" s="20" t="s">
+        <v>2407</v>
+      </c>
+      <c r="M315" s="20" t="s">
         <v>2408</v>
       </c>
-      <c r="M315" s="20" t="s">
+      <c r="N315" s="11" t="s">
         <v>2409</v>
-      </c>
-      <c r="N315" s="11" t="s">
-        <v>2410</v>
       </c>
       <c r="O315" s="6"/>
       <c r="P315" s="2"/>
     </row>
     <row r="316" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A316" s="9"/>
+      <c r="A316" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B316" s="29" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="C316" s="29" t="s">
-        <v>2414</v>
-      </c>
-      <c r="D316" s="33"/>
-      <c r="E316" s="57" t="s">
         <v>2413</v>
+      </c>
+      <c r="D316" s="89"/>
+      <c r="E316" s="56" t="s">
+        <v>2412</v>
       </c>
       <c r="F316" s="6"/>
       <c r="G316" s="11" t="s">
@@ -23458,31 +23861,33 @@
         <v>219</v>
       </c>
       <c r="K316" s="20" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="L316" s="20" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="M316" s="20" t="s">
         <v>2099</v>
       </c>
       <c r="N316" s="11" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="O316" s="6"/>
       <c r="P316" s="2"/>
     </row>
     <row r="317" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A317" s="9"/>
+      <c r="A317" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B317" s="29" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C317" s="29" t="s">
         <v>2420</v>
       </c>
-      <c r="C317" s="29" t="s">
+      <c r="D317" s="89"/>
+      <c r="E317" s="56" t="s">
         <v>2421</v>
-      </c>
-      <c r="D317" s="33"/>
-      <c r="E317" s="57" t="s">
-        <v>2422</v>
       </c>
       <c r="F317" s="6"/>
       <c r="G317" s="11" t="s">
@@ -23501,28 +23906,30 @@
         <v>656</v>
       </c>
       <c r="L317" s="20" t="s">
+        <v>2417</v>
+      </c>
+      <c r="M317" s="20" t="s">
         <v>2418</v>
       </c>
-      <c r="M317" s="20" t="s">
-        <v>2419</v>
-      </c>
       <c r="N317" s="11" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="O317" s="6"/>
       <c r="P317" s="2"/>
     </row>
     <row r="318" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A318" s="9"/>
+      <c r="A318" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B318" s="29" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C318" s="29" t="s">
         <v>2426</v>
       </c>
-      <c r="C318" s="29" t="s">
+      <c r="D318" s="89"/>
+      <c r="E318" s="56" t="s">
         <v>2427</v>
-      </c>
-      <c r="D318" s="33"/>
-      <c r="E318" s="57" t="s">
-        <v>2428</v>
       </c>
       <c r="F318" s="6"/>
       <c r="G318" s="11" t="s">
@@ -23538,31 +23945,33 @@
         <v>655</v>
       </c>
       <c r="K318" s="20" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="L318" s="20" t="s">
+        <v>2422</v>
+      </c>
+      <c r="M318" s="20" t="s">
         <v>2423</v>
       </c>
-      <c r="M318" s="20" t="s">
+      <c r="N318" s="11" t="s">
         <v>2424</v>
-      </c>
-      <c r="N318" s="11" t="s">
-        <v>2425</v>
       </c>
       <c r="O318" s="6"/>
       <c r="P318" s="2"/>
     </row>
     <row r="319" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A319" s="9"/>
+      <c r="A319" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B319" s="29" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C319" s="29" t="s">
         <v>2433</v>
       </c>
-      <c r="C319" s="29" t="s">
+      <c r="D319" s="89"/>
+      <c r="E319" s="56" t="s">
         <v>2434</v>
-      </c>
-      <c r="D319" s="33"/>
-      <c r="E319" s="57" t="s">
-        <v>2435</v>
       </c>
       <c r="F319" s="6"/>
       <c r="G319" s="11" t="s">
@@ -23575,36 +23984,38 @@
         <v>2116</v>
       </c>
       <c r="J319" s="20" t="s">
+        <v>2435</v>
+      </c>
+      <c r="K319" s="20" t="s">
         <v>2436</v>
       </c>
-      <c r="K319" s="20" t="s">
+      <c r="L319" s="20" t="s">
+        <v>2429</v>
+      </c>
+      <c r="M319" s="20" t="s">
+        <v>2430</v>
+      </c>
+      <c r="N319" s="11" t="s">
+        <v>2431</v>
+      </c>
+      <c r="O319" s="6"/>
+      <c r="P319" s="59" t="s">
         <v>2437</v>
       </c>
-      <c r="L319" s="20" t="s">
-        <v>2430</v>
-      </c>
-      <c r="M319" s="20" t="s">
-        <v>2431</v>
-      </c>
-      <c r="N319" s="11" t="s">
-        <v>2432</v>
-      </c>
-      <c r="O319" s="6"/>
-      <c r="P319" s="60" t="s">
+    </row>
+    <row r="320" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A320" s="9" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B320" s="29" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C320" s="29" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D320" s="89"/>
+      <c r="E320" s="56" t="s">
         <v>2438</v>
-      </c>
-    </row>
-    <row r="320" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A320" s="9"/>
-      <c r="B320" s="29" t="s">
-        <v>2442</v>
-      </c>
-      <c r="C320" s="29" t="s">
-        <v>2443</v>
-      </c>
-      <c r="D320" s="33"/>
-      <c r="E320" s="57" t="s">
-        <v>2439</v>
       </c>
       <c r="F320" s="6"/>
       <c r="G320" s="11" t="s">
@@ -23617,34 +24028,36 @@
         <v>644</v>
       </c>
       <c r="J320" s="20" t="s">
+        <v>2444</v>
+      </c>
+      <c r="K320" s="20" t="s">
         <v>2445</v>
       </c>
-      <c r="K320" s="20" t="s">
-        <v>2446</v>
-      </c>
       <c r="L320" s="20" t="s">
+        <v>2439</v>
+      </c>
+      <c r="M320" s="20" t="s">
         <v>2440</v>
       </c>
-      <c r="M320" s="20" t="s">
-        <v>2441</v>
-      </c>
       <c r="N320" s="11" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="O320" s="6"/>
       <c r="P320" s="2"/>
     </row>
     <row r="321" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A321" s="9"/>
+      <c r="A321" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B321" s="29" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C321" s="29" t="s">
         <v>2448</v>
       </c>
-      <c r="C321" s="29" t="s">
-        <v>2449</v>
-      </c>
-      <c r="D321" s="33"/>
-      <c r="E321" s="57" t="s">
-        <v>2447</v>
+      <c r="D321" s="89"/>
+      <c r="E321" s="56" t="s">
+        <v>2446</v>
       </c>
       <c r="F321" s="6"/>
       <c r="G321" s="11" t="s">
@@ -23660,31 +24073,33 @@
         <v>219</v>
       </c>
       <c r="K321" s="20" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="L321" s="20" t="s">
+        <v>2449</v>
+      </c>
+      <c r="M321" s="20" t="s">
         <v>2450</v>
       </c>
-      <c r="M321" s="20" t="s">
+      <c r="N321" s="11" t="s">
         <v>2451</v>
-      </c>
-      <c r="N321" s="11" t="s">
-        <v>2452</v>
       </c>
       <c r="O321" s="6"/>
       <c r="P321" s="2"/>
     </row>
     <row r="322" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A322" s="9"/>
+      <c r="A322" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B322" s="29" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C322" s="29" t="s">
         <v>2457</v>
       </c>
-      <c r="C322" s="29" t="s">
+      <c r="D322" s="89"/>
+      <c r="E322" s="56" t="s">
         <v>2458</v>
-      </c>
-      <c r="D322" s="33"/>
-      <c r="E322" s="57" t="s">
-        <v>2459</v>
       </c>
       <c r="F322" s="6"/>
       <c r="G322" s="11" t="s">
@@ -23703,28 +24118,30 @@
         <v>1872</v>
       </c>
       <c r="L322" s="20" t="s">
+        <v>2453</v>
+      </c>
+      <c r="M322" s="20" t="s">
         <v>2454</v>
       </c>
-      <c r="M322" s="20" t="s">
+      <c r="N322" s="11" t="s">
         <v>2455</v>
-      </c>
-      <c r="N322" s="11" t="s">
-        <v>2456</v>
       </c>
       <c r="O322" s="6"/>
       <c r="P322" s="2"/>
     </row>
     <row r="323" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A323" s="9"/>
+      <c r="A323" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B323" s="29" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C323" s="29" t="s">
         <v>2466</v>
       </c>
-      <c r="C323" s="29" t="s">
-        <v>2467</v>
-      </c>
-      <c r="D323" s="33"/>
-      <c r="E323" s="57" t="s">
-        <v>2465</v>
+      <c r="D323" s="89"/>
+      <c r="E323" s="56" t="s">
+        <v>2464</v>
       </c>
       <c r="F323" s="6"/>
       <c r="G323" s="11" t="s">
@@ -23737,34 +24154,36 @@
         <v>118</v>
       </c>
       <c r="J323" s="20" t="s">
+        <v>2462</v>
+      </c>
+      <c r="K323" s="20" t="s">
         <v>2463</v>
       </c>
-      <c r="K323" s="20" t="s">
-        <v>2464</v>
-      </c>
       <c r="L323" s="20" t="s">
+        <v>2459</v>
+      </c>
+      <c r="M323" s="20" t="s">
         <v>2460</v>
       </c>
-      <c r="M323" s="20" t="s">
+      <c r="N323" s="11" t="s">
         <v>2461</v>
-      </c>
-      <c r="N323" s="11" t="s">
-        <v>2462</v>
       </c>
       <c r="O323" s="6"/>
       <c r="P323" s="2"/>
     </row>
     <row r="324" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A324" s="9"/>
+      <c r="A324" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B324" s="29" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C324" s="29" t="s">
         <v>2471</v>
       </c>
-      <c r="C324" s="29" t="s">
+      <c r="D324" s="89"/>
+      <c r="E324" s="56" t="s">
         <v>2472</v>
-      </c>
-      <c r="D324" s="33"/>
-      <c r="E324" s="57" t="s">
-        <v>2473</v>
       </c>
       <c r="F324" s="6"/>
       <c r="G324" s="11" t="s">
@@ -23780,31 +24199,33 @@
         <v>1206</v>
       </c>
       <c r="K324" s="20" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="L324" s="20" t="s">
+        <v>2467</v>
+      </c>
+      <c r="M324" s="20" t="s">
         <v>2468</v>
       </c>
-      <c r="M324" s="20" t="s">
+      <c r="N324" s="11" t="s">
         <v>2469</v>
-      </c>
-      <c r="N324" s="11" t="s">
-        <v>2470</v>
       </c>
       <c r="O324" s="6"/>
       <c r="P324" s="2"/>
     </row>
     <row r="325" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A325" s="9"/>
+      <c r="A325" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B325" s="29" t="s">
+        <v>2476</v>
+      </c>
+      <c r="C325" s="29" t="s">
         <v>2477</v>
       </c>
-      <c r="C325" s="29" t="s">
+      <c r="D325" s="89"/>
+      <c r="E325" s="56" t="s">
         <v>2478</v>
-      </c>
-      <c r="D325" s="33"/>
-      <c r="E325" s="57" t="s">
-        <v>2479</v>
       </c>
       <c r="F325" s="6"/>
       <c r="G325" s="11" t="s">
@@ -23817,34 +24238,36 @@
         <v>118</v>
       </c>
       <c r="J325" s="20" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="K325" s="20" t="s">
         <v>143</v>
       </c>
       <c r="L325" s="20" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="M325" s="20" t="s">
         <v>1767</v>
       </c>
       <c r="N325" s="11" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="O325" s="6"/>
       <c r="P325" s="2"/>
     </row>
     <row r="326" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A326" s="9"/>
+      <c r="A326" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B326" s="29" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C326" s="29" t="s">
         <v>2482</v>
       </c>
-      <c r="C326" s="29" t="s">
-        <v>2483</v>
-      </c>
-      <c r="D326" s="33"/>
-      <c r="E326" s="57" t="s">
-        <v>2481</v>
+      <c r="D326" s="89"/>
+      <c r="E326" s="56" t="s">
+        <v>2480</v>
       </c>
       <c r="F326" s="6"/>
       <c r="G326" s="11" t="s">
@@ -23857,76 +24280,80 @@
         <v>376</v>
       </c>
       <c r="J326" s="20" t="s">
+        <v>2486</v>
+      </c>
+      <c r="K326" s="20" t="s">
         <v>2487</v>
       </c>
-      <c r="K326" s="20" t="s">
-        <v>2488</v>
-      </c>
       <c r="L326" s="20" t="s">
+        <v>2483</v>
+      </c>
+      <c r="M326" s="20" t="s">
         <v>2484</v>
       </c>
-      <c r="M326" s="20" t="s">
+      <c r="N326" s="11" t="s">
         <v>2485</v>
-      </c>
-      <c r="N326" s="11" t="s">
-        <v>2486</v>
       </c>
       <c r="O326" s="6"/>
       <c r="P326" s="2"/>
     </row>
     <row r="327" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A327" s="9"/>
+      <c r="A327" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B327" s="29" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C327" s="29" t="s">
         <v>2493</v>
       </c>
-      <c r="C327" s="29" t="s">
+      <c r="D327" s="89"/>
+      <c r="E327" s="56" t="s">
         <v>2494</v>
-      </c>
-      <c r="D327" s="33"/>
-      <c r="E327" s="57" t="s">
-        <v>2495</v>
       </c>
       <c r="F327" s="6"/>
       <c r="G327" s="11" t="s">
         <v>35</v>
       </c>
       <c r="H327" s="20" t="s">
+        <v>2245</v>
+      </c>
+      <c r="I327" s="20" t="s">
         <v>2246</v>
-      </c>
-      <c r="I327" s="20" t="s">
-        <v>2247</v>
       </c>
       <c r="J327" s="20" t="s">
         <v>597</v>
       </c>
       <c r="K327" s="20" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="L327" s="20" t="s">
+        <v>2489</v>
+      </c>
+      <c r="M327" s="20" t="s">
         <v>2490</v>
       </c>
-      <c r="M327" s="20" t="s">
+      <c r="N327" s="11" t="s">
         <v>2491</v>
       </c>
-      <c r="N327" s="11" t="s">
-        <v>2492</v>
-      </c>
       <c r="O327" s="6"/>
-      <c r="P327" s="60" t="s">
-        <v>2489</v>
+      <c r="P327" s="59" t="s">
+        <v>2488</v>
       </c>
     </row>
     <row r="328" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A328" s="9"/>
+      <c r="A328" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B328" s="29" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C328" s="29" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D328" s="89"/>
+      <c r="E328" s="56" t="s">
         <v>2502</v>
-      </c>
-      <c r="C328" s="29" t="s">
-        <v>2501</v>
-      </c>
-      <c r="D328" s="33"/>
-      <c r="E328" s="57" t="s">
-        <v>2503</v>
       </c>
       <c r="F328" s="6"/>
       <c r="G328" s="11" t="s">
@@ -23945,28 +24372,30 @@
         <v>1461</v>
       </c>
       <c r="L328" s="20" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="M328" s="20" t="s">
+        <v>2498</v>
+      </c>
+      <c r="N328" s="11" t="s">
         <v>2499</v>
-      </c>
-      <c r="N328" s="11" t="s">
-        <v>2500</v>
       </c>
       <c r="O328" s="6"/>
       <c r="P328" s="2"/>
     </row>
     <row r="329" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A329" s="9"/>
+      <c r="A329" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B329" s="29" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C329" s="29" t="s">
         <v>2505</v>
       </c>
-      <c r="C329" s="29" t="s">
-        <v>2506</v>
-      </c>
-      <c r="D329" s="33"/>
-      <c r="E329" s="57" t="s">
-        <v>2504</v>
+      <c r="D329" s="89"/>
+      <c r="E329" s="56" t="s">
+        <v>2503</v>
       </c>
       <c r="F329" s="6"/>
       <c r="G329" s="11" t="s">
@@ -23985,28 +24414,30 @@
         <v>1461</v>
       </c>
       <c r="L329" s="20" t="s">
+        <v>2496</v>
+      </c>
+      <c r="M329" s="20" t="s">
+        <v>2498</v>
+      </c>
+      <c r="N329" s="11" t="s">
         <v>2497</v>
-      </c>
-      <c r="M329" s="20" t="s">
-        <v>2499</v>
-      </c>
-      <c r="N329" s="11" t="s">
-        <v>2498</v>
       </c>
       <c r="O329" s="6"/>
       <c r="P329" s="2"/>
     </row>
     <row r="330" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A330" s="9"/>
+      <c r="A330" s="9" t="s">
+        <v>2586</v>
+      </c>
       <c r="B330" s="29" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C330" s="29" t="s">
         <v>2507</v>
       </c>
-      <c r="C330" s="29" t="s">
+      <c r="D330" s="89"/>
+      <c r="E330" s="56" t="s">
         <v>2508</v>
-      </c>
-      <c r="D330" s="33"/>
-      <c r="E330" s="57" t="s">
-        <v>2509</v>
       </c>
       <c r="F330" s="6"/>
       <c r="G330" s="11" t="s">
@@ -24025,323 +24456,655 @@
         <v>1461</v>
       </c>
       <c r="L330" s="20" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="M330" s="20" t="s">
+        <v>2509</v>
+      </c>
+      <c r="N330" s="11" t="s">
         <v>2510</v>
-      </c>
-      <c r="N330" s="11" t="s">
-        <v>2511</v>
       </c>
       <c r="O330" s="6"/>
       <c r="P330" s="2"/>
     </row>
     <row r="331" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A331" s="9"/>
-      <c r="B331" s="29"/>
-      <c r="C331" s="29"/>
-      <c r="D331" s="33"/>
-      <c r="E331" s="57"/>
+      <c r="A331" s="9" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B331" s="29" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C331" s="29" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D331" s="89"/>
+      <c r="E331" s="56" t="s">
+        <v>2517</v>
+      </c>
       <c r="F331" s="6"/>
       <c r="G331" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H331" s="20"/>
-      <c r="I331" s="20"/>
-      <c r="J331" s="20"/>
-      <c r="K331" s="20"/>
-      <c r="L331" s="20"/>
-      <c r="M331" s="20"/>
-      <c r="N331" s="11"/>
+      <c r="H331" s="20" t="s">
+        <v>1838</v>
+      </c>
+      <c r="I331" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J331" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K331" s="20" t="s">
+        <v>2514</v>
+      </c>
+      <c r="L331" s="20" t="s">
+        <v>2511</v>
+      </c>
+      <c r="M331" s="20" t="s">
+        <v>2512</v>
+      </c>
+      <c r="N331" s="11" t="s">
+        <v>2513</v>
+      </c>
       <c r="O331" s="6"/>
       <c r="P331" s="2"/>
     </row>
     <row r="332" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A332" s="9"/>
-      <c r="B332" s="29"/>
-      <c r="C332" s="29"/>
-      <c r="D332" s="33"/>
-      <c r="E332" s="57"/>
+      <c r="A332" s="9" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B332" s="29" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C332" s="29" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D332" s="89"/>
+      <c r="E332" s="56" t="s">
+        <v>2519</v>
+      </c>
       <c r="F332" s="6"/>
       <c r="G332" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H332" s="20"/>
-      <c r="I332" s="20"/>
-      <c r="J332" s="20"/>
-      <c r="K332" s="20"/>
-      <c r="L332" s="20"/>
-      <c r="M332" s="20"/>
-      <c r="N332" s="11"/>
+      <c r="H332" s="20" t="s">
+        <v>2518</v>
+      </c>
+      <c r="I332" s="20" t="s">
+        <v>844</v>
+      </c>
+      <c r="J332" s="20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K332" s="20" t="s">
+        <v>1138</v>
+      </c>
+      <c r="L332" s="20" t="s">
+        <v>1139</v>
+      </c>
+      <c r="M332" s="20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N332" s="11" t="s">
+        <v>1141</v>
+      </c>
       <c r="O332" s="6"/>
       <c r="P332" s="2"/>
     </row>
     <row r="333" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A333" s="9"/>
-      <c r="B333" s="29"/>
-      <c r="C333" s="29"/>
-      <c r="D333" s="33"/>
-      <c r="E333" s="57"/>
+      <c r="A333" s="9" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B333" s="29" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C333" s="29" t="s">
+        <v>2525</v>
+      </c>
+      <c r="D333" s="89"/>
+      <c r="E333" s="56" t="s">
+        <v>2523</v>
+      </c>
       <c r="F333" s="6"/>
       <c r="G333" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H333" s="20"/>
-      <c r="I333" s="20"/>
-      <c r="J333" s="20"/>
-      <c r="K333" s="20"/>
-      <c r="L333" s="20"/>
-      <c r="M333" s="20"/>
-      <c r="N333" s="11"/>
+      <c r="H333" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I333" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J333" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K333" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L333" s="20" t="s">
+        <v>2520</v>
+      </c>
+      <c r="M333" s="20" t="s">
+        <v>2521</v>
+      </c>
+      <c r="N333" s="11" t="s">
+        <v>2522</v>
+      </c>
       <c r="O333" s="6"/>
       <c r="P333" s="2"/>
     </row>
     <row r="334" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A334" s="9"/>
-      <c r="B334" s="29"/>
-      <c r="C334" s="29"/>
-      <c r="D334" s="33"/>
-      <c r="E334" s="57"/>
+      <c r="A334" s="9" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B334" s="29" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C334" s="29" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D334" s="89"/>
+      <c r="E334" s="56" t="s">
+        <v>2531</v>
+      </c>
       <c r="F334" s="6"/>
       <c r="G334" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H334" s="20"/>
-      <c r="I334" s="20"/>
-      <c r="J334" s="20"/>
-      <c r="K334" s="20"/>
-      <c r="L334" s="20"/>
-      <c r="M334" s="20"/>
-      <c r="N334" s="11"/>
+      <c r="H334" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I334" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J334" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K334" s="20" t="s">
+        <v>1909</v>
+      </c>
+      <c r="L334" s="20" t="s">
+        <v>2526</v>
+      </c>
+      <c r="M334" s="20" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N334" s="11" t="s">
+        <v>2528</v>
+      </c>
       <c r="O334" s="6"/>
       <c r="P334" s="2"/>
     </row>
     <row r="335" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A335" s="9"/>
-      <c r="B335" s="29"/>
-      <c r="C335" s="29"/>
-      <c r="D335" s="33"/>
-      <c r="E335" s="57"/>
+      <c r="A335" s="9" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B335" s="29" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C335" s="29" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D335" s="89"/>
+      <c r="E335" s="56" t="s">
+        <v>2537</v>
+      </c>
       <c r="F335" s="6"/>
       <c r="G335" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H335" s="20"/>
-      <c r="I335" s="20"/>
-      <c r="J335" s="20"/>
-      <c r="K335" s="20"/>
-      <c r="L335" s="20"/>
-      <c r="M335" s="20"/>
-      <c r="N335" s="11"/>
+      <c r="H335" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I335" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J335" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K335" s="20" t="s">
+        <v>1909</v>
+      </c>
+      <c r="L335" s="20" t="s">
+        <v>2526</v>
+      </c>
+      <c r="M335" s="20" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N335" s="11" t="s">
+        <v>2535</v>
+      </c>
       <c r="O335" s="6"/>
       <c r="P335" s="2"/>
     </row>
     <row r="336" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A336" s="9"/>
-      <c r="B336" s="29"/>
-      <c r="C336" s="29"/>
-      <c r="D336" s="33"/>
-      <c r="E336" s="57"/>
+      <c r="A336" s="9" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B336" s="29" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C336" s="29" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D336" s="89"/>
+      <c r="E336" s="56" t="s">
+        <v>2536</v>
+      </c>
       <c r="F336" s="6"/>
       <c r="G336" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H336" s="20"/>
-      <c r="I336" s="20"/>
-      <c r="J336" s="20"/>
-      <c r="K336" s="20"/>
-      <c r="L336" s="20"/>
-      <c r="M336" s="20"/>
-      <c r="N336" s="11"/>
+      <c r="H336" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I336" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J336" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K336" s="20" t="s">
+        <v>1909</v>
+      </c>
+      <c r="L336" s="20" t="s">
+        <v>2526</v>
+      </c>
+      <c r="M336" s="20" t="s">
+        <v>2540</v>
+      </c>
+      <c r="N336" s="11" t="s">
+        <v>2541</v>
+      </c>
       <c r="O336" s="6"/>
       <c r="P336" s="2"/>
     </row>
     <row r="337" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A337" s="9"/>
-      <c r="B337" s="29"/>
-      <c r="C337" s="29"/>
-      <c r="D337" s="33"/>
-      <c r="E337" s="57"/>
+      <c r="A337" s="9" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B337" s="29" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C337" s="29" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D337" s="89"/>
+      <c r="E337" s="56" t="s">
+        <v>2542</v>
+      </c>
       <c r="F337" s="6"/>
       <c r="G337" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H337" s="20"/>
-      <c r="I337" s="20"/>
-      <c r="J337" s="20"/>
-      <c r="K337" s="20"/>
-      <c r="L337" s="20"/>
-      <c r="M337" s="20"/>
-      <c r="N337" s="11"/>
+      <c r="H337" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I337" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J337" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K337" s="20" t="s">
+        <v>1909</v>
+      </c>
+      <c r="L337" s="20" t="s">
+        <v>2526</v>
+      </c>
+      <c r="M337" s="20" t="s">
+        <v>2545</v>
+      </c>
+      <c r="N337" s="11" t="s">
+        <v>2546</v>
+      </c>
       <c r="O337" s="6"/>
       <c r="P337" s="2"/>
     </row>
     <row r="338" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A338" s="9"/>
-      <c r="B338" s="29"/>
-      <c r="C338" s="29"/>
-      <c r="D338" s="33"/>
-      <c r="E338" s="57"/>
+      <c r="A338" s="9" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B338" s="29" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C338" s="29" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D338" s="89"/>
+      <c r="E338" s="56" t="s">
+        <v>2547</v>
+      </c>
       <c r="F338" s="6"/>
       <c r="G338" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H338" s="20"/>
-      <c r="I338" s="20"/>
-      <c r="J338" s="20"/>
-      <c r="K338" s="20"/>
-      <c r="L338" s="20"/>
-      <c r="M338" s="20"/>
-      <c r="N338" s="11"/>
+      <c r="H338" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I338" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J338" s="20" t="s">
+        <v>1188</v>
+      </c>
+      <c r="K338" s="20" t="s">
+        <v>1189</v>
+      </c>
+      <c r="L338" s="20" t="s">
+        <v>1190</v>
+      </c>
+      <c r="M338" s="20" t="s">
+        <v>1191</v>
+      </c>
+      <c r="N338" s="78" t="s">
+        <v>2550</v>
+      </c>
       <c r="O338" s="6"/>
       <c r="P338" s="2"/>
     </row>
     <row r="339" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A339" s="9"/>
-      <c r="B339" s="29"/>
-      <c r="C339" s="29"/>
-      <c r="D339" s="33"/>
-      <c r="E339" s="57"/>
+      <c r="A339" s="9" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B339" s="29" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C339" s="29" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D339" s="89"/>
+      <c r="E339" s="56" t="s">
+        <v>2553</v>
+      </c>
       <c r="F339" s="6"/>
       <c r="G339" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H339" s="20"/>
-      <c r="I339" s="20"/>
-      <c r="J339" s="20"/>
-      <c r="K339" s="20"/>
-      <c r="L339" s="20"/>
-      <c r="M339" s="20"/>
-      <c r="N339" s="11"/>
+      <c r="H339" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I339" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J339" s="20" t="s">
+        <v>1188</v>
+      </c>
+      <c r="K339" s="20" t="s">
+        <v>1189</v>
+      </c>
+      <c r="L339" s="20" t="s">
+        <v>1190</v>
+      </c>
+      <c r="M339" s="20" t="s">
+        <v>2554</v>
+      </c>
+      <c r="N339" s="11" t="s">
+        <v>2555</v>
+      </c>
       <c r="O339" s="6"/>
       <c r="P339" s="2"/>
     </row>
     <row r="340" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A340" s="9"/>
-      <c r="B340" s="29"/>
-      <c r="C340" s="29"/>
-      <c r="D340" s="33"/>
-      <c r="E340" s="57"/>
+      <c r="A340" s="9" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B340" s="29" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C340" s="29" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D340" s="89"/>
+      <c r="E340" s="56" t="s">
+        <v>2556</v>
+      </c>
       <c r="F340" s="6"/>
       <c r="G340" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H340" s="20"/>
-      <c r="I340" s="20"/>
-      <c r="J340" s="20"/>
-      <c r="K340" s="20"/>
-      <c r="L340" s="20"/>
-      <c r="M340" s="20"/>
-      <c r="N340" s="11"/>
+      <c r="H340" s="20" t="s">
+        <v>2518</v>
+      </c>
+      <c r="I340" s="20" t="s">
+        <v>844</v>
+      </c>
+      <c r="J340" s="20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K340" s="20" t="s">
+        <v>1138</v>
+      </c>
+      <c r="L340" s="20" t="s">
+        <v>1146</v>
+      </c>
+      <c r="M340" s="20" t="s">
+        <v>1147</v>
+      </c>
+      <c r="N340" s="11" t="s">
+        <v>1148</v>
+      </c>
       <c r="O340" s="6"/>
       <c r="P340" s="2"/>
     </row>
     <row r="341" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A341" s="9"/>
-      <c r="B341" s="29"/>
-      <c r="C341" s="29"/>
-      <c r="D341" s="33"/>
-      <c r="E341" s="57"/>
+      <c r="A341" s="9" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B341" s="29" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C341" s="29" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D341" s="89"/>
+      <c r="E341" s="56" t="s">
+        <v>2561</v>
+      </c>
       <c r="F341" s="6"/>
       <c r="G341" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H341" s="20"/>
-      <c r="I341" s="20"/>
-      <c r="J341" s="20"/>
-      <c r="K341" s="20"/>
-      <c r="L341" s="20"/>
-      <c r="M341" s="20"/>
-      <c r="N341" s="11"/>
+      <c r="H341" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I341" s="20" t="s">
+        <v>2562</v>
+      </c>
+      <c r="J341" s="20" t="s">
+        <v>2563</v>
+      </c>
+      <c r="K341" s="20" t="s">
+        <v>2564</v>
+      </c>
+      <c r="L341" s="20" t="s">
+        <v>2557</v>
+      </c>
+      <c r="M341" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="N341" s="11" t="s">
+        <v>2558</v>
+      </c>
       <c r="O341" s="6"/>
       <c r="P341" s="2"/>
     </row>
     <row r="342" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A342" s="9"/>
-      <c r="B342" s="29"/>
-      <c r="C342" s="29"/>
-      <c r="D342" s="33"/>
-      <c r="E342" s="57"/>
+      <c r="A342" s="9" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B342" s="29" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C342" s="29" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D342" s="89"/>
+      <c r="E342" s="78" t="s">
+        <v>2565</v>
+      </c>
       <c r="F342" s="6"/>
       <c r="G342" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H342" s="20"/>
-      <c r="I342" s="20"/>
-      <c r="J342" s="20"/>
-      <c r="K342" s="20"/>
-      <c r="L342" s="20"/>
-      <c r="M342" s="20"/>
-      <c r="N342" s="11"/>
+      <c r="H342" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I342" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J342" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K342" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L342" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="M342" s="20" t="s">
+        <v>2567</v>
+      </c>
+      <c r="N342" s="11" t="s">
+        <v>2566</v>
+      </c>
       <c r="O342" s="6"/>
       <c r="P342" s="2"/>
     </row>
     <row r="343" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A343" s="9"/>
-      <c r="B343" s="29"/>
-      <c r="C343" s="29"/>
-      <c r="D343" s="33"/>
-      <c r="E343" s="57"/>
+      <c r="A343" s="9" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B343" s="29" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C343" s="29" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D343" s="89"/>
+      <c r="E343" s="56" t="s">
+        <v>2570</v>
+      </c>
       <c r="F343" s="6"/>
       <c r="G343" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H343" s="20"/>
-      <c r="I343" s="20"/>
-      <c r="J343" s="20"/>
-      <c r="K343" s="20"/>
-      <c r="L343" s="20"/>
-      <c r="M343" s="20"/>
-      <c r="N343" s="11"/>
+      <c r="H343" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I343" s="20" t="s">
+        <v>1864</v>
+      </c>
+      <c r="J343" s="20" t="s">
+        <v>2573</v>
+      </c>
+      <c r="K343" s="20" t="s">
+        <v>2574</v>
+      </c>
+      <c r="L343" s="20" t="s">
+        <v>2575</v>
+      </c>
+      <c r="M343" s="20" t="s">
+        <v>2576</v>
+      </c>
+      <c r="N343" s="11" t="s">
+        <v>2577</v>
+      </c>
       <c r="O343" s="6"/>
       <c r="P343" s="2"/>
     </row>
     <row r="344" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A344" s="9"/>
-      <c r="B344" s="29"/>
-      <c r="C344" s="29"/>
-      <c r="D344" s="33"/>
-      <c r="E344" s="57"/>
+      <c r="A344" s="9" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B344" s="29" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C344" s="29" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D344" s="89"/>
+      <c r="E344" s="56" t="s">
+        <v>2579</v>
+      </c>
       <c r="F344" s="6"/>
       <c r="G344" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H344" s="20"/>
-      <c r="I344" s="20"/>
-      <c r="J344" s="20"/>
-      <c r="K344" s="20"/>
-      <c r="L344" s="20"/>
-      <c r="M344" s="20"/>
-      <c r="N344" s="11"/>
+      <c r="H344" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I344" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J344" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K344" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L344" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="M344" s="20" t="s">
+        <v>2578</v>
+      </c>
+      <c r="N344" s="11" t="s">
+        <v>2582</v>
+      </c>
       <c r="O344" s="6"/>
       <c r="P344" s="2"/>
     </row>
     <row r="345" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A345" s="9"/>
-      <c r="B345" s="29"/>
-      <c r="C345" s="29"/>
-      <c r="D345" s="33"/>
-      <c r="E345" s="57"/>
+      <c r="A345" s="9" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B345" s="29" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C345" s="29" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D345" s="89"/>
+      <c r="E345" s="56" t="s">
+        <v>2591</v>
+      </c>
       <c r="F345" s="6"/>
       <c r="G345" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H345" s="20"/>
-      <c r="I345" s="20"/>
-      <c r="J345" s="20"/>
-      <c r="K345" s="20"/>
-      <c r="L345" s="20"/>
-      <c r="M345" s="20"/>
-      <c r="N345" s="11"/>
+      <c r="H345" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I345" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J345" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K345" s="20" t="s">
+        <v>2223</v>
+      </c>
+      <c r="L345" s="20" t="s">
+        <v>2224</v>
+      </c>
+      <c r="M345" s="20" t="s">
+        <v>2588</v>
+      </c>
+      <c r="N345" s="11" t="s">
+        <v>2589</v>
+      </c>
       <c r="O345" s="6"/>
-      <c r="P345" s="2"/>
+      <c r="P345" s="59" t="s">
+        <v>2590</v>
+      </c>
     </row>
     <row r="346" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="9"/>
       <c r="B346" s="29"/>
       <c r="C346" s="29"/>
-      <c r="D346" s="33"/>
-      <c r="E346" s="57"/>
+      <c r="D346" s="89"/>
+      <c r="E346" s="56"/>
       <c r="F346" s="6"/>
       <c r="G346" s="11" t="s">
         <v>35</v>
@@ -24352,7 +25115,6 @@
       <c r="K346" s="20"/>
       <c r="L346" s="20"/>
       <c r="M346" s="20"/>
-      <c r="N346" s="11"/>
       <c r="O346" s="6"/>
       <c r="P346" s="2"/>
     </row>
@@ -24360,8 +25122,8 @@
       <c r="A347" s="9"/>
       <c r="B347" s="29"/>
       <c r="C347" s="29"/>
-      <c r="D347" s="33"/>
-      <c r="E347" s="57"/>
+      <c r="D347" s="89"/>
+      <c r="E347" s="56"/>
       <c r="F347" s="6"/>
       <c r="G347" s="11" t="s">
         <v>35</v>
@@ -24380,8 +25142,8 @@
       <c r="A348" s="9"/>
       <c r="B348" s="29"/>
       <c r="C348" s="29"/>
-      <c r="D348" s="33"/>
-      <c r="E348" s="57"/>
+      <c r="D348" s="89"/>
+      <c r="E348" s="56"/>
       <c r="F348" s="6"/>
       <c r="G348" s="11" t="s">
         <v>35</v>
@@ -24400,8 +25162,8 @@
       <c r="A349" s="9"/>
       <c r="B349" s="29"/>
       <c r="C349" s="29"/>
-      <c r="D349" s="33"/>
-      <c r="E349" s="57"/>
+      <c r="D349" s="89"/>
+      <c r="E349" s="56"/>
       <c r="F349" s="6"/>
       <c r="G349" s="11" t="s">
         <v>35</v>
@@ -24420,8 +25182,8 @@
       <c r="A350" s="9"/>
       <c r="B350" s="29"/>
       <c r="C350" s="29"/>
-      <c r="D350" s="33"/>
-      <c r="E350" s="57"/>
+      <c r="D350" s="89"/>
+      <c r="E350" s="56"/>
       <c r="F350" s="6"/>
       <c r="G350" s="11" t="s">
         <v>35</v>
@@ -24440,8 +25202,8 @@
       <c r="A351" s="9"/>
       <c r="B351" s="29"/>
       <c r="C351" s="29"/>
-      <c r="D351" s="33"/>
-      <c r="E351" s="57"/>
+      <c r="D351" s="89"/>
+      <c r="E351" s="56"/>
       <c r="F351" s="6"/>
       <c r="G351" s="11" t="s">
         <v>35</v>
@@ -24460,8 +25222,8 @@
       <c r="A352" s="9"/>
       <c r="B352" s="29"/>
       <c r="C352" s="29"/>
-      <c r="D352" s="33"/>
-      <c r="E352" s="57"/>
+      <c r="D352" s="89"/>
+      <c r="E352" s="56"/>
       <c r="F352" s="6"/>
       <c r="G352" s="11" t="s">
         <v>35</v>
@@ -24480,8 +25242,8 @@
       <c r="A353" s="9"/>
       <c r="B353" s="29"/>
       <c r="C353" s="29"/>
-      <c r="D353" s="33"/>
-      <c r="E353" s="57"/>
+      <c r="D353" s="89"/>
+      <c r="E353" s="56"/>
       <c r="F353" s="6"/>
       <c r="G353" s="11" t="s">
         <v>35</v>
@@ -24500,8 +25262,8 @@
       <c r="A354" s="9"/>
       <c r="B354" s="29"/>
       <c r="C354" s="29"/>
-      <c r="D354" s="33"/>
-      <c r="E354" s="57"/>
+      <c r="D354" s="89"/>
+      <c r="E354" s="56"/>
       <c r="F354" s="6"/>
       <c r="G354" s="11" t="s">
         <v>35</v>
@@ -24520,8 +25282,8 @@
       <c r="A355" s="9"/>
       <c r="B355" s="29"/>
       <c r="C355" s="29"/>
-      <c r="D355" s="33"/>
-      <c r="E355" s="57"/>
+      <c r="D355" s="89"/>
+      <c r="E355" s="56"/>
       <c r="F355" s="6"/>
       <c r="G355" s="11" t="s">
         <v>35</v>
@@ -24540,8 +25302,8 @@
       <c r="A356" s="9"/>
       <c r="B356" s="29"/>
       <c r="C356" s="29"/>
-      <c r="D356" s="33"/>
-      <c r="E356" s="57"/>
+      <c r="D356" s="89"/>
+      <c r="E356" s="56"/>
       <c r="F356" s="6"/>
       <c r="G356" s="11" t="s">
         <v>35</v>
@@ -24560,8 +25322,8 @@
       <c r="A357" s="9"/>
       <c r="B357" s="29"/>
       <c r="C357" s="29"/>
-      <c r="D357" s="33"/>
-      <c r="E357" s="57"/>
+      <c r="D357" s="89"/>
+      <c r="E357" s="56"/>
       <c r="F357" s="6"/>
       <c r="G357" s="11" t="s">
         <v>35</v>
@@ -24580,8 +25342,8 @@
       <c r="A358" s="9"/>
       <c r="B358" s="29"/>
       <c r="C358" s="29"/>
-      <c r="D358" s="33"/>
-      <c r="E358" s="57"/>
+      <c r="D358" s="89"/>
+      <c r="E358" s="56"/>
       <c r="F358" s="6"/>
       <c r="G358" s="11" t="s">
         <v>35</v>
@@ -24600,8 +25362,8 @@
       <c r="A359" s="9"/>
       <c r="B359" s="29"/>
       <c r="C359" s="29"/>
-      <c r="D359" s="33"/>
-      <c r="E359" s="57"/>
+      <c r="D359" s="89"/>
+      <c r="E359" s="56"/>
       <c r="F359" s="6"/>
       <c r="G359" s="11" t="s">
         <v>35</v>
@@ -24620,8 +25382,8 @@
       <c r="A360" s="9"/>
       <c r="B360" s="29"/>
       <c r="C360" s="29"/>
-      <c r="D360" s="33"/>
-      <c r="E360" s="57"/>
+      <c r="D360" s="89"/>
+      <c r="E360" s="56"/>
       <c r="F360" s="6"/>
       <c r="G360" s="11" t="s">
         <v>35</v>
@@ -24640,8 +25402,8 @@
       <c r="A361" s="9"/>
       <c r="B361" s="29"/>
       <c r="C361" s="29"/>
-      <c r="D361" s="33"/>
-      <c r="E361" s="57"/>
+      <c r="D361" s="89"/>
+      <c r="E361" s="56"/>
       <c r="F361" s="6"/>
       <c r="G361" s="11" t="s">
         <v>35</v>
@@ -24660,8 +25422,8 @@
       <c r="A362" s="9"/>
       <c r="B362" s="29"/>
       <c r="C362" s="29"/>
-      <c r="D362" s="33"/>
-      <c r="E362" s="57"/>
+      <c r="D362" s="89"/>
+      <c r="E362" s="56"/>
       <c r="F362" s="6"/>
       <c r="G362" s="11" t="s">
         <v>35</v>
@@ -24680,8 +25442,8 @@
       <c r="A363" s="9"/>
       <c r="B363" s="29"/>
       <c r="C363" s="29"/>
-      <c r="D363" s="33"/>
-      <c r="E363" s="57"/>
+      <c r="D363" s="89"/>
+      <c r="E363" s="56"/>
       <c r="F363" s="6"/>
       <c r="G363" s="11" t="s">
         <v>35</v>
@@ -24700,8 +25462,8 @@
       <c r="A364" s="9"/>
       <c r="B364" s="29"/>
       <c r="C364" s="29"/>
-      <c r="D364" s="33"/>
-      <c r="E364" s="57"/>
+      <c r="D364" s="89"/>
+      <c r="E364" s="56"/>
       <c r="F364" s="6"/>
       <c r="G364" s="11" t="s">
         <v>35</v>
@@ -24720,8 +25482,8 @@
       <c r="A365" s="9"/>
       <c r="B365" s="29"/>
       <c r="C365" s="29"/>
-      <c r="D365" s="33"/>
-      <c r="E365" s="57"/>
+      <c r="D365" s="89"/>
+      <c r="E365" s="56"/>
       <c r="F365" s="6"/>
       <c r="G365" s="11" t="s">
         <v>35</v>
@@ -24740,8 +25502,8 @@
       <c r="A366" s="9"/>
       <c r="B366" s="29"/>
       <c r="C366" s="29"/>
-      <c r="D366" s="33"/>
-      <c r="E366" s="57"/>
+      <c r="D366" s="89"/>
+      <c r="E366" s="56"/>
       <c r="F366" s="6"/>
       <c r="G366" s="11" t="s">
         <v>35</v>
@@ -24760,8 +25522,8 @@
       <c r="A367" s="9"/>
       <c r="B367" s="29"/>
       <c r="C367" s="29"/>
-      <c r="D367" s="33"/>
-      <c r="E367" s="57"/>
+      <c r="D367" s="89"/>
+      <c r="E367" s="56"/>
       <c r="F367" s="6"/>
       <c r="G367" s="11" t="s">
         <v>35</v>
@@ -24780,8 +25542,8 @@
       <c r="A368" s="9"/>
       <c r="B368" s="29"/>
       <c r="C368" s="29"/>
-      <c r="D368" s="33"/>
-      <c r="E368" s="57"/>
+      <c r="D368" s="89"/>
+      <c r="E368" s="56"/>
       <c r="F368" s="6"/>
       <c r="G368" s="11" t="s">
         <v>35</v>
@@ -24800,8 +25562,8 @@
       <c r="A369" s="9"/>
       <c r="B369" s="29"/>
       <c r="C369" s="29"/>
-      <c r="D369" s="33"/>
-      <c r="E369" s="57"/>
+      <c r="D369" s="89"/>
+      <c r="E369" s="56"/>
       <c r="F369" s="6"/>
       <c r="G369" s="11" t="s">
         <v>35</v>
@@ -24820,8 +25582,8 @@
       <c r="A370" s="9"/>
       <c r="B370" s="29"/>
       <c r="C370" s="29"/>
-      <c r="D370" s="33"/>
-      <c r="E370" s="57"/>
+      <c r="D370" s="89"/>
+      <c r="E370" s="56"/>
       <c r="F370" s="6"/>
       <c r="G370" s="11" t="s">
         <v>35</v>
@@ -24840,8 +25602,8 @@
       <c r="A371" s="9"/>
       <c r="B371" s="29"/>
       <c r="C371" s="29"/>
-      <c r="D371" s="33"/>
-      <c r="E371" s="57"/>
+      <c r="D371" s="89"/>
+      <c r="E371" s="56"/>
       <c r="F371" s="6"/>
       <c r="G371" s="11" t="s">
         <v>35</v>
@@ -24860,8 +25622,8 @@
       <c r="A372" s="9"/>
       <c r="B372" s="29"/>
       <c r="C372" s="29"/>
-      <c r="D372" s="33"/>
-      <c r="E372" s="57"/>
+      <c r="D372" s="89"/>
+      <c r="E372" s="56"/>
       <c r="F372" s="6"/>
       <c r="G372" s="11" t="s">
         <v>35</v>
@@ -24880,8 +25642,8 @@
       <c r="A373" s="9"/>
       <c r="B373" s="29"/>
       <c r="C373" s="29"/>
-      <c r="D373" s="33"/>
-      <c r="E373" s="57"/>
+      <c r="D373" s="89"/>
+      <c r="E373" s="56"/>
       <c r="F373" s="6"/>
       <c r="G373" s="11" t="s">
         <v>35</v>
@@ -24900,8 +25662,8 @@
       <c r="A374" s="9"/>
       <c r="B374" s="29"/>
       <c r="C374" s="29"/>
-      <c r="D374" s="33"/>
-      <c r="E374" s="57"/>
+      <c r="D374" s="89"/>
+      <c r="E374" s="56"/>
       <c r="F374" s="6"/>
       <c r="G374" s="11" t="s">
         <v>35</v>
@@ -24920,8 +25682,8 @@
       <c r="A375" s="9"/>
       <c r="B375" s="29"/>
       <c r="C375" s="29"/>
-      <c r="D375" s="33"/>
-      <c r="E375" s="57"/>
+      <c r="D375" s="89"/>
+      <c r="E375" s="56"/>
       <c r="F375" s="6"/>
       <c r="G375" s="11" t="s">
         <v>35</v>
@@ -24940,8 +25702,8 @@
       <c r="A376" s="9"/>
       <c r="B376" s="29"/>
       <c r="C376" s="29"/>
-      <c r="D376" s="33"/>
-      <c r="E376" s="57"/>
+      <c r="D376" s="89"/>
+      <c r="E376" s="56"/>
       <c r="F376" s="6"/>
       <c r="G376" s="11" t="s">
         <v>35</v>
@@ -24960,8 +25722,8 @@
       <c r="A377" s="9"/>
       <c r="B377" s="29"/>
       <c r="C377" s="29"/>
-      <c r="D377" s="33"/>
-      <c r="E377" s="57"/>
+      <c r="D377" s="89"/>
+      <c r="E377" s="56"/>
       <c r="F377" s="6"/>
       <c r="G377" s="11" t="s">
         <v>35</v>
@@ -24980,8 +25742,8 @@
       <c r="A378" s="9"/>
       <c r="B378" s="29"/>
       <c r="C378" s="29"/>
-      <c r="D378" s="33"/>
-      <c r="E378" s="57"/>
+      <c r="D378" s="89"/>
+      <c r="E378" s="56"/>
       <c r="F378" s="6"/>
       <c r="G378" s="11" t="s">
         <v>35</v>
@@ -25000,8 +25762,8 @@
       <c r="A379" s="9"/>
       <c r="B379" s="29"/>
       <c r="C379" s="29"/>
-      <c r="D379" s="33"/>
-      <c r="E379" s="57"/>
+      <c r="D379" s="89"/>
+      <c r="E379" s="56"/>
       <c r="F379" s="6"/>
       <c r="G379" s="11" t="s">
         <v>35</v>
@@ -25020,8 +25782,8 @@
       <c r="A380" s="9"/>
       <c r="B380" s="29"/>
       <c r="C380" s="29"/>
-      <c r="D380" s="33"/>
-      <c r="E380" s="57"/>
+      <c r="D380" s="89"/>
+      <c r="E380" s="56"/>
       <c r="F380" s="6"/>
       <c r="G380" s="11" t="s">
         <v>35</v>
@@ -25040,8 +25802,8 @@
       <c r="A381" s="9"/>
       <c r="B381" s="29"/>
       <c r="C381" s="29"/>
-      <c r="D381" s="33"/>
-      <c r="E381" s="57"/>
+      <c r="D381" s="89"/>
+      <c r="E381" s="56"/>
       <c r="F381" s="6"/>
       <c r="G381" s="11" t="s">
         <v>35</v>
@@ -25060,8 +25822,8 @@
       <c r="A382" s="9"/>
       <c r="B382" s="29"/>
       <c r="C382" s="29"/>
-      <c r="D382" s="33"/>
-      <c r="E382" s="57"/>
+      <c r="D382" s="89"/>
+      <c r="E382" s="56"/>
       <c r="F382" s="6"/>
       <c r="G382" s="11" t="s">
         <v>35</v>
@@ -25080,8 +25842,8 @@
       <c r="A383" s="9"/>
       <c r="B383" s="29"/>
       <c r="C383" s="29"/>
-      <c r="D383" s="33"/>
-      <c r="E383" s="57"/>
+      <c r="D383" s="89"/>
+      <c r="E383" s="56"/>
       <c r="F383" s="6"/>
       <c r="G383" s="11" t="s">
         <v>35</v>
@@ -25100,8 +25862,8 @@
       <c r="A384" s="9"/>
       <c r="B384" s="29"/>
       <c r="C384" s="29"/>
-      <c r="D384" s="33"/>
-      <c r="E384" s="57"/>
+      <c r="D384" s="89"/>
+      <c r="E384" s="56"/>
       <c r="F384" s="6"/>
       <c r="G384" s="11" t="s">
         <v>35</v>
@@ -25120,8 +25882,8 @@
       <c r="A385" s="9"/>
       <c r="B385" s="29"/>
       <c r="C385" s="29"/>
-      <c r="D385" s="33"/>
-      <c r="E385" s="57"/>
+      <c r="D385" s="89"/>
+      <c r="E385" s="56"/>
       <c r="F385" s="6"/>
       <c r="G385" s="11" t="s">
         <v>35</v>
@@ -25140,8 +25902,8 @@
       <c r="A386" s="9"/>
       <c r="B386" s="29"/>
       <c r="C386" s="29"/>
-      <c r="D386" s="33"/>
-      <c r="E386" s="57"/>
+      <c r="D386" s="89"/>
+      <c r="E386" s="56"/>
       <c r="F386" s="6"/>
       <c r="G386" s="11" t="s">
         <v>35</v>
@@ -25157,7 +25919,7 @@
       <c r="P386" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:P231">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P231">
     <sortCondition ref="L1:L231"/>
   </sortState>
   <dataConsolidate/>
@@ -25587,6 +26349,7 @@
     <hyperlink ref="E268" r:id="rId422" display="https://www.ncbi.nlm.nih.gov/assembly/GCF_000168235.2" xr:uid="{C7D5E9B9-37F8-7245-8D59-82813EDAA3B3}"/>
     <hyperlink ref="E287" r:id="rId423" display="https://www.ncbi.nlm.nih.gov/assembly/GCF_000007405.1" xr:uid="{60CFB097-8127-E041-BE5C-2AE29C1024AA}"/>
     <hyperlink ref="E174" r:id="rId424" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E343" r:id="rId425" display="https://www.ncbi.nlm.nih.gov/assembly/GCF_000381005.1" xr:uid="{10A003D8-2707-5749-9921-3E91BEF4B07C}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -25616,193 +26379,193 @@
     <col min="16" max="16" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="62" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:16" s="61" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="60" t="s">
         <v>1756</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>1747</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="61" t="s">
+      <c r="O1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="60" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62" t="s">
         <v>1745</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="62" t="s">
         <v>1748</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="56" t="s">
         <v>1746</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="63" t="s">
         <v>1754</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="62" t="s">
         <v>1749</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="62" t="s">
         <v>1750</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="62" t="s">
         <v>1751</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="62" t="s">
         <v>1752</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="62" t="s">
         <v>1753</v>
       </c>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="62" t="s">
         <v>1755</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
-      <c r="A3" s="63"/>
+      <c r="A3" s="62"/>
       <c r="B3" t="s">
         <v>1761</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="62" t="s">
         <v>1760</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="56" t="s">
         <v>1800</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="62" t="s">
         <v>1764</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="62" t="s">
         <v>1749</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="62" t="s">
         <v>1757</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="L3" s="62" t="s">
         <v>1758</v>
       </c>
-      <c r="M3" s="63" t="s">
+      <c r="M3" s="62" t="s">
         <v>1759</v>
       </c>
-      <c r="N3" s="63" t="s">
+      <c r="N3" s="62" t="s">
         <v>1762</v>
       </c>
-      <c r="P3" s="63" t="s">
+      <c r="P3" s="62" t="s">
         <v>1763</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="63"/>
-      <c r="H4" s="63" t="s">
+      <c r="A4" s="62"/>
+      <c r="H4" s="62" t="s">
         <v>1749</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="42" x14ac:dyDescent="0.15">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="62" t="s">
         <v>1802</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="62" t="s">
         <v>1803</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>1801</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>1804</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="62" t="s">
         <v>1749</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="62" t="s">
         <v>1805</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="62" t="s">
         <v>1806</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="62" t="s">
         <v>1807</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="62" t="s">
         <v>1808</v>
       </c>
-      <c r="N5" s="63" t="s">
+      <c r="N5" s="62" t="s">
         <v>1809</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="63"/>
-      <c r="H6" s="63" t="s">
+      <c r="A6" s="62"/>
+      <c r="H6" s="62" t="s">
         <v>1749</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="63"/>
-      <c r="H7" s="63" t="s">
+      <c r="A7" s="62"/>
+      <c r="H7" s="62" t="s">
         <v>1749</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="63"/>
-      <c r="H8" s="63" t="s">
+      <c r="A8" s="62"/>
+      <c r="H8" s="62" t="s">
         <v>1749</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="63"/>
-      <c r="H9" s="63" t="s">
+      <c r="A9" s="62"/>
+      <c r="H9" s="62" t="s">
         <v>1749</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="63"/>
-      <c r="H10" s="63" t="s">
+      <c r="A10" s="62"/>
+      <c r="H10" s="62" t="s">
         <v>1749</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="62" t="s">
         <v>1749</v>
       </c>
     </row>
@@ -28898,7 +29661,7 @@
       <c r="A206" s="31" t="s">
         <v>1551</v>
       </c>
-      <c r="B206" s="59" t="s">
+      <c r="B206" s="58" t="s">
         <v>1736</v>
       </c>
       <c r="C206" s="31" t="s">
@@ -28928,7 +29691,7 @@
       <c r="A208" s="31" t="s">
         <v>1551</v>
       </c>
-      <c r="B208" s="59" t="s">
+      <c r="B208" s="58" t="s">
         <v>1738</v>
       </c>
       <c r="C208" s="31" t="s">
@@ -28973,7 +29736,7 @@
       <c r="A211" s="31" t="s">
         <v>1551</v>
       </c>
-      <c r="B211" s="59" t="s">
+      <c r="B211" s="58" t="s">
         <v>1741</v>
       </c>
       <c r="C211" s="31" t="s">
@@ -28998,7 +29761,7 @@
       <c r="A214" s="31" t="s">
         <v>1551</v>
       </c>
-      <c r="B214" s="59" t="s">
+      <c r="B214" s="58" t="s">
         <v>1742</v>
       </c>
       <c r="C214" s="31" t="s">
@@ -29030,7 +29793,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C205">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C205">
     <sortCondition ref="B1:B205"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">

--- a/flag/AQB_classification/species_list_10071623_NJMc.xlsx
+++ b/flag/AQB_classification/species_list_10071623_NJMc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/bioinfRhints/flag/AQB_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC887E5-D9BF-8946-BE99-069C44FDD0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70940D68-8C6E-5A47-AB5C-E86BAC3825EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6180" yWindow="500" windowWidth="34040" windowHeight="20820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="2596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5611" uniqueCount="2908">
   <si>
     <t>Download script?</t>
   </si>
@@ -9003,12 +9003,1022 @@
   <si>
     <t>NJM_2023-07-18_end</t>
   </si>
+  <si>
+    <t>Budvicia</t>
+  </si>
+  <si>
+    <t>aquatica</t>
+  </si>
+  <si>
+    <t>Leminorella</t>
+  </si>
+  <si>
+    <t>grimontii</t>
+  </si>
+  <si>
+    <t>Atlantibacter</t>
+  </si>
+  <si>
+    <t>hermannii</t>
+  </si>
+  <si>
+    <t>DDE1</t>
+  </si>
+  <si>
+    <t>Buttiauxella</t>
+  </si>
+  <si>
+    <t>warmboldiae</t>
+  </si>
+  <si>
+    <t>CCUG 35512</t>
+  </si>
+  <si>
+    <t>Citrobacter</t>
+  </si>
+  <si>
+    <t>Cronobacter</t>
+  </si>
+  <si>
+    <t>condimenti</t>
+  </si>
+  <si>
+    <t>LMG 26250</t>
+  </si>
+  <si>
+    <t>Enterobacter</t>
+  </si>
+  <si>
+    <t>bugandensis</t>
+  </si>
+  <si>
+    <t>GN02283</t>
+  </si>
+  <si>
+    <t>DS36577</t>
+  </si>
+  <si>
+    <t>MRY13-0312</t>
+  </si>
+  <si>
+    <t>GN03164</t>
+  </si>
+  <si>
+    <t>Pluralibacter</t>
+  </si>
+  <si>
+    <t>gergoviae</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Pseudocitrobacter</t>
+  </si>
+  <si>
+    <t>DSM 27453</t>
+  </si>
+  <si>
+    <t>Erwinia</t>
+  </si>
+  <si>
+    <t>amylovora</t>
+  </si>
+  <si>
+    <t>typographi</t>
+  </si>
+  <si>
+    <t>M043b</t>
+  </si>
+  <si>
+    <t>Mixta</t>
+  </si>
+  <si>
+    <t>theicola</t>
+  </si>
+  <si>
+    <t>QC88-366</t>
+  </si>
+  <si>
+    <t>Pantoea</t>
+  </si>
+  <si>
+    <t>agglomerans</t>
+  </si>
+  <si>
+    <t>ES418</t>
+  </si>
+  <si>
+    <t>cancerogenus</t>
+  </si>
+  <si>
+    <t>M004</t>
+  </si>
+  <si>
+    <t>dispersa</t>
+  </si>
+  <si>
+    <t>NS375</t>
+  </si>
+  <si>
+    <t>septica</t>
+  </si>
+  <si>
+    <t>LMG 5345</t>
+  </si>
+  <si>
+    <t>Tatumella</t>
+  </si>
+  <si>
+    <t>citrea</t>
+  </si>
+  <si>
+    <t>ATCC 39140</t>
+  </si>
+  <si>
+    <t>ptyseos</t>
+  </si>
+  <si>
+    <t>ATCC 33301</t>
+  </si>
+  <si>
+    <t>Wigglesworthia</t>
+  </si>
+  <si>
+    <t>glossinidia</t>
+  </si>
+  <si>
+    <t>Hafnia</t>
+  </si>
+  <si>
+    <t>paralvei</t>
+  </si>
+  <si>
+    <t>ATCC 51873</t>
+  </si>
+  <si>
+    <t>Obesumbacterium</t>
+  </si>
+  <si>
+    <t>proteus</t>
+  </si>
+  <si>
+    <t>DSM 2777</t>
+  </si>
+  <si>
+    <t>Xenorhabdus</t>
+  </si>
+  <si>
+    <t>hominickii</t>
+  </si>
+  <si>
+    <t>ANU1</t>
+  </si>
+  <si>
+    <t>Biostraticola</t>
+  </si>
+  <si>
+    <t>tofi</t>
+  </si>
+  <si>
+    <t>DSM 19580</t>
+  </si>
+  <si>
+    <t>Sodalis</t>
+  </si>
+  <si>
+    <t>praecaptivus</t>
+  </si>
+  <si>
+    <t>HS1</t>
+  </si>
+  <si>
+    <t>Rahnella</t>
+  </si>
+  <si>
+    <t>variigena</t>
+  </si>
+  <si>
+    <t>VCR3</t>
+  </si>
+  <si>
+    <t>Rouxiella</t>
+  </si>
+  <si>
+    <t>chamberiensis</t>
+  </si>
+  <si>
+    <t>bercovieri</t>
+  </si>
+  <si>
+    <t>FE80217</t>
+  </si>
+  <si>
+    <t>enterocolitica</t>
+  </si>
+  <si>
+    <t>ATCC 9610</t>
+  </si>
+  <si>
+    <t>mollaretii</t>
+  </si>
+  <si>
+    <t>ATCC 43969</t>
+  </si>
+  <si>
+    <t>sp. nov 3</t>
+  </si>
+  <si>
+    <t>RS-42</t>
+  </si>
+  <si>
+    <t>SCPM-O-B-8031</t>
+  </si>
+  <si>
+    <t>LS1</t>
+  </si>
+  <si>
+    <t>5flag_systems</t>
+  </si>
+  <si>
+    <t>Isolation source</t>
+  </si>
+  <si>
+    <t>Habitat/Lifestyle</t>
+  </si>
+  <si>
+    <r>
+      <t>flag-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>flag-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>flag-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>flag-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>flag-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>flag-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Freshwater</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ATYS01000002</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Clinical</t>
+  </si>
+  <si>
+    <t>JMPN01000025</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Saprophyte</t>
+  </si>
+  <si>
+    <t>JXTQ01000002/JXTQ01000004/JXTQ01000012</t>
+  </si>
+  <si>
+    <t>Animal (mollusc)</t>
+  </si>
+  <si>
+    <t>Commensal</t>
+  </si>
+  <si>
+    <t>RPOH01000013/RPOH01000087/RPOH01000099</t>
+  </si>
+  <si>
+    <t>RPOH01000019</t>
+  </si>
+  <si>
+    <t>RPOH01000021/RPOH01000045</t>
+  </si>
+  <si>
+    <t>Food (vegetable)</t>
+  </si>
+  <si>
+    <t>PQMB01000001/PQMB01000002</t>
+  </si>
+  <si>
+    <t>PQMB01000002</t>
+  </si>
+  <si>
+    <t>PQMB01000009</t>
+  </si>
+  <si>
+    <t>Food (meat)</t>
+  </si>
+  <si>
+    <t>CP012264</t>
+  </si>
+  <si>
+    <t>LEEJ01000009/LEEJ01000037</t>
+  </si>
+  <si>
+    <t>LEEJ01000009</t>
+  </si>
+  <si>
+    <t>NPNJ01000003/NPNJ01000009/NPNJ01000013</t>
+  </si>
+  <si>
+    <t>BBUQ01000002/BBUQ01000029/BBUQ01000096</t>
+  </si>
+  <si>
+    <t>BBUQ01000003</t>
+  </si>
+  <si>
+    <t>LECZ01000022/LECZ01000027</t>
+  </si>
+  <si>
+    <t>LECZ01000026</t>
+  </si>
+  <si>
+    <t>LECZ01000022</t>
+  </si>
+  <si>
+    <t>LDVW01000001/LDVW01000024/LDVW01000232/LDVW01000304</t>
+  </si>
+  <si>
+    <t>LDVW01000009/LDVW01000176</t>
+  </si>
+  <si>
+    <t>QNRL01000001/QNRL01000007</t>
+  </si>
+  <si>
+    <t>QNRL010000007</t>
+  </si>
+  <si>
+    <t>Pathogen</t>
+  </si>
+  <si>
+    <t>NC_013971</t>
+  </si>
+  <si>
+    <t>JRUQ01000004/JRUQ01000012/JRUQ01000050</t>
+  </si>
+  <si>
+    <t>JRUQ01000037</t>
+  </si>
+  <si>
+    <t>Food (Tea)</t>
+  </si>
+  <si>
+    <t>NWUO01000001/NWUO01000013/NWUO01000019</t>
+  </si>
+  <si>
+    <t>NWUO01000009</t>
+  </si>
+  <si>
+    <t>Soil</t>
+  </si>
+  <si>
+    <t>SIJO01000001/SIJO01000012/SIJO01000014</t>
+  </si>
+  <si>
+    <t>SIJO01000011</t>
+  </si>
+  <si>
+    <t>JRUP01000004/JRUP01000014/JRUP01000027/JRUP01000050</t>
+  </si>
+  <si>
+    <t>JRUP01000018</t>
+  </si>
+  <si>
+    <t>LDRZ01000002/LDRZ01000004/LDRZ01000018</t>
+  </si>
+  <si>
+    <t>LDRZ01000002</t>
+  </si>
+  <si>
+    <t>MLJJ01000001/MLJJ01000006</t>
+  </si>
+  <si>
+    <t>MLJJ01000004</t>
+  </si>
+  <si>
+    <t>CP015581</t>
+  </si>
+  <si>
+    <t>JMPR01000018</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Symbiont</t>
+  </si>
+  <si>
+    <t>NC_016893</t>
+  </si>
+  <si>
+    <t>JH417506/JH417511/JH417529</t>
+  </si>
+  <si>
+    <t>JH417556</t>
+  </si>
+  <si>
+    <t>Food (Brewery yeast)</t>
+  </si>
+  <si>
+    <t>CP014608</t>
+  </si>
+  <si>
+    <t>NC_020418</t>
+  </si>
+  <si>
+    <t>Nematoda</t>
+  </si>
+  <si>
+    <t>CP016176</t>
+  </si>
+  <si>
+    <t>SMCR01000005</t>
+  </si>
+  <si>
+    <t>CP006569</t>
+  </si>
+  <si>
+    <t>QKVV01000001/QKVV01000002</t>
+  </si>
+  <si>
+    <t>QKVV01000001</t>
+  </si>
+  <si>
+    <t>Hospital associated</t>
+  </si>
+  <si>
+    <t>JRWU01000005</t>
+  </si>
+  <si>
+    <t>CGBH01000002/CGBH01000010</t>
+  </si>
+  <si>
+    <t>CGBH01000020/CGBH01000030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGBH01000009 </t>
+  </si>
+  <si>
+    <t>KN150735</t>
+  </si>
+  <si>
+    <t>AALD02000039/AALD02000060/AALD02000087</t>
+  </si>
+  <si>
+    <t>AALD02000012</t>
+  </si>
+  <si>
+    <t>Animal (Ovine)</t>
+  </si>
+  <si>
+    <t>Zoonotic Reservoir/Pathogen</t>
+  </si>
+  <si>
+    <t>CP006748</t>
+  </si>
+  <si>
+    <t>Food (Meat)</t>
+  </si>
+  <si>
+    <t>CQDT01000002</t>
+  </si>
+  <si>
+    <t>CQDT01000007</t>
+  </si>
+  <si>
+    <t>MWTJ01000013</t>
+  </si>
+  <si>
+    <t>Animal (Fish)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUNJ01000005 </t>
+  </si>
+  <si>
+    <t>MUNJ01000006</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>3ish</t>
+  </si>
+  <si>
+    <t>3plain</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>which</t>
+  </si>
+  <si>
+    <t>flag-2</t>
+  </si>
+  <si>
+    <t>flag-1</t>
+  </si>
+  <si>
+    <t>flag-1, flag-2, flag-3b</t>
+  </si>
+  <si>
+    <t>flag-3</t>
+  </si>
+  <si>
+    <t>flag-1, flag-3a</t>
+  </si>
+  <si>
+    <t>flag-1, flag-2, flag-3a</t>
+  </si>
+  <si>
+    <t>flag-3b</t>
+  </si>
+  <si>
+    <t>flag-1, flag-2</t>
+  </si>
+  <si>
+    <t>flag-3a</t>
+  </si>
+  <si>
+    <t>flag-1, flag-3b</t>
+  </si>
+  <si>
+    <t>flag-4</t>
+  </si>
+  <si>
+    <t>flag-1, flag-4</t>
+  </si>
+  <si>
+    <t>flag-2, flag-5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>S646</t>
+  </si>
+  <si>
+    <t>DSM 5075, ATCC 35567</t>
+  </si>
+  <si>
+    <t>GCA_000427805.1</t>
+  </si>
+  <si>
+    <t>GCF_000427805.1</t>
+  </si>
+  <si>
+    <t>ASM42780v1</t>
+  </si>
+  <si>
+    <t>ATCC 33999 = DSM 5078</t>
+  </si>
+  <si>
+    <t>GCA_000439085.1</t>
+  </si>
+  <si>
+    <t>GCF_000439085.1</t>
+  </si>
+  <si>
+    <t>ASM43908v1</t>
+  </si>
+  <si>
+    <t>GCA_000878365.1</t>
+  </si>
+  <si>
+    <t>GCF_000878365.1</t>
+  </si>
+  <si>
+    <t>ASM87836v1</t>
+  </si>
+  <si>
+    <t>GCA_003818135.1</t>
+  </si>
+  <si>
+    <t>GCF_003818135.1</t>
+  </si>
+  <si>
+    <t>ASM381813v1</t>
+  </si>
+  <si>
+    <t>formerly Citrobacter Clade C Citrobacter sp. nov 6 S646</t>
+  </si>
+  <si>
+    <t>amalonaticus</t>
+  </si>
+  <si>
+    <t>GCA_002918555.1</t>
+  </si>
+  <si>
+    <t>GCF_002918555.1</t>
+  </si>
+  <si>
+    <t>ASM291855v1</t>
+  </si>
+  <si>
+    <t>GCA_000319285.1</t>
+  </si>
+  <si>
+    <t>GCF_000319285.1</t>
+  </si>
+  <si>
+    <t>ASM31928v1</t>
+  </si>
+  <si>
+    <t>GCA_001023305.1</t>
+  </si>
+  <si>
+    <t>GCF_001023305.1</t>
+  </si>
+  <si>
+    <t>ASM102330v1</t>
+  </si>
+  <si>
+    <t>GCA_002278205.1</t>
+  </si>
+  <si>
+    <t>GCF_002278205.1</t>
+  </si>
+  <si>
+    <t>ASM227820v1</t>
+  </si>
+  <si>
+    <t>on GenBank, Enterobacter cloacae Strain: DS36577</t>
+  </si>
+  <si>
+    <t>on GenBank, Enterobacter cloacae Strain: MRY13-0312</t>
+  </si>
+  <si>
+    <t>GCA_000953895.1</t>
+  </si>
+  <si>
+    <t>GCF_000953895.1</t>
+  </si>
+  <si>
+    <t>ASM95389v1</t>
+  </si>
+  <si>
+    <t>on GenBank, Enterobacter	sp. nov 10	GN03164</t>
+  </si>
+  <si>
+    <t>genomosp. O</t>
+  </si>
+  <si>
+    <t>GCA_001022965.1</t>
+  </si>
+  <si>
+    <t>GCF_001022965.1</t>
+  </si>
+  <si>
+    <t>ASM102296v1</t>
+  </si>
+  <si>
+    <t>GCA_001276415.1</t>
+  </si>
+  <si>
+    <t>GCF_001276415.1</t>
+  </si>
+  <si>
+    <t>ASM127641v1</t>
+  </si>
+  <si>
+    <t>ASM1465305v1</t>
+  </si>
+  <si>
+    <t>GCA_014653055.1</t>
+  </si>
+  <si>
+    <t>GCF_014653055.1</t>
+  </si>
+  <si>
+    <t>GCA_000027205.1</t>
+  </si>
+  <si>
+    <t>GCF_000027205.1</t>
+  </si>
+  <si>
+    <t>ASM2720v1</t>
+  </si>
+  <si>
+    <t>ATCC 49946, Ea273</t>
+  </si>
+  <si>
+    <t>GCF_000773975.1</t>
+  </si>
+  <si>
+    <t>GCA_000773975.1</t>
+  </si>
+  <si>
+    <t>ASM77397v1</t>
+  </si>
+  <si>
+    <t>GCA_002895925.1</t>
+  </si>
+  <si>
+    <t>GCF_002895925.1</t>
+  </si>
+  <si>
+    <t>ASM289592v1</t>
+  </si>
+  <si>
+    <t>GCA_004344785.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCF_004344785.1 </t>
+  </si>
+  <si>
+    <t>ASM434478v1</t>
+  </si>
+  <si>
+    <t>GCA_000773965.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCF_000773965.1 </t>
+  </si>
+  <si>
+    <t>ASM77396v1</t>
+  </si>
+  <si>
+    <t>formerly Pantoea cancerogenus M004</t>
+  </si>
+  <si>
+    <t>GCA_001476295.1</t>
+  </si>
+  <si>
+    <t>GCF_001476295.1</t>
+  </si>
+  <si>
+    <t>ASM147629v1</t>
+  </si>
+  <si>
+    <t>ASM209557v1</t>
+  </si>
+  <si>
+    <t>GCA_002095575.1</t>
+  </si>
+  <si>
+    <t>GCF_002095575.1</t>
+  </si>
+  <si>
+    <t>GCA_002163605.1</t>
+  </si>
+  <si>
+    <t>GCF_002163605.1</t>
+  </si>
+  <si>
+    <t>ASM216360v1</t>
+  </si>
+  <si>
+    <t>GCA_000439895.1</t>
+  </si>
+  <si>
+    <t>GCF_000439895.1</t>
+  </si>
+  <si>
+    <t>atcc_33301_v1</t>
+  </si>
+  <si>
+    <t>GCA_000247565.1</t>
+  </si>
+  <si>
+    <t>GCF_000247565.1</t>
+  </si>
+  <si>
+    <t>ASM24756v1</t>
+  </si>
+  <si>
+    <t>endosymbiont of Glossina morsitans</t>
+  </si>
+  <si>
+    <t>GCA_000239255.1</t>
+  </si>
+  <si>
+    <t>GCF_000239255.1</t>
+  </si>
+  <si>
+    <t>ASM23925v1</t>
+  </si>
+  <si>
+    <t>GenBank says: Hafnia alvei</t>
+  </si>
+  <si>
+    <t>ASM158616v1</t>
+  </si>
+  <si>
+    <t>GCA_001586165.1</t>
+  </si>
+  <si>
+    <t>GCF_001586165.1</t>
+  </si>
+  <si>
+    <t>also in 5 flagella paper</t>
+  </si>
+  <si>
+    <t>GCA_001721185.1</t>
+  </si>
+  <si>
+    <t>GCF_001721185.1</t>
+  </si>
+  <si>
+    <t>ASM172118v1</t>
+  </si>
+  <si>
+    <t>GCA_004343195.1</t>
+  </si>
+  <si>
+    <t>GCF_004343195.1</t>
+  </si>
+  <si>
+    <t>ASM434319v1</t>
+  </si>
+  <si>
+    <t>GCA_000517425.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCF_000517425.1 </t>
+  </si>
+  <si>
+    <t>ASM51742v1</t>
+  </si>
+  <si>
+    <t>GCA_004150405.1</t>
+  </si>
+  <si>
+    <t>GCF_004150405.1</t>
+  </si>
+  <si>
+    <t>ASM415040v1</t>
+  </si>
+  <si>
+    <t>GCA_000951135.1</t>
+  </si>
+  <si>
+    <t>GCF_000951135.1</t>
+  </si>
+  <si>
+    <t>ASM95113v1</t>
+  </si>
+  <si>
+    <t>GCA_001319955.1</t>
+  </si>
+  <si>
+    <t>GCF_001319955.1</t>
+  </si>
+  <si>
+    <t>5139_5#3</t>
+  </si>
+  <si>
+    <t>GCA_000755055.1</t>
+  </si>
+  <si>
+    <t>GCF_000755055.1</t>
+  </si>
+  <si>
+    <t>YEG_1</t>
+  </si>
+  <si>
+    <t>ASM16799v1</t>
+  </si>
+  <si>
+    <t>GCA_000167995.1</t>
+  </si>
+  <si>
+    <t>GCF_000167995.1</t>
+  </si>
+  <si>
+    <t>ASM118875v1</t>
+  </si>
+  <si>
+    <t>GCA_001188755.1</t>
+  </si>
+  <si>
+    <t>GCF_001188755.1</t>
+  </si>
+  <si>
+    <t>4840_6#7</t>
+  </si>
+  <si>
+    <t>GCA_001171065.1</t>
+  </si>
+  <si>
+    <t>GCF_001171065.1</t>
+  </si>
+  <si>
+    <t>GCA_002192835.1</t>
+  </si>
+  <si>
+    <t>GCF_002192835.1</t>
+  </si>
+  <si>
+    <t>On GenBank: Yersinia frederiksenii RS-42</t>
+  </si>
+  <si>
+    <t>ASM219283v1</t>
+  </si>
+  <si>
+    <t>GCA_002093895.1</t>
+  </si>
+  <si>
+    <t>GCF_002093895.1</t>
+  </si>
+  <si>
+    <t>ASM209389v1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -9112,6 +10122,63 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -9155,7 +10222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -9295,6 +10362,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -9306,7 +10403,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -9586,6 +10683,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10763,11 +11896,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q386"/>
+  <dimension ref="A1:AC385"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C382" sqref="C382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10784,10 +11917,14 @@
     <col min="15" max="15" width="19.33203125" style="19" customWidth="1"/>
     <col min="16" max="16" width="54.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="16.33203125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="16.33203125" style="1"/>
+    <col min="18" max="18" width="16.33203125" style="1"/>
+    <col min="19" max="27" width="7" style="1" customWidth="1"/>
+    <col min="28" max="28" width="4.83203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="28.5" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="22" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="22" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -10836,8 +11973,47 @@
       <c r="P1" s="25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q1" s="103" t="s">
+        <v>2675</v>
+      </c>
+      <c r="R1" s="103" t="s">
+        <v>2676</v>
+      </c>
+      <c r="S1" s="104" t="s">
+        <v>2677</v>
+      </c>
+      <c r="T1" s="104" t="s">
+        <v>2678</v>
+      </c>
+      <c r="U1" s="104" t="s">
+        <v>2679</v>
+      </c>
+      <c r="V1" s="104" t="s">
+        <v>2680</v>
+      </c>
+      <c r="W1" s="104" t="s">
+        <v>2681</v>
+      </c>
+      <c r="X1" s="104" t="s">
+        <v>2682</v>
+      </c>
+      <c r="Y1" s="110" t="s">
+        <v>2766</v>
+      </c>
+      <c r="Z1" s="110" t="s">
+        <v>2767</v>
+      </c>
+      <c r="AA1" s="110" t="s">
+        <v>2768</v>
+      </c>
+      <c r="AB1" s="110" t="s">
+        <v>2769</v>
+      </c>
+      <c r="AC1" s="111" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="53" t="s">
         <v>16</v>
       </c>
@@ -10883,7 +12059,7 @@
       <c r="O2" s="55"/>
       <c r="P2" s="23"/>
     </row>
-    <row r="3" spans="1:16" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
       <c r="B3" s="29" t="s">
         <v>1007</v>
@@ -10925,7 +12101,7 @@
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="29" t="s">
         <v>1448</v>
@@ -10967,7 +12143,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>1026</v>
@@ -11009,7 +12185,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>1260</v>
@@ -11049,7 +12225,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="29" t="s">
         <v>1150</v>
@@ -11089,7 +12265,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="26" t="s">
         <v>77</v>
@@ -11137,7 +12313,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>77</v>
@@ -11183,7 +12359,7 @@
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:29" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="26" t="s">
         <v>259</v>
@@ -11227,7 +12403,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="26" t="s">
         <v>113</v>
@@ -11269,7 +12445,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:29" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="26" t="s">
         <v>166</v>
@@ -11311,7 +12487,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:29" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="29" t="s">
         <v>1530</v>
@@ -11353,7 +12529,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:29" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>174</v>
@@ -11391,7 +12567,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:29" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>174</v>
@@ -11429,7 +12605,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:29" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>186</v>
@@ -23369,7 +24545,7 @@
       <c r="O304" s="6"/>
       <c r="P304" s="2"/>
     </row>
-    <row r="305" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="9" t="s">
         <v>2586</v>
       </c>
@@ -23411,7 +24587,7 @@
       <c r="O305" s="6"/>
       <c r="P305" s="2"/>
     </row>
-    <row r="306" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="9" t="s">
         <v>2586</v>
       </c>
@@ -23453,7 +24629,7 @@
       <c r="O306" s="6"/>
       <c r="P306" s="2"/>
     </row>
-    <row r="307" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="9" t="s">
         <v>2586</v>
       </c>
@@ -23495,7 +24671,7 @@
       <c r="O307" s="6"/>
       <c r="P307" s="2"/>
     </row>
-    <row r="308" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="9" t="s">
         <v>2586</v>
       </c>
@@ -23537,7 +24713,7 @@
       <c r="O308" s="6"/>
       <c r="P308" s="2"/>
     </row>
-    <row r="309" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="9" t="s">
         <v>2586</v>
       </c>
@@ -23579,7 +24755,7 @@
       <c r="O309" s="6"/>
       <c r="P309" s="2"/>
     </row>
-    <row r="310" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="9" t="s">
         <v>2586</v>
       </c>
@@ -23621,7 +24797,7 @@
       <c r="O310" s="6"/>
       <c r="P310" s="2"/>
     </row>
-    <row r="311" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="9" t="s">
         <v>2586</v>
       </c>
@@ -23663,7 +24839,7 @@
       <c r="O311" s="6"/>
       <c r="P311" s="2"/>
     </row>
-    <row r="312" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="9" t="s">
         <v>2586</v>
       </c>
@@ -23705,7 +24881,7 @@
       <c r="O312" s="6"/>
       <c r="P312" s="2"/>
     </row>
-    <row r="313" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="9" t="s">
         <v>2586</v>
       </c>
@@ -23749,7 +24925,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="9" t="s">
         <v>2586</v>
       </c>
@@ -23791,7 +24967,7 @@
       <c r="O314" s="6"/>
       <c r="P314" s="2"/>
     </row>
-    <row r="315" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="9" t="s">
         <v>2586</v>
       </c>
@@ -23833,7 +25009,7 @@
       <c r="O315" s="6"/>
       <c r="P315" s="2"/>
     </row>
-    <row r="316" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="9" t="s">
         <v>2586</v>
       </c>
@@ -23875,7 +25051,7 @@
       <c r="O316" s="6"/>
       <c r="P316" s="2"/>
     </row>
-    <row r="317" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="9" t="s">
         <v>2586</v>
       </c>
@@ -23915,9 +25091,48 @@
         <v>2403</v>
       </c>
       <c r="O317" s="6"/>
-      <c r="P317" s="2"/>
-    </row>
-    <row r="318" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P317" s="59" t="s">
+        <v>2870</v>
+      </c>
+      <c r="Q317" s="107" t="s">
+        <v>2687</v>
+      </c>
+      <c r="R317" s="97" t="s">
+        <v>2688</v>
+      </c>
+      <c r="S317" s="105" t="s">
+        <v>2741</v>
+      </c>
+      <c r="T317" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U317" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V317" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W317" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X317" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y317" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z317" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA317" s="106"/>
+      <c r="AB317" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC317" s="97" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="318" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="9" t="s">
         <v>2586</v>
       </c>
@@ -23959,7 +25174,7 @@
       <c r="O318" s="6"/>
       <c r="P318" s="2"/>
     </row>
-    <row r="319" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="9" t="s">
         <v>2586</v>
       </c>
@@ -24003,7 +25218,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="9" t="s">
         <v>2586</v>
       </c>
@@ -24719,7 +25934,7 @@
       <c r="O336" s="6"/>
       <c r="P336" s="2"/>
     </row>
-    <row r="337" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="9" t="s">
         <v>2583</v>
       </c>
@@ -24761,7 +25976,7 @@
       <c r="O337" s="6"/>
       <c r="P337" s="2"/>
     </row>
-    <row r="338" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="9" t="s">
         <v>2583</v>
       </c>
@@ -24803,7 +26018,7 @@
       <c r="O338" s="6"/>
       <c r="P338" s="2"/>
     </row>
-    <row r="339" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="9" t="s">
         <v>2583</v>
       </c>
@@ -24845,7 +26060,7 @@
       <c r="O339" s="6"/>
       <c r="P339" s="2"/>
     </row>
-    <row r="340" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="9" t="s">
         <v>2583</v>
       </c>
@@ -24887,7 +26102,7 @@
       <c r="O340" s="6"/>
       <c r="P340" s="2"/>
     </row>
-    <row r="341" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="9" t="s">
         <v>2583</v>
       </c>
@@ -24929,7 +26144,7 @@
       <c r="O341" s="6"/>
       <c r="P341" s="2"/>
     </row>
-    <row r="342" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="9" t="s">
         <v>2583</v>
       </c>
@@ -24971,7 +26186,7 @@
       <c r="O342" s="6"/>
       <c r="P342" s="2"/>
     </row>
-    <row r="343" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="9" t="s">
         <v>2583</v>
       </c>
@@ -25013,7 +26228,7 @@
       <c r="O343" s="6"/>
       <c r="P343" s="2"/>
     </row>
-    <row r="344" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="9" t="s">
         <v>2583</v>
       </c>
@@ -25055,7 +26270,7 @@
       <c r="O344" s="6"/>
       <c r="P344" s="2"/>
     </row>
-    <row r="345" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="9" t="s">
         <v>2592</v>
       </c>
@@ -25099,726 +26314,2875 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A346" s="9"/>
-      <c r="B346" s="29"/>
-      <c r="C346" s="29"/>
+    <row r="346" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A346" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B346" s="29" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C346" s="29" t="s">
+        <v>2788</v>
+      </c>
       <c r="D346" s="89"/>
-      <c r="E346" s="56"/>
+      <c r="E346" s="56" t="s">
+        <v>2789</v>
+      </c>
       <c r="F346" s="6"/>
       <c r="G346" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H346" s="20"/>
-      <c r="I346" s="20"/>
-      <c r="J346" s="20"/>
-      <c r="K346" s="20"/>
-      <c r="L346" s="20"/>
-      <c r="M346" s="20"/>
+      <c r="H346" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I346" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J346" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K346" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L346" s="95" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M346" s="82" t="s">
+        <v>2597</v>
+      </c>
+      <c r="N346" s="112" t="s">
+        <v>2786</v>
+      </c>
       <c r="O346" s="6"/>
-      <c r="P346" s="2"/>
-    </row>
-    <row r="347" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A347" s="9"/>
-      <c r="B347" s="29"/>
-      <c r="C347" s="29"/>
+      <c r="P346" s="82"/>
+      <c r="Q346" s="99" t="s">
+        <v>2683</v>
+      </c>
+      <c r="R346" s="96" t="s">
+        <v>2684</v>
+      </c>
+      <c r="S346" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="T346" s="105" t="s">
+        <v>2686</v>
+      </c>
+      <c r="U346" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V346" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W346" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X346" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y346" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z346" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA346" s="105"/>
+      <c r="AB346" s="105">
+        <v>1</v>
+      </c>
+      <c r="AC346" s="96" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="347" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A347" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B347" s="29" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C347" s="29" t="s">
+        <v>2792</v>
+      </c>
       <c r="D347" s="89"/>
-      <c r="E347" s="56"/>
+      <c r="E347" s="56" t="s">
+        <v>2793</v>
+      </c>
       <c r="F347" s="6"/>
       <c r="G347" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H347" s="20"/>
-      <c r="I347" s="20"/>
-      <c r="J347" s="20"/>
-      <c r="K347" s="20"/>
-      <c r="L347" s="20"/>
-      <c r="M347" s="20"/>
-      <c r="N347" s="11"/>
+      <c r="H347" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I347" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J347" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K347" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L347" s="96" t="s">
+        <v>2598</v>
+      </c>
+      <c r="M347" s="82" t="s">
+        <v>2599</v>
+      </c>
+      <c r="N347" s="112" t="s">
+        <v>2790</v>
+      </c>
       <c r="O347" s="6"/>
-      <c r="P347" s="2"/>
-    </row>
-    <row r="348" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A348" s="9"/>
-      <c r="B348" s="29"/>
-      <c r="C348" s="29"/>
+      <c r="P347" s="82"/>
+      <c r="Q347" s="99" t="s">
+        <v>2687</v>
+      </c>
+      <c r="R347" s="99" t="s">
+        <v>2688</v>
+      </c>
+      <c r="S347" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="T347" s="105" t="s">
+        <v>2689</v>
+      </c>
+      <c r="U347" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V347" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W347" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X347" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y347" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z347" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA347" s="105"/>
+      <c r="AB347" s="105">
+        <v>1</v>
+      </c>
+      <c r="AC347" s="96" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="348" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A348" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B348" s="29" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C348" s="29" t="s">
+        <v>2795</v>
+      </c>
       <c r="D348" s="89"/>
-      <c r="E348" s="56"/>
+      <c r="E348" s="56" t="s">
+        <v>2796</v>
+      </c>
       <c r="F348" s="6"/>
       <c r="G348" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H348" s="20"/>
-      <c r="I348" s="20"/>
-      <c r="J348" s="20"/>
-      <c r="K348" s="20"/>
-      <c r="L348" s="20"/>
-      <c r="M348" s="20"/>
-      <c r="N348" s="11"/>
+      <c r="H348" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I348" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J348" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K348" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L348" s="97" t="s">
+        <v>2600</v>
+      </c>
+      <c r="M348" s="82" t="s">
+        <v>2601</v>
+      </c>
+      <c r="N348" s="82" t="s">
+        <v>2602</v>
+      </c>
       <c r="O348" s="6"/>
-      <c r="P348" s="2"/>
-    </row>
-    <row r="349" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A349" s="9"/>
-      <c r="B349" s="29"/>
-      <c r="C349" s="29"/>
+      <c r="P348" s="82"/>
+      <c r="Q348" s="97" t="s">
+        <v>2690</v>
+      </c>
+      <c r="R348" s="97" t="s">
+        <v>2691</v>
+      </c>
+      <c r="S348" s="106" t="s">
+        <v>2692</v>
+      </c>
+      <c r="T348" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U348" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V348" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W348" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X348" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y348" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z348" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA348" s="110"/>
+      <c r="AB348" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC348" s="97" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="349" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A349" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B349" s="29" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C349" s="29" t="s">
+        <v>2798</v>
+      </c>
       <c r="D349" s="89"/>
-      <c r="E349" s="56"/>
+      <c r="E349" s="56" t="s">
+        <v>2799</v>
+      </c>
       <c r="F349" s="6"/>
       <c r="G349" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H349" s="20"/>
-      <c r="I349" s="20"/>
-      <c r="J349" s="20"/>
-      <c r="K349" s="20"/>
-      <c r="L349" s="20"/>
-      <c r="M349" s="20"/>
-      <c r="N349" s="11"/>
+      <c r="H349" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I349" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J349" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K349" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L349" s="98" t="s">
+        <v>2603</v>
+      </c>
+      <c r="M349" s="82" t="s">
+        <v>2604</v>
+      </c>
+      <c r="N349" s="82" t="s">
+        <v>2605</v>
+      </c>
       <c r="O349" s="6"/>
-      <c r="P349" s="2"/>
-    </row>
-    <row r="350" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A350" s="9"/>
-      <c r="B350" s="29"/>
-      <c r="C350" s="29"/>
+      <c r="P349" s="82"/>
+      <c r="Q349" s="107" t="s">
+        <v>2693</v>
+      </c>
+      <c r="R349" s="97" t="s">
+        <v>2694</v>
+      </c>
+      <c r="S349" s="105" t="s">
+        <v>2695</v>
+      </c>
+      <c r="T349" s="105" t="s">
+        <v>2696</v>
+      </c>
+      <c r="U349" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V349" s="105" t="s">
+        <v>2697</v>
+      </c>
+      <c r="W349" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X349" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y349" s="106">
+        <v>3</v>
+      </c>
+      <c r="Z349" s="106">
+        <v>3</v>
+      </c>
+      <c r="AA349" s="106">
+        <v>3</v>
+      </c>
+      <c r="AB349" s="106"/>
+      <c r="AC349" s="97" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="350" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A350" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B350" s="29" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C350" s="29" t="s">
+        <v>2803</v>
+      </c>
       <c r="D350" s="89"/>
-      <c r="E350" s="56"/>
+      <c r="E350" s="56" t="s">
+        <v>2804</v>
+      </c>
       <c r="F350" s="6"/>
       <c r="G350" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H350" s="20"/>
-      <c r="I350" s="20"/>
-      <c r="J350" s="20"/>
-      <c r="K350" s="20"/>
-      <c r="L350" s="20"/>
-      <c r="M350" s="20"/>
-      <c r="N350" s="11"/>
+      <c r="H350" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I350" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J350" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K350" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L350" s="99" t="s">
+        <v>2606</v>
+      </c>
+      <c r="M350" s="112" t="s">
+        <v>2801</v>
+      </c>
+      <c r="N350" s="82" t="s">
+        <v>2785</v>
+      </c>
       <c r="O350" s="6"/>
-      <c r="P350" s="2"/>
-    </row>
-    <row r="351" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A351" s="9"/>
-      <c r="B351" s="29"/>
-      <c r="C351" s="29"/>
+      <c r="P350" s="112" t="s">
+        <v>2800</v>
+      </c>
+      <c r="Q350" s="99" t="s">
+        <v>2683</v>
+      </c>
+      <c r="R350" s="99" t="s">
+        <v>2698</v>
+      </c>
+      <c r="S350" s="105" t="s">
+        <v>2699</v>
+      </c>
+      <c r="T350" s="105" t="s">
+        <v>2700</v>
+      </c>
+      <c r="U350" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V350" s="105" t="s">
+        <v>2701</v>
+      </c>
+      <c r="W350" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X350" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y350" s="106">
+        <v>3</v>
+      </c>
+      <c r="Z350" s="106">
+        <v>3</v>
+      </c>
+      <c r="AA350" s="106">
+        <v>3</v>
+      </c>
+      <c r="AB350" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC350" s="97" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="351" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A351" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B351" s="29" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C351" s="29" t="s">
+        <v>2806</v>
+      </c>
       <c r="D351" s="89"/>
-      <c r="E351" s="56"/>
+      <c r="E351" s="56" t="s">
+        <v>2807</v>
+      </c>
       <c r="F351" s="6"/>
       <c r="G351" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H351" s="20"/>
-      <c r="I351" s="20"/>
-      <c r="J351" s="20"/>
-      <c r="K351" s="20"/>
-      <c r="L351" s="20"/>
-      <c r="M351" s="20"/>
-      <c r="N351" s="11"/>
+      <c r="H351" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I351" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J351" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K351" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L351" s="95" t="s">
+        <v>2607</v>
+      </c>
+      <c r="M351" s="82" t="s">
+        <v>2608</v>
+      </c>
+      <c r="N351" s="82" t="s">
+        <v>2609</v>
+      </c>
       <c r="O351" s="6"/>
-      <c r="P351" s="2"/>
-    </row>
-    <row r="352" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A352" s="9"/>
-      <c r="B352" s="29"/>
-      <c r="C352" s="29"/>
+      <c r="P351" s="82"/>
+      <c r="Q351" s="107" t="s">
+        <v>2683</v>
+      </c>
+      <c r="R351" s="107" t="s">
+        <v>2702</v>
+      </c>
+      <c r="S351" s="105" t="s">
+        <v>2703</v>
+      </c>
+      <c r="T351" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U351" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V351" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W351" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X351" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y351" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z351" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA351" s="106"/>
+      <c r="AB351" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC351" s="97" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="352" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A352" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B352" s="29" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C352" s="29" t="s">
+        <v>2809</v>
+      </c>
       <c r="D352" s="89"/>
-      <c r="E352" s="56"/>
+      <c r="E352" s="56" t="s">
+        <v>2810</v>
+      </c>
       <c r="F352" s="6"/>
       <c r="G352" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H352" s="20"/>
-      <c r="I352" s="20"/>
-      <c r="J352" s="20"/>
-      <c r="K352" s="20"/>
-      <c r="L352" s="20"/>
-      <c r="M352" s="20"/>
-      <c r="N352" s="11"/>
+      <c r="H352" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I352" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J352" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K352" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L352" s="97" t="s">
+        <v>2610</v>
+      </c>
+      <c r="M352" s="82" t="s">
+        <v>2611</v>
+      </c>
+      <c r="N352" s="82" t="s">
+        <v>2612</v>
+      </c>
       <c r="O352" s="6"/>
-      <c r="P352" s="2"/>
-    </row>
-    <row r="353" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A353" s="9"/>
-      <c r="B353" s="29"/>
-      <c r="C353" s="29"/>
+      <c r="P352" s="82"/>
+      <c r="Q352" s="97" t="s">
+        <v>2687</v>
+      </c>
+      <c r="R352" s="97" t="s">
+        <v>2688</v>
+      </c>
+      <c r="S352" s="105" t="s">
+        <v>2704</v>
+      </c>
+      <c r="T352" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U352" s="105" t="s">
+        <v>2705</v>
+      </c>
+      <c r="V352" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W352" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X352" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y352" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z352" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA352" s="106"/>
+      <c r="AB352" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC352" s="97" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="353" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A353" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B353" s="29" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C353" s="29" t="s">
+        <v>2812</v>
+      </c>
       <c r="D353" s="89"/>
-      <c r="E353" s="56"/>
+      <c r="E353" s="56" t="s">
+        <v>2813</v>
+      </c>
       <c r="F353" s="6"/>
       <c r="G353" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H353" s="20"/>
-      <c r="I353" s="20"/>
-      <c r="J353" s="20"/>
-      <c r="K353" s="20"/>
-      <c r="L353" s="20"/>
-      <c r="M353" s="20"/>
-      <c r="N353" s="11"/>
+      <c r="H353" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I353" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J353" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K353" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L353" s="97" t="s">
+        <v>2610</v>
+      </c>
+      <c r="M353" s="82" t="s">
+        <v>1182</v>
+      </c>
+      <c r="N353" s="82" t="s">
+        <v>2613</v>
+      </c>
       <c r="O353" s="6"/>
-      <c r="P353" s="2"/>
-    </row>
-    <row r="354" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A354" s="9"/>
-      <c r="B354" s="29"/>
-      <c r="C354" s="29"/>
+      <c r="P353" s="112" t="s">
+        <v>2814</v>
+      </c>
+      <c r="Q353" s="107" t="s">
+        <v>2687</v>
+      </c>
+      <c r="R353" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="S353" s="105" t="s">
+        <v>2706</v>
+      </c>
+      <c r="T353" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U353" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V353" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W353" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X353" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y353" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z353" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA353" s="106"/>
+      <c r="AB353" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC353" s="97" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="354" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A354" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B354" s="29" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C354" s="29" t="s">
+        <v>2817</v>
+      </c>
       <c r="D354" s="89"/>
-      <c r="E354" s="56"/>
+      <c r="E354" s="56" t="s">
+        <v>2818</v>
+      </c>
       <c r="F354" s="6"/>
       <c r="G354" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H354" s="20"/>
-      <c r="I354" s="20"/>
-      <c r="J354" s="20"/>
-      <c r="K354" s="20"/>
-      <c r="L354" s="20"/>
-      <c r="M354" s="20"/>
-      <c r="N354" s="11"/>
+      <c r="H354" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I354" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J354" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K354" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L354" s="97" t="s">
+        <v>2610</v>
+      </c>
+      <c r="M354" s="82" t="s">
+        <v>1182</v>
+      </c>
+      <c r="N354" s="82" t="s">
+        <v>2614</v>
+      </c>
       <c r="O354" s="6"/>
-      <c r="P354" s="2"/>
-    </row>
-    <row r="355" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A355" s="9"/>
-      <c r="B355" s="29"/>
-      <c r="C355" s="29"/>
+      <c r="P354" s="112" t="s">
+        <v>2815</v>
+      </c>
+      <c r="Q354" s="107" t="s">
+        <v>2687</v>
+      </c>
+      <c r="R354" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="S354" s="105" t="s">
+        <v>2707</v>
+      </c>
+      <c r="T354" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U354" s="105" t="s">
+        <v>2708</v>
+      </c>
+      <c r="V354" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W354" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X354" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y354" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z354" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA354" s="106"/>
+      <c r="AB354" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC354" s="97" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="355" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A355" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B355" s="29" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C355" s="29" t="s">
+        <v>2822</v>
+      </c>
       <c r="D355" s="89"/>
-      <c r="E355" s="56"/>
+      <c r="E355" s="56" t="s">
+        <v>2823</v>
+      </c>
       <c r="F355" s="6"/>
       <c r="G355" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H355" s="20"/>
-      <c r="I355" s="20"/>
-      <c r="J355" s="20"/>
-      <c r="K355" s="20"/>
-      <c r="L355" s="20"/>
-      <c r="M355" s="20"/>
-      <c r="N355" s="11"/>
+      <c r="H355" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I355" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J355" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K355" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L355" s="100" t="s">
+        <v>2610</v>
+      </c>
+      <c r="M355" s="112" t="s">
+        <v>2820</v>
+      </c>
+      <c r="N355" s="82" t="s">
+        <v>2615</v>
+      </c>
       <c r="O355" s="6"/>
-      <c r="P355" s="2"/>
-    </row>
-    <row r="356" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A356" s="9"/>
-      <c r="B356" s="29"/>
-      <c r="C356" s="29"/>
+      <c r="P355" s="112" t="s">
+        <v>2819</v>
+      </c>
+      <c r="Q355" s="96" t="s">
+        <v>2687</v>
+      </c>
+      <c r="R355" s="96" t="s">
+        <v>2688</v>
+      </c>
+      <c r="S355" s="105" t="s">
+        <v>2709</v>
+      </c>
+      <c r="T355" s="105" t="s">
+        <v>2710</v>
+      </c>
+      <c r="U355" s="105" t="s">
+        <v>2711</v>
+      </c>
+      <c r="V355" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W355" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X355" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y355" s="106">
+        <v>3</v>
+      </c>
+      <c r="Z355" s="106">
+        <v>3</v>
+      </c>
+      <c r="AA355" s="105">
+        <v>3</v>
+      </c>
+      <c r="AB355" s="105">
+        <v>1</v>
+      </c>
+      <c r="AC355" s="96" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="356" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A356" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B356" s="29" t="s">
+        <v>2824</v>
+      </c>
+      <c r="C356" s="29" t="s">
+        <v>2825</v>
+      </c>
       <c r="D356" s="89"/>
-      <c r="E356" s="56"/>
+      <c r="E356" s="56" t="s">
+        <v>2826</v>
+      </c>
       <c r="F356" s="6"/>
       <c r="G356" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H356" s="20"/>
-      <c r="I356" s="20"/>
-      <c r="J356" s="20"/>
-      <c r="K356" s="20"/>
-      <c r="L356" s="20"/>
-      <c r="M356" s="20"/>
-      <c r="N356" s="11"/>
+      <c r="H356" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I356" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J356" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K356" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L356" s="101" t="s">
+        <v>2616</v>
+      </c>
+      <c r="M356" s="82" t="s">
+        <v>2617</v>
+      </c>
+      <c r="N356" s="82" t="s">
+        <v>2618</v>
+      </c>
       <c r="O356" s="6"/>
-      <c r="P356" s="2"/>
-    </row>
-    <row r="357" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A357" s="9"/>
-      <c r="B357" s="29"/>
-      <c r="C357" s="29"/>
+      <c r="P356" s="82"/>
+      <c r="Q356" s="107" t="s">
+        <v>2687</v>
+      </c>
+      <c r="R356" s="97" t="s">
+        <v>2688</v>
+      </c>
+      <c r="S356" s="105" t="s">
+        <v>2712</v>
+      </c>
+      <c r="T356" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U356" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V356" s="105" t="s">
+        <v>2713</v>
+      </c>
+      <c r="W356" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X356" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y356" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z356" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA356" s="106"/>
+      <c r="AB356" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC356" s="97" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="357" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A357" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B357" s="29" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C357" s="29" t="s">
+        <v>2829</v>
+      </c>
       <c r="D357" s="89"/>
-      <c r="E357" s="56"/>
+      <c r="E357" s="56" t="s">
+        <v>2827</v>
+      </c>
       <c r="F357" s="6"/>
       <c r="G357" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H357" s="20"/>
-      <c r="I357" s="20"/>
-      <c r="J357" s="20"/>
-      <c r="K357" s="20"/>
-      <c r="L357" s="20"/>
-      <c r="M357" s="20"/>
-      <c r="N357" s="11"/>
+      <c r="H357" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I357" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J357" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K357" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L357" s="97" t="s">
+        <v>2619</v>
+      </c>
+      <c r="M357" s="82" t="s">
+        <v>2087</v>
+      </c>
+      <c r="N357" s="82" t="s">
+        <v>2620</v>
+      </c>
       <c r="O357" s="6"/>
-      <c r="P357" s="2"/>
-    </row>
-    <row r="358" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A358" s="9"/>
-      <c r="B358" s="29"/>
-      <c r="C358" s="29"/>
+      <c r="P357" s="82"/>
+      <c r="Q357" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="R357" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="S357" s="105" t="s">
+        <v>2714</v>
+      </c>
+      <c r="T357" s="105" t="s">
+        <v>2715</v>
+      </c>
+      <c r="U357" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V357" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W357" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X357" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y357" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z357" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA357" s="106"/>
+      <c r="AB357" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC357" s="97" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="358" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B358" s="29" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C358" s="29" t="s">
+        <v>2831</v>
+      </c>
       <c r="D358" s="89"/>
-      <c r="E358" s="56"/>
+      <c r="E358" s="56" t="s">
+        <v>2832</v>
+      </c>
       <c r="F358" s="6"/>
       <c r="G358" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H358" s="20"/>
-      <c r="I358" s="20"/>
-      <c r="J358" s="20"/>
-      <c r="K358" s="20"/>
-      <c r="L358" s="20"/>
-      <c r="M358" s="20"/>
-      <c r="N358" s="11"/>
+      <c r="H358" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I358" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J358" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K358" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L358" s="96" t="s">
+        <v>2621</v>
+      </c>
+      <c r="M358" s="82" t="s">
+        <v>2622</v>
+      </c>
+      <c r="N358" s="112" t="s">
+        <v>2833</v>
+      </c>
       <c r="O358" s="6"/>
-      <c r="P358" s="2"/>
-    </row>
-    <row r="359" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A359" s="9"/>
-      <c r="B359" s="29"/>
-      <c r="C359" s="29"/>
+      <c r="P358" s="82"/>
+      <c r="Q358" s="99" t="s">
+        <v>2690</v>
+      </c>
+      <c r="R358" s="99" t="s">
+        <v>2716</v>
+      </c>
+      <c r="S358" s="105" t="s">
+        <v>2717</v>
+      </c>
+      <c r="T358" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U358" s="105" t="s">
+        <v>2717</v>
+      </c>
+      <c r="V358" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W358" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X358" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y358" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z358" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA358" s="105"/>
+      <c r="AB358" s="105">
+        <v>1</v>
+      </c>
+      <c r="AC358" s="96" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="359" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A359" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B359" s="29" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C359" s="29" t="s">
+        <v>2834</v>
+      </c>
       <c r="D359" s="89"/>
-      <c r="E359" s="56"/>
+      <c r="E359" s="56" t="s">
+        <v>2836</v>
+      </c>
       <c r="F359" s="6"/>
       <c r="G359" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H359" s="20"/>
-      <c r="I359" s="20"/>
-      <c r="J359" s="20"/>
-      <c r="K359" s="20"/>
-      <c r="L359" s="20"/>
-      <c r="M359" s="20"/>
-      <c r="N359" s="11"/>
+      <c r="H359" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I359" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J359" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K359" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L359" s="99" t="s">
+        <v>2621</v>
+      </c>
+      <c r="M359" s="82" t="s">
+        <v>2623</v>
+      </c>
+      <c r="N359" s="82" t="s">
+        <v>2624</v>
+      </c>
       <c r="O359" s="6"/>
-      <c r="P359" s="2"/>
-    </row>
-    <row r="360" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A360" s="9"/>
-      <c r="B360" s="29"/>
-      <c r="C360" s="29"/>
+      <c r="P359" s="82"/>
+      <c r="Q359" s="99" t="s">
+        <v>2683</v>
+      </c>
+      <c r="R359" s="99" t="s">
+        <v>2684</v>
+      </c>
+      <c r="S359" s="105" t="s">
+        <v>2718</v>
+      </c>
+      <c r="T359" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U359" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V359" s="105" t="s">
+        <v>2719</v>
+      </c>
+      <c r="W359" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X359" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y359" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z359" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA359" s="105"/>
+      <c r="AB359" s="105">
+        <v>1</v>
+      </c>
+      <c r="AC359" s="96" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="360" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A360" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B360" s="29" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C360" s="29" t="s">
+        <v>2838</v>
+      </c>
       <c r="D360" s="89"/>
-      <c r="E360" s="56"/>
+      <c r="E360" s="56" t="s">
+        <v>2839</v>
+      </c>
       <c r="F360" s="6"/>
       <c r="G360" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H360" s="20"/>
-      <c r="I360" s="20"/>
-      <c r="J360" s="20"/>
-      <c r="K360" s="20"/>
-      <c r="L360" s="20"/>
-      <c r="M360" s="20"/>
-      <c r="N360" s="11"/>
+      <c r="H360" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I360" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J360" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K360" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L360" s="95" t="s">
+        <v>2625</v>
+      </c>
+      <c r="M360" s="82" t="s">
+        <v>2626</v>
+      </c>
+      <c r="N360" s="82" t="s">
+        <v>2627</v>
+      </c>
       <c r="O360" s="6"/>
-      <c r="P360" s="2"/>
-    </row>
-    <row r="361" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A361" s="9"/>
-      <c r="B361" s="29"/>
-      <c r="C361" s="29"/>
+      <c r="P360" s="82"/>
+      <c r="Q360" s="99" t="s">
+        <v>2683</v>
+      </c>
+      <c r="R360" s="99" t="s">
+        <v>2720</v>
+      </c>
+      <c r="S360" s="105" t="s">
+        <v>2721</v>
+      </c>
+      <c r="T360" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U360" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V360" s="106" t="s">
+        <v>2722</v>
+      </c>
+      <c r="W360" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X360" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y360" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z360" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA360" s="106"/>
+      <c r="AB360" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC360" s="97" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="361" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A361" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B361" s="29" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C361" s="29" t="s">
+        <v>2841</v>
+      </c>
       <c r="D361" s="89"/>
-      <c r="E361" s="56"/>
+      <c r="E361" s="56" t="s">
+        <v>2842</v>
+      </c>
       <c r="F361" s="6"/>
       <c r="G361" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H361" s="20"/>
-      <c r="I361" s="20"/>
-      <c r="J361" s="20"/>
-      <c r="K361" s="20"/>
-      <c r="L361" s="20"/>
-      <c r="M361" s="20"/>
-      <c r="N361" s="11"/>
+      <c r="H361" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I361" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J361" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K361" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L361" s="97" t="s">
+        <v>2628</v>
+      </c>
+      <c r="M361" s="82" t="s">
+        <v>2629</v>
+      </c>
+      <c r="N361" s="82" t="s">
+        <v>2630</v>
+      </c>
       <c r="O361" s="6"/>
-      <c r="P361" s="2"/>
-    </row>
-    <row r="362" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A362" s="9"/>
-      <c r="B362" s="29"/>
-      <c r="C362" s="29"/>
+      <c r="P361" s="82"/>
+      <c r="Q361" s="107" t="s">
+        <v>2683</v>
+      </c>
+      <c r="R361" s="97" t="s">
+        <v>2723</v>
+      </c>
+      <c r="S361" s="105" t="s">
+        <v>2724</v>
+      </c>
+      <c r="T361" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U361" s="105" t="s">
+        <v>2725</v>
+      </c>
+      <c r="V361" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W361" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X361" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y361" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z361" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA361" s="106"/>
+      <c r="AB361" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC361" s="97" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="362" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A362" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B362" s="29" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C362" s="29" t="s">
+        <v>2844</v>
+      </c>
       <c r="D362" s="89"/>
-      <c r="E362" s="56"/>
+      <c r="E362" s="56" t="s">
+        <v>2845</v>
+      </c>
       <c r="F362" s="6"/>
       <c r="G362" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H362" s="20"/>
-      <c r="I362" s="20"/>
-      <c r="J362" s="20"/>
-      <c r="K362" s="20"/>
-      <c r="L362" s="20"/>
-      <c r="M362" s="20"/>
-      <c r="N362" s="11"/>
+      <c r="H362" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I362" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J362" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K362" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L362" s="99" t="s">
+        <v>2610</v>
+      </c>
+      <c r="M362" s="82" t="s">
+        <v>2631</v>
+      </c>
+      <c r="N362" s="82" t="s">
+        <v>2632</v>
+      </c>
       <c r="O362" s="6"/>
-      <c r="P362" s="2"/>
-    </row>
-    <row r="363" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A363" s="9"/>
-      <c r="B363" s="29"/>
-      <c r="C363" s="29"/>
+      <c r="P362" s="112" t="s">
+        <v>2846</v>
+      </c>
+      <c r="Q362" s="99" t="s">
+        <v>2683</v>
+      </c>
+      <c r="R362" s="96" t="s">
+        <v>2684</v>
+      </c>
+      <c r="S362" s="105" t="s">
+        <v>2726</v>
+      </c>
+      <c r="T362" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U362" s="105" t="s">
+        <v>2727</v>
+      </c>
+      <c r="V362" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W362" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X362" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y362" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z362" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA362" s="106"/>
+      <c r="AB362" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC362" s="97" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="363" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A363" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B363" s="29" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C363" s="29" t="s">
+        <v>2848</v>
+      </c>
       <c r="D363" s="89"/>
-      <c r="E363" s="56"/>
+      <c r="E363" s="56" t="s">
+        <v>2849</v>
+      </c>
       <c r="F363" s="6"/>
       <c r="G363" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H363" s="20"/>
-      <c r="I363" s="20"/>
-      <c r="J363" s="20"/>
-      <c r="K363" s="20"/>
-      <c r="L363" s="20"/>
-      <c r="M363" s="20"/>
-      <c r="N363" s="11"/>
+      <c r="H363" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I363" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J363" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K363" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L363" s="97" t="s">
+        <v>2628</v>
+      </c>
+      <c r="M363" s="82" t="s">
+        <v>2633</v>
+      </c>
+      <c r="N363" s="82" t="s">
+        <v>2634</v>
+      </c>
       <c r="O363" s="6"/>
-      <c r="P363" s="2"/>
-    </row>
-    <row r="364" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A364" s="9"/>
-      <c r="B364" s="29"/>
-      <c r="C364" s="29"/>
+      <c r="P363" s="82"/>
+      <c r="Q363" s="107" t="s">
+        <v>2690</v>
+      </c>
+      <c r="R363" s="97" t="s">
+        <v>2691</v>
+      </c>
+      <c r="S363" s="106" t="s">
+        <v>2728</v>
+      </c>
+      <c r="T363" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U363" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V363" s="106" t="s">
+        <v>2729</v>
+      </c>
+      <c r="W363" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X363" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y363" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z363" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA363" s="106"/>
+      <c r="AB363" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC363" s="97" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="364" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A364" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B364" s="29" t="s">
+        <v>2851</v>
+      </c>
+      <c r="C364" s="29" t="s">
+        <v>2852</v>
+      </c>
       <c r="D364" s="89"/>
-      <c r="E364" s="56"/>
+      <c r="E364" s="56" t="s">
+        <v>2850</v>
+      </c>
       <c r="F364" s="6"/>
       <c r="G364" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H364" s="20"/>
-      <c r="I364" s="20"/>
-      <c r="J364" s="20"/>
-      <c r="K364" s="20"/>
-      <c r="L364" s="20"/>
-      <c r="M364" s="20"/>
-      <c r="N364" s="11"/>
+      <c r="H364" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I364" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J364" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K364" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L364" s="97" t="s">
+        <v>2628</v>
+      </c>
+      <c r="M364" s="82" t="s">
+        <v>2635</v>
+      </c>
+      <c r="N364" s="82" t="s">
+        <v>2636</v>
+      </c>
       <c r="O364" s="6"/>
-      <c r="P364" s="2"/>
-    </row>
-    <row r="365" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A365" s="9"/>
-      <c r="B365" s="29"/>
-      <c r="C365" s="29"/>
+      <c r="P364" s="82"/>
+      <c r="Q364" s="97" t="s">
+        <v>2687</v>
+      </c>
+      <c r="R364" s="97" t="s">
+        <v>2688</v>
+      </c>
+      <c r="S364" s="105" t="s">
+        <v>2730</v>
+      </c>
+      <c r="T364" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U364" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V364" s="106" t="s">
+        <v>2731</v>
+      </c>
+      <c r="W364" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X364" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y364" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z364" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA364" s="106"/>
+      <c r="AB364" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC364" s="97" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="365" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A365" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B365" s="29" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C365" s="29" t="s">
+        <v>2854</v>
+      </c>
       <c r="D365" s="89"/>
-      <c r="E365" s="56"/>
+      <c r="E365" s="56" t="s">
+        <v>2855</v>
+      </c>
       <c r="F365" s="6"/>
       <c r="G365" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H365" s="20"/>
-      <c r="I365" s="20"/>
-      <c r="J365" s="20"/>
-      <c r="K365" s="20"/>
-      <c r="L365" s="20"/>
-      <c r="M365" s="20"/>
-      <c r="N365" s="11"/>
+      <c r="H365" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I365" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J365" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K365" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L365" s="96" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M365" s="82" t="s">
+        <v>2638</v>
+      </c>
+      <c r="N365" s="82" t="s">
+        <v>2639</v>
+      </c>
       <c r="O365" s="6"/>
-      <c r="P365" s="2"/>
-    </row>
-    <row r="366" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A366" s="9"/>
-      <c r="B366" s="29"/>
-      <c r="C366" s="29"/>
+      <c r="P365" s="82"/>
+      <c r="Q365" s="99" t="s">
+        <v>2690</v>
+      </c>
+      <c r="R365" s="99" t="s">
+        <v>2716</v>
+      </c>
+      <c r="S365" s="105" t="s">
+        <v>2732</v>
+      </c>
+      <c r="T365" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U365" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V365" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W365" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X365" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y365" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z365" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA365" s="106"/>
+      <c r="AB365" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC365" s="97" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="366" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A366" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B366" s="29" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C366" s="29" t="s">
+        <v>2857</v>
+      </c>
       <c r="D366" s="89"/>
-      <c r="E366" s="56"/>
+      <c r="E366" s="56" t="s">
+        <v>2858</v>
+      </c>
       <c r="F366" s="6"/>
       <c r="G366" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H366" s="20"/>
-      <c r="I366" s="20"/>
-      <c r="J366" s="20"/>
-      <c r="K366" s="20"/>
-      <c r="L366" s="20"/>
-      <c r="M366" s="20"/>
-      <c r="N366" s="11"/>
+      <c r="H366" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I366" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J366" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K366" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L366" s="96" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M366" s="82" t="s">
+        <v>2640</v>
+      </c>
+      <c r="N366" s="82" t="s">
+        <v>2641</v>
+      </c>
       <c r="O366" s="6"/>
-      <c r="P366" s="2"/>
-    </row>
-    <row r="367" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A367" s="9"/>
-      <c r="B367" s="29"/>
-      <c r="C367" s="29"/>
+      <c r="P366" s="82"/>
+      <c r="Q366" s="99" t="s">
+        <v>2687</v>
+      </c>
+      <c r="R366" s="99" t="s">
+        <v>2688</v>
+      </c>
+      <c r="S366" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="T366" s="105" t="s">
+        <v>2733</v>
+      </c>
+      <c r="U366" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V366" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W366" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X366" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y366" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z366" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA366" s="105"/>
+      <c r="AB366" s="105">
+        <v>1</v>
+      </c>
+      <c r="AC366" s="96" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="367" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A367" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B367" s="29" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C367" s="29" t="s">
+        <v>2860</v>
+      </c>
       <c r="D367" s="89"/>
-      <c r="E367" s="56"/>
+      <c r="E367" s="56" t="s">
+        <v>2861</v>
+      </c>
       <c r="F367" s="6"/>
       <c r="G367" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H367" s="20"/>
-      <c r="I367" s="20"/>
-      <c r="J367" s="20"/>
-      <c r="K367" s="20"/>
-      <c r="L367" s="20"/>
-      <c r="M367" s="20"/>
-      <c r="N367" s="11"/>
+      <c r="H367" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I367" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J367" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K367" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L367" s="97" t="s">
+        <v>2642</v>
+      </c>
+      <c r="M367" s="82" t="s">
+        <v>2643</v>
+      </c>
+      <c r="N367" s="82"/>
       <c r="O367" s="6"/>
-      <c r="P367" s="2"/>
-    </row>
-    <row r="368" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A368" s="9"/>
-      <c r="B368" s="29"/>
-      <c r="C368" s="29"/>
+      <c r="P367" s="112" t="s">
+        <v>2862</v>
+      </c>
+      <c r="Q367" s="107" t="s">
+        <v>2734</v>
+      </c>
+      <c r="R367" s="107" t="s">
+        <v>2735</v>
+      </c>
+      <c r="S367" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="T367" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U367" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V367" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W367" s="105" t="s">
+        <v>2736</v>
+      </c>
+      <c r="X367" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y367" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z367" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA367" s="105"/>
+      <c r="AB367" s="105">
+        <v>1</v>
+      </c>
+      <c r="AC367" s="96" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="368" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A368" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B368" s="29" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C368" s="29" t="s">
+        <v>2864</v>
+      </c>
       <c r="D368" s="89"/>
-      <c r="E368" s="56"/>
+      <c r="E368" s="56" t="s">
+        <v>2865</v>
+      </c>
       <c r="F368" s="6"/>
       <c r="G368" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H368" s="20"/>
-      <c r="I368" s="20"/>
-      <c r="J368" s="20"/>
-      <c r="K368" s="20"/>
-      <c r="L368" s="20"/>
-      <c r="M368" s="20"/>
-      <c r="N368" s="11"/>
+      <c r="H368" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I368" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J368" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K368" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L368" s="97" t="s">
+        <v>2644</v>
+      </c>
+      <c r="M368" s="82" t="s">
+        <v>2645</v>
+      </c>
+      <c r="N368" s="82" t="s">
+        <v>2646</v>
+      </c>
       <c r="O368" s="6"/>
-      <c r="P368" s="2"/>
-    </row>
-    <row r="369" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A369" s="9"/>
-      <c r="B369" s="29"/>
-      <c r="C369" s="29"/>
+      <c r="P368" s="59" t="s">
+        <v>2866</v>
+      </c>
+      <c r="Q368" s="97" t="s">
+        <v>2687</v>
+      </c>
+      <c r="R368" s="97" t="s">
+        <v>2694</v>
+      </c>
+      <c r="S368" s="105" t="s">
+        <v>2737</v>
+      </c>
+      <c r="T368" s="105" t="s">
+        <v>2738</v>
+      </c>
+      <c r="U368" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V368" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W368" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X368" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y368" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z368" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA368" s="106"/>
+      <c r="AB368" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC368" s="97" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="369" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B369" s="29" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C369" s="29" t="s">
+        <v>2869</v>
+      </c>
       <c r="D369" s="89"/>
-      <c r="E369" s="56"/>
+      <c r="E369" s="56" t="s">
+        <v>2867</v>
+      </c>
       <c r="F369" s="6"/>
       <c r="G369" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H369" s="20"/>
-      <c r="I369" s="20"/>
-      <c r="J369" s="20"/>
-      <c r="K369" s="20"/>
-      <c r="L369" s="20"/>
-      <c r="M369" s="20"/>
-      <c r="N369" s="11"/>
+      <c r="H369" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I369" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J369" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K369" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L369" s="97" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M369" s="82" t="s">
+        <v>2648</v>
+      </c>
+      <c r="N369" s="82" t="s">
+        <v>2649</v>
+      </c>
       <c r="O369" s="6"/>
       <c r="P369" s="2"/>
-    </row>
-    <row r="370" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A370" s="9"/>
-      <c r="B370" s="29"/>
-      <c r="C370" s="29"/>
+      <c r="Q369" s="107" t="s">
+        <v>2683</v>
+      </c>
+      <c r="R369" s="97" t="s">
+        <v>2739</v>
+      </c>
+      <c r="S369" s="105" t="s">
+        <v>2740</v>
+      </c>
+      <c r="T369" s="105" t="s">
+        <v>2740</v>
+      </c>
+      <c r="U369" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V369" s="105" t="s">
+        <v>2740</v>
+      </c>
+      <c r="W369" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X369" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y369" s="106">
+        <v>3</v>
+      </c>
+      <c r="Z369" s="106">
+        <v>3</v>
+      </c>
+      <c r="AA369" s="106">
+        <v>3</v>
+      </c>
+      <c r="AB369" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC369" s="97" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="370" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B370" s="29" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C370" s="29" t="s">
+        <v>2872</v>
+      </c>
       <c r="D370" s="89"/>
-      <c r="E370" s="56"/>
+      <c r="E370" s="56" t="s">
+        <v>2873</v>
+      </c>
       <c r="F370" s="6"/>
       <c r="G370" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H370" s="20"/>
-      <c r="I370" s="20"/>
-      <c r="J370" s="20"/>
-      <c r="K370" s="20"/>
-      <c r="L370" s="20"/>
-      <c r="M370" s="20"/>
-      <c r="N370" s="11"/>
+      <c r="H370" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I370" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J370" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K370" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L370" s="97" t="s">
+        <v>2650</v>
+      </c>
+      <c r="M370" s="82" t="s">
+        <v>2651</v>
+      </c>
+      <c r="N370" s="82" t="s">
+        <v>2652</v>
+      </c>
       <c r="O370" s="6"/>
       <c r="P370" s="2"/>
-    </row>
-    <row r="371" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A371" s="9"/>
-      <c r="B371" s="29"/>
-      <c r="C371" s="29"/>
+      <c r="Q370" s="108" t="s">
+        <v>2742</v>
+      </c>
+      <c r="R370" s="107" t="s">
+        <v>2735</v>
+      </c>
+      <c r="S370" s="105" t="s">
+        <v>2743</v>
+      </c>
+      <c r="T370" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U370" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V370" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W370" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X370" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y370" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z370" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA370" s="106"/>
+      <c r="AB370" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC370" s="97" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="371" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B371" s="29" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C371" s="29" t="s">
+        <v>2875</v>
+      </c>
       <c r="D371" s="89"/>
-      <c r="E371" s="56"/>
+      <c r="E371" s="56" t="s">
+        <v>2876</v>
+      </c>
       <c r="F371" s="6"/>
       <c r="G371" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H371" s="20"/>
-      <c r="I371" s="20"/>
-      <c r="J371" s="20"/>
-      <c r="K371" s="20"/>
-      <c r="L371" s="20"/>
-      <c r="M371" s="20"/>
-      <c r="N371" s="11"/>
+      <c r="H371" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I371" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J371" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K371" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L371" s="98" t="s">
+        <v>2653</v>
+      </c>
+      <c r="M371" s="82" t="s">
+        <v>2654</v>
+      </c>
+      <c r="N371" s="82" t="s">
+        <v>2655</v>
+      </c>
       <c r="O371" s="6"/>
       <c r="P371" s="2"/>
-    </row>
-    <row r="372" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A372" s="9"/>
-      <c r="B372" s="29"/>
-      <c r="C372" s="29"/>
+      <c r="Q371" s="107" t="s">
+        <v>2683</v>
+      </c>
+      <c r="R371" s="97" t="s">
+        <v>2684</v>
+      </c>
+      <c r="S371" s="106" t="s">
+        <v>2685</v>
+      </c>
+      <c r="T371" s="106" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U371" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V371" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W371" s="105" t="s">
+        <v>2744</v>
+      </c>
+      <c r="X371" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y371" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z371" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA371" s="106"/>
+      <c r="AB371" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC371" s="97" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="372" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B372" s="29" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C372" s="29" t="s">
+        <v>2878</v>
+      </c>
       <c r="D372" s="89"/>
-      <c r="E372" s="56"/>
+      <c r="E372" s="56" t="s">
+        <v>2879</v>
+      </c>
       <c r="F372" s="6"/>
       <c r="G372" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H372" s="20"/>
-      <c r="I372" s="20"/>
-      <c r="J372" s="20"/>
-      <c r="K372" s="20"/>
-      <c r="L372" s="20"/>
-      <c r="M372" s="20"/>
-      <c r="N372" s="11"/>
+      <c r="H372" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I372" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J372" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K372" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L372" s="97" t="s">
+        <v>2656</v>
+      </c>
+      <c r="M372" s="82" t="s">
+        <v>2657</v>
+      </c>
+      <c r="N372" s="82" t="s">
+        <v>2658</v>
+      </c>
       <c r="O372" s="6"/>
       <c r="P372" s="2"/>
-    </row>
-    <row r="373" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A373" s="9"/>
-      <c r="B373" s="29"/>
-      <c r="C373" s="29"/>
+      <c r="Q372" s="107" t="s">
+        <v>2734</v>
+      </c>
+      <c r="R372" s="107" t="s">
+        <v>2735</v>
+      </c>
+      <c r="S372" s="105" t="s">
+        <v>2745</v>
+      </c>
+      <c r="T372" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U372" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V372" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W372" s="105" t="s">
+        <v>2745</v>
+      </c>
+      <c r="X372" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y372" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z372" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA372" s="106"/>
+      <c r="AB372" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC372" s="97" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="373" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B373" s="29" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C373" s="29" t="s">
+        <v>2881</v>
+      </c>
       <c r="D373" s="89"/>
-      <c r="E373" s="56"/>
+      <c r="E373" s="56" t="s">
+        <v>2882</v>
+      </c>
       <c r="F373" s="6"/>
       <c r="G373" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H373" s="20"/>
-      <c r="I373" s="20"/>
-      <c r="J373" s="20"/>
-      <c r="K373" s="20"/>
-      <c r="L373" s="20"/>
-      <c r="M373" s="20"/>
-      <c r="N373" s="11"/>
+      <c r="H373" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I373" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J373" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K373" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L373" s="97" t="s">
+        <v>2659</v>
+      </c>
+      <c r="M373" s="82" t="s">
+        <v>2660</v>
+      </c>
+      <c r="N373" s="82" t="s">
+        <v>2661</v>
+      </c>
       <c r="O373" s="6"/>
       <c r="P373" s="2"/>
-    </row>
-    <row r="374" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A374" s="9"/>
-      <c r="B374" s="29"/>
-      <c r="C374" s="29"/>
+      <c r="Q373" s="107" t="s">
+        <v>2683</v>
+      </c>
+      <c r="R373" s="107" t="s">
+        <v>2723</v>
+      </c>
+      <c r="S373" s="105" t="s">
+        <v>2746</v>
+      </c>
+      <c r="T373" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U373" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V373" s="105" t="s">
+        <v>2747</v>
+      </c>
+      <c r="W373" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X373" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y373" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z373" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA373" s="106"/>
+      <c r="AB373" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC373" s="97" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="374" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B374" s="29" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C374" s="29" t="s">
+        <v>2884</v>
+      </c>
       <c r="D374" s="89"/>
-      <c r="E374" s="56"/>
+      <c r="E374" s="56" t="s">
+        <v>2885</v>
+      </c>
       <c r="F374" s="6"/>
       <c r="G374" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H374" s="20"/>
-      <c r="I374" s="20"/>
-      <c r="J374" s="20"/>
-      <c r="K374" s="20"/>
-      <c r="L374" s="20"/>
-      <c r="M374" s="20"/>
-      <c r="N374" s="11"/>
+      <c r="H374" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I374" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J374" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K374" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L374" s="96" t="s">
+        <v>2662</v>
+      </c>
+      <c r="M374" s="82" t="s">
+        <v>2663</v>
+      </c>
+      <c r="N374" s="82">
+        <v>130333</v>
+      </c>
       <c r="O374" s="6"/>
       <c r="P374" s="2"/>
-    </row>
-    <row r="375" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A375" s="9"/>
-      <c r="B375" s="29"/>
-      <c r="C375" s="29"/>
-      <c r="D375" s="89"/>
-      <c r="E375" s="56"/>
+      <c r="Q374" s="99" t="s">
+        <v>2683</v>
+      </c>
+      <c r="R374" s="99" t="s">
+        <v>2748</v>
+      </c>
+      <c r="S374" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="T374" s="105" t="s">
+        <v>2749</v>
+      </c>
+      <c r="U374" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V374" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W374" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X374" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y374" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z374" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA374" s="105"/>
+      <c r="AB374" s="105">
+        <v>1</v>
+      </c>
+      <c r="AC374" s="96" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="375" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B375" s="29" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C375" s="29" t="s">
+        <v>2887</v>
+      </c>
+      <c r="D375" s="29"/>
+      <c r="E375" s="56" t="s">
+        <v>2888</v>
+      </c>
       <c r="F375" s="6"/>
       <c r="G375" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H375" s="20"/>
-      <c r="I375" s="20"/>
-      <c r="J375" s="20"/>
-      <c r="K375" s="20"/>
-      <c r="L375" s="20"/>
-      <c r="M375" s="20"/>
-      <c r="N375" s="11"/>
+      <c r="H375" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I375" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J375" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K375" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L375" s="97" t="s">
+        <v>697</v>
+      </c>
+      <c r="M375" s="82" t="s">
+        <v>2664</v>
+      </c>
+      <c r="N375" s="82" t="s">
+        <v>2665</v>
+      </c>
       <c r="O375" s="6"/>
       <c r="P375" s="2"/>
-    </row>
-    <row r="376" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A376" s="9"/>
-      <c r="B376" s="29"/>
-      <c r="C376" s="29"/>
+      <c r="Q375" s="97" t="s">
+        <v>2687</v>
+      </c>
+      <c r="R375" s="97" t="s">
+        <v>2688</v>
+      </c>
+      <c r="S375" s="105" t="s">
+        <v>2750</v>
+      </c>
+      <c r="T375" s="109" t="s">
+        <v>2751</v>
+      </c>
+      <c r="U375" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V375" s="106" t="s">
+        <v>2752</v>
+      </c>
+      <c r="W375" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X375" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y375" s="106">
+        <v>3</v>
+      </c>
+      <c r="Z375" s="106">
+        <v>3</v>
+      </c>
+      <c r="AA375" s="106">
+        <v>3</v>
+      </c>
+      <c r="AB375" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC375" s="97" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="376" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B376" s="29" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C376" s="29" t="s">
+        <v>2890</v>
+      </c>
       <c r="D376" s="89"/>
-      <c r="E376" s="56"/>
+      <c r="E376" s="56" t="s">
+        <v>2891</v>
+      </c>
       <c r="F376" s="6"/>
       <c r="G376" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H376" s="20"/>
-      <c r="I376" s="20"/>
-      <c r="J376" s="20"/>
-      <c r="K376" s="20"/>
-      <c r="L376" s="20"/>
-      <c r="M376" s="20"/>
-      <c r="N376" s="11"/>
+      <c r="H376" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I376" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J376" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K376" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L376" s="101" t="s">
+        <v>697</v>
+      </c>
+      <c r="M376" s="82" t="s">
+        <v>2666</v>
+      </c>
+      <c r="N376" s="82" t="s">
+        <v>2667</v>
+      </c>
       <c r="O376" s="6"/>
       <c r="P376" s="2"/>
-    </row>
-    <row r="377" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A377" s="9"/>
-      <c r="B377" s="29"/>
-      <c r="C377" s="29"/>
+      <c r="Q376" s="97" t="s">
+        <v>2687</v>
+      </c>
+      <c r="R376" s="97" t="s">
+        <v>2688</v>
+      </c>
+      <c r="S376" s="105" t="s">
+        <v>2753</v>
+      </c>
+      <c r="T376" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U376" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V376" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W376" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X376" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y376" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z376" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA376" s="106"/>
+      <c r="AB376" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC376" s="97" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A377" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B377" s="29" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C377" s="29" t="s">
+        <v>2894</v>
+      </c>
       <c r="D377" s="89"/>
-      <c r="E377" s="56"/>
+      <c r="E377" s="56" t="s">
+        <v>2892</v>
+      </c>
       <c r="F377" s="6"/>
       <c r="G377" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H377" s="20"/>
-      <c r="I377" s="20"/>
-      <c r="J377" s="20"/>
-      <c r="K377" s="20"/>
-      <c r="L377" s="20"/>
-      <c r="M377" s="20"/>
-      <c r="N377" s="11"/>
+      <c r="H377" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I377" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J377" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K377" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L377" s="101" t="s">
+        <v>697</v>
+      </c>
+      <c r="M377" s="82" t="s">
+        <v>2668</v>
+      </c>
+      <c r="N377" s="82" t="s">
+        <v>2669</v>
+      </c>
       <c r="O377" s="6"/>
       <c r="P377" s="2"/>
-    </row>
-    <row r="378" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A378" s="9"/>
-      <c r="B378" s="29"/>
-      <c r="C378" s="29"/>
+      <c r="Q377" s="97" t="s">
+        <v>2683</v>
+      </c>
+      <c r="R377" s="97" t="s">
+        <v>2723</v>
+      </c>
+      <c r="S377" s="105" t="s">
+        <v>2754</v>
+      </c>
+      <c r="T377" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U377" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V377" s="106" t="s">
+        <v>2755</v>
+      </c>
+      <c r="W377" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X377" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y377" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z377" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA377" s="106"/>
+      <c r="AB377" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC377" s="97" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A378" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B378" s="29" t="s">
+        <v>2896</v>
+      </c>
+      <c r="C378" s="29" t="s">
+        <v>2897</v>
+      </c>
       <c r="D378" s="89"/>
-      <c r="E378" s="56"/>
+      <c r="E378" s="56" t="s">
+        <v>2895</v>
+      </c>
       <c r="F378" s="6"/>
       <c r="G378" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H378" s="20"/>
-      <c r="I378" s="20"/>
-      <c r="J378" s="20"/>
-      <c r="K378" s="20"/>
-      <c r="L378" s="20"/>
-      <c r="M378" s="20"/>
-      <c r="N378" s="11"/>
+      <c r="H378" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I378" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J378" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K378" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L378" s="101" t="s">
+        <v>697</v>
+      </c>
+      <c r="M378" s="82" t="s">
+        <v>710</v>
+      </c>
+      <c r="N378" s="82">
+        <v>8787</v>
+      </c>
       <c r="O378" s="6"/>
       <c r="P378" s="2"/>
-    </row>
-    <row r="379" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A379" s="9"/>
-      <c r="B379" s="29"/>
-      <c r="C379" s="29"/>
+      <c r="Q378" s="97" t="s">
+        <v>2756</v>
+      </c>
+      <c r="R378" s="97" t="s">
+        <v>2757</v>
+      </c>
+      <c r="S378" s="105" t="s">
+        <v>2758</v>
+      </c>
+      <c r="T378" s="105" t="s">
+        <v>2758</v>
+      </c>
+      <c r="U378" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V378" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W378" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X378" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y378" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z378" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA378" s="106"/>
+      <c r="AB378" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC378" s="97" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B379" s="29" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C379" s="29" t="s">
+        <v>2900</v>
+      </c>
       <c r="D379" s="89"/>
-      <c r="E379" s="56"/>
+      <c r="E379" s="56" t="s">
+        <v>2898</v>
+      </c>
       <c r="F379" s="6"/>
       <c r="G379" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H379" s="20"/>
-      <c r="I379" s="20"/>
-      <c r="J379" s="20"/>
-      <c r="K379" s="20"/>
-      <c r="L379" s="20"/>
-      <c r="M379" s="20"/>
-      <c r="N379" s="11"/>
+      <c r="H379" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I379" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J379" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K379" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L379" s="97" t="s">
+        <v>697</v>
+      </c>
+      <c r="M379" s="82" t="s">
+        <v>2670</v>
+      </c>
+      <c r="N379" s="102" t="s">
+        <v>2671</v>
+      </c>
       <c r="O379" s="6"/>
-      <c r="P379" s="2"/>
-    </row>
-    <row r="380" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A380" s="9"/>
-      <c r="B380" s="29"/>
-      <c r="C380" s="29"/>
+      <c r="P379" s="59" t="s">
+        <v>2903</v>
+      </c>
+      <c r="Q379" s="97" t="s">
+        <v>2683</v>
+      </c>
+      <c r="R379" s="97" t="s">
+        <v>2759</v>
+      </c>
+      <c r="S379" s="105" t="s">
+        <v>2760</v>
+      </c>
+      <c r="T379" s="105" t="s">
+        <v>2761</v>
+      </c>
+      <c r="U379" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V379" s="105" t="s">
+        <v>2761</v>
+      </c>
+      <c r="W379" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X379" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y379" s="106">
+        <v>3</v>
+      </c>
+      <c r="Z379" s="106">
+        <v>3</v>
+      </c>
+      <c r="AA379" s="106">
+        <v>3</v>
+      </c>
+      <c r="AB379" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC379" s="97" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="380" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B380" s="29" t="s">
+        <v>2901</v>
+      </c>
+      <c r="C380" s="29" t="s">
+        <v>2902</v>
+      </c>
       <c r="D380" s="89"/>
-      <c r="E380" s="56"/>
+      <c r="E380" s="56" t="s">
+        <v>2904</v>
+      </c>
       <c r="F380" s="6"/>
       <c r="G380" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H380" s="20"/>
-      <c r="I380" s="20"/>
-      <c r="J380" s="20"/>
-      <c r="K380" s="20"/>
-      <c r="L380" s="20"/>
-      <c r="M380" s="20"/>
-      <c r="N380" s="11"/>
+      <c r="H380" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I380" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J380" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K380" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L380" s="101" t="s">
+        <v>697</v>
+      </c>
+      <c r="M380" s="82" t="s">
+        <v>2670</v>
+      </c>
+      <c r="N380" s="102" t="s">
+        <v>2672</v>
+      </c>
       <c r="O380" s="6"/>
-      <c r="P380" s="2"/>
-    </row>
-    <row r="381" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A381" s="9"/>
-      <c r="B381" s="29"/>
-      <c r="C381" s="29"/>
+      <c r="P380" s="59" t="s">
+        <v>2903</v>
+      </c>
+      <c r="Q380" s="97" t="s">
+        <v>299</v>
+      </c>
+      <c r="R380" s="97" t="s">
+        <v>299</v>
+      </c>
+      <c r="S380" s="105" t="s">
+        <v>2762</v>
+      </c>
+      <c r="T380" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U380" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V380" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W380" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X380" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y380" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z380" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA380" s="106"/>
+      <c r="AB380" s="106"/>
+      <c r="AC380" s="97" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="381" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A381" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B381" s="29" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C381" s="29" t="s">
+        <v>2906</v>
+      </c>
       <c r="D381" s="89"/>
-      <c r="E381" s="56"/>
+      <c r="E381" s="56" t="s">
+        <v>2907</v>
+      </c>
       <c r="F381" s="6"/>
       <c r="G381" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H381" s="20"/>
-      <c r="I381" s="20"/>
-      <c r="J381" s="20"/>
-      <c r="K381" s="20"/>
-      <c r="L381" s="20"/>
-      <c r="M381" s="20"/>
-      <c r="N381" s="11"/>
+      <c r="H381" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I381" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="J381" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K381" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="L381" s="96" t="s">
+        <v>2520</v>
+      </c>
+      <c r="M381" s="82" t="s">
+        <v>2521</v>
+      </c>
+      <c r="N381" s="82" t="s">
+        <v>2673</v>
+      </c>
       <c r="O381" s="6"/>
       <c r="P381" s="2"/>
-    </row>
-    <row r="382" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q381" s="99" t="s">
+        <v>2763</v>
+      </c>
+      <c r="R381" s="96" t="s">
+        <v>2694</v>
+      </c>
+      <c r="S381" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="T381" s="105" t="s">
+        <v>2764</v>
+      </c>
+      <c r="U381" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V381" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W381" s="105" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X381" s="106" t="s">
+        <v>2765</v>
+      </c>
+      <c r="Y381" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z381" s="106" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AA381" s="106"/>
+      <c r="AB381" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC381" s="97" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="382" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="9"/>
       <c r="B382" s="29"/>
       <c r="C382" s="29"/>
@@ -25838,7 +29202,7 @@
       <c r="O382" s="6"/>
       <c r="P382" s="2"/>
     </row>
-    <row r="383" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="9"/>
       <c r="B383" s="29"/>
       <c r="C383" s="29"/>
@@ -25858,7 +29222,7 @@
       <c r="O383" s="6"/>
       <c r="P383" s="2"/>
     </row>
-    <row r="384" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="9"/>
       <c r="B384" s="29"/>
       <c r="C384" s="29"/>
@@ -25897,26 +29261,6 @@
       <c r="N385" s="11"/>
       <c r="O385" s="6"/>
       <c r="P385" s="2"/>
-    </row>
-    <row r="386" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A386" s="9"/>
-      <c r="B386" s="29"/>
-      <c r="C386" s="29"/>
-      <c r="D386" s="89"/>
-      <c r="E386" s="56"/>
-      <c r="F386" s="6"/>
-      <c r="G386" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H386" s="20"/>
-      <c r="I386" s="20"/>
-      <c r="J386" s="20"/>
-      <c r="K386" s="20"/>
-      <c r="L386" s="20"/>
-      <c r="M386" s="20"/>
-      <c r="N386" s="11"/>
-      <c r="O386" s="6"/>
-      <c r="P386" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P231">
@@ -26350,6 +29694,7 @@
     <hyperlink ref="E287" r:id="rId423" display="https://www.ncbi.nlm.nih.gov/assembly/GCF_000007405.1" xr:uid="{60CFB097-8127-E041-BE5C-2AE29C1024AA}"/>
     <hyperlink ref="E174" r:id="rId424" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
     <hyperlink ref="E343" r:id="rId425" display="https://www.ncbi.nlm.nih.gov/assembly/GCF_000381005.1" xr:uid="{10A003D8-2707-5749-9921-3E91BEF4B07C}"/>
+    <hyperlink ref="E369" r:id="rId426" display="https://www.ncbi.nlm.nih.gov/assembly/GCF_001586165.1" xr:uid="{97D6A505-650B-794B-8296-5ED9F59A485C}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
